--- a/metadata/COVAX_AGG/COVAX_AGG_COMPLETE_V1_DHIS2.30/reference.xlsx
+++ b/metadata/COVAX_AGG/COVAX_AGG_COMPLETE_V1_DHIS2.30/reference.xlsx
@@ -503,7 +503,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_AGG_COMPLETE_V1.0_DHIS2.30_2021-01-26T15:05</v>
+        <v>COVAX_AGG_COMPLETE_V1.0_DHIS2.30_2021-01-28T18:52</v>
       </c>
     </row>
   </sheetData>
@@ -571,7 +571,7 @@
         <v>Female</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-28</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>FFA9e1yIXCT</v>
@@ -604,7 +604,7 @@
         <v>Contamination</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-28</v>
       </c>
       <c r="C8" s="4" t="str">
         <v>jAbqv8bnCqT</v>
@@ -681,7 +681,7 @@
         <v>Male</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-28</v>
       </c>
       <c r="C15" s="5" t="str">
         <v>MP15bHaQh2x</v>
@@ -747,7 +747,7 @@
         <v>default</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>2018-05-30</v>
+        <v>2021-01-28</v>
       </c>
       <c r="C21" s="5" t="str">
         <v>xYerKDKCefk</v>
@@ -1027,7 +1027,7 @@
         <v>default</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>2020-03-26</v>
+        <v>2021-01-28</v>
       </c>
       <c r="C23" s="5" t="str">
         <v>HllvX50cXC0</v>
@@ -1672,13 +1672,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>&lt;60 years</v>
+        <v>0-59 years</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>&lt;60 y</v>
+        <v>0-59 y</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-27</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>fqborXHhXZG</v>
@@ -1720,7 +1720,7 @@
         <v>Contamination</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-28</v>
       </c>
       <c r="D11" s="5" t="str">
         <v>KS058ZLL570</v>
@@ -1850,7 +1850,7 @@
         <v>Age(&lt;60-60+years)</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>&lt;60 years</v>
+        <v>0-59 years</v>
       </c>
     </row>
     <row r="8">
@@ -2517,7 +2517,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given 2+ dose Vs People given 2+ dose</v>
+        <v>COVAX - Doses discarded by reasons Vs discarded stock</v>
       </c>
     </row>
     <row r="4">
@@ -2525,7 +2525,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Essential workers given 1st dose Vs People given 1st dose</v>
+        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received vaccination cards</v>
       </c>
     </row>
     <row r="5">
@@ -2533,7 +2533,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX - Essential workers given last dose Vs People given last dose</v>
+        <v>COVAX - Frontline healthcare workers given 2+ dose Vs People given 2+ dose</v>
       </c>
     </row>
     <row r="6">
@@ -2541,7 +2541,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAX - Stock on hand Vs Opening balance + Received vials</v>
+        <v>COVAX - Stock on hand Vs Opening balance + Received safety boxes</v>
       </c>
     </row>
     <row r="7">
@@ -2549,7 +2549,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX - Stock on hand Vs Opening balance + Received cold boxes</v>
+        <v>COVAX - Essential workers given 1st dose Vs People given 1st dose</v>
       </c>
     </row>
     <row r="8">
@@ -2557,7 +2557,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAX - Essential workers given 2+ dose Vs People given 2+ dose</v>
+        <v>COVAX - Essential workers given last dose Vs People given last dose</v>
       </c>
     </row>
     <row r="9">
@@ -2565,7 +2565,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received vials</v>
+        <v>COVAX - Frontline healthcare workers given 1st dose Vs People given 1st dose</v>
       </c>
     </row>
     <row r="10">
@@ -2573,7 +2573,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received cold boxes</v>
+        <v>COVAX - Stock on hand Vs Opening balance + Received vials</v>
       </c>
     </row>
     <row r="11">
@@ -2581,7 +2581,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAX - Stock on hand Vs Opening balance + Received vaccination cards</v>
+        <v>COVAX - Stock on hand Vs Opening balance + Received cold boxes</v>
       </c>
     </row>
     <row r="12">
@@ -2589,7 +2589,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAX - Doses discarded by reasons Vs discarded stock</v>
+        <v>COVAX - People with underlying medical conditions given 2+ dose Vs People given 2+ dose</v>
       </c>
     </row>
     <row r="13">
@@ -2597,7 +2597,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received vaccination cards</v>
+        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received syringes</v>
       </c>
     </row>
     <row r="14">
@@ -2605,7 +2605,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAX - Stock on hand Vs Opening balance + Received safety boxes</v>
+        <v>COVAX - People with underlying medical conditions given last dose Vs People given last dose</v>
       </c>
     </row>
     <row r="15">
@@ -2613,7 +2613,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given 1st dose Vs People given 1st dose</v>
+        <v>COVAX - Essential workers given 2+ dose Vs People given 2+ dose</v>
       </c>
     </row>
     <row r="16">
@@ -2621,7 +2621,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAX - People with underlying medical conditions given 2+ dose Vs People given 2+ dose</v>
+        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received vials</v>
       </c>
     </row>
     <row r="17">
@@ -2629,7 +2629,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received syringes</v>
+        <v>COVAX - Staff available at centre today Vs Staff expected at centre today</v>
       </c>
     </row>
     <row r="18">
@@ -2637,7 +2637,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAX - People with underlying medical conditions given last dose Vs People given last dose</v>
+        <v>COVAX - Stock on hand Vs Opening balance + Received syringes with needle 1ml</v>
       </c>
     </row>
     <row r="19">
@@ -2645,7 +2645,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAX - Staff available at centre today Vs Staff expected at centre today</v>
+        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received cold boxes</v>
       </c>
     </row>
     <row r="20">
@@ -2653,7 +2653,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAX - Stock on hand Vs Opening balance + Received syringes with needle 1ml</v>
+        <v>COVAX - Frontline healthcare workers given last dose Vs People given last dose</v>
       </c>
     </row>
     <row r="21">
@@ -2661,7 +2661,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given last dose Vs People given last dose</v>
+        <v>COVAX - Frontline health workers+Essential workers+People with underlying medical conditions Vs Target population</v>
       </c>
     </row>
     <row r="22">
@@ -2669,7 +2669,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX - Frontline health workers+Essential workers+People with underlying medical conditions Vs Target population</v>
+        <v>COVAX - Stock on hand Vs Opening balance + Received vaccination cards</v>
       </c>
     </row>
   </sheetData>
@@ -2711,7 +2711,7 @@
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2723,13 +2723,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="88.7109375" customWidth="1"/>
+    <col min="2" max="2" width="87.7109375" customWidth="1"/>
     <col min="3" max="3" width="52.7109375" customWidth="1"/>
     <col min="4" max="4" width="47.7109375" customWidth="1"/>
     <col min="5" max="5" width="90.7109375" customWidth="1"/>
@@ -2798,7 +2798,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J2" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2809,10 +2809,10 @@
         <v>AfDDi4x9jOt</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Opening balance cold boxes</v>
+        <v>COVAX - Opening balance cold box</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Opening balance cold boxes</v>
+        <v>Opening balance cold box</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>CVX_OPENING_BALANCE_COLD_BOXES</v>
@@ -2821,7 +2821,7 @@
         <v>Opening balance equals the physical 'stock on hand count' of the previous period</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>Opening balance cold boxes</v>
+        <v>Opening balance cold box</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>1</v>
@@ -2830,7 +2830,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J3" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2841,16 +2841,16 @@
         <v>ANmlPnVtTTa</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Stockout days - Vaccine3 vials</v>
+        <v>COVAX - Stockout days - Vaccine 3 (vials)</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Stockout days - Vaccine3 vials</v>
+        <v>Stockout days - Vaccine 3 (vials)</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>CVX_STOCKOUT_DAYS_VACCINE3_VIALS</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v xml:space="preserve"> Days the centre was stocked out of the item</v>
+        <v>Days the centre was stocked out of the item</v>
       </c>
       <c r="F4" s="4" t="str">
         <v>Stockout days - Vaccine3</v>
@@ -2862,7 +2862,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J4" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2894,7 +2894,7 @@
         <v>Percentage</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J5" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2902,31 +2902,31 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>AXQfVQKvZJu</v>
+        <v>b3znXSaQjkD</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAX - Target people with existing medical conditions given last dose</v>
+        <v>COVAX - Proportion of staff available</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>People with existing conditions given last dose</v>
+        <v>Staff available (%)</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>CVX_PEOPLE_WITH_EXISTING_COND_LAST_DOSE</v>
+        <v>CVX_STAFF_AVAILABLE_%</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>People with underlying medical conditions given last dose</v>
+        <v>Proportion of staff available</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>Target people with underlying medical conditions given last dose</v>
+        <v>Staff available</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>1</v>
+        <v>Expected staff</v>
       </c>
       <c r="H6" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J6" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2934,31 +2934,31 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>b3znXSaQjkD</v>
+        <v>B7vM2EWHmrP</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX - Proportion of staff available</v>
+        <v>COVAX - Stock at hand safety box</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Staff available (%)</v>
+        <v>Stock at hand safety box</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>CVX_STAFF_AVAILABLE_%</v>
+        <v>CVX_STOCK_AT_HAND_SAFETY_BOX</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>Proportion of staff available</v>
+        <v>Stock on-hand at the center after a physical stock count</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>Staff available</v>
+        <v>Stock on hand safety boxes</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v xml:space="preserve">Expected staff </v>
+        <v>1</v>
       </c>
       <c r="H7" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I7" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J7" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2966,22 +2966,22 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>B7vM2EWHmrP</v>
+        <v>BbcV04tNF2n</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAX - Stock on hand safety boxes</v>
+        <v>COVAX - Opening balance - Vaccine 2 (doses)</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Stock on hand safety boxes</v>
+        <v>Opening balance - Vaccine 2 (doses)</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>CVX_STOCK_ON_HAND_SAFETY_BOXES</v>
+        <v>CVX_OPENING_BALANCE_VACCINE2_DOSES</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>Opening balance equals the physical 'stock on hand count' of the previous day</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>Stock on hand safety boxes</v>
+        <v>Opening balance - Vaccine2 doses</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>1</v>
@@ -2990,7 +2990,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J8" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2998,22 +2998,22 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>BbcV04tNF2n</v>
+        <v>BgtZgNWFVfb</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAX - Opening balance - Vaccine2 doses</v>
+        <v>COVAX - Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>Opening balance - Vaccine2 doses</v>
+        <v>Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_VACCINE2_DOSES</v>
+        <v>CVX_FRONTLINE_HCW_2ND_DOSE</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous day</v>
+        <v>Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>Opening balance - Vaccine2 doses</v>
+        <v>Frontline healthcare workers given 2+ dose</v>
       </c>
       <c r="G9" s="5" t="str">
         <v>1</v>
@@ -3022,7 +3022,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I9" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J9" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3030,22 +3030,22 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>BgtZgNWFVfb</v>
+        <v>bmUnh1j8eUE</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given 2+ dose</v>
+        <v>COVAX - Distributed syringes with needle 1ml</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Frontline healthcare workers given 2+ dose</v>
+        <v>Distributed syringes with needle 1ml</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_2PLUS_DOSE</v>
+        <v>CVX_DISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>Frontline healthcare workers given 2+ dose</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>Frontline healthcare workers given 2+ dose</v>
+        <v>Distributed syringes with needle 1ml</v>
       </c>
       <c r="G10" s="4" t="str">
         <v>1</v>
@@ -3054,7 +3054,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I10" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J10" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3062,31 +3062,31 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>bmUnh1j8eUE</v>
+        <v>btAPoZyKLSW</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAX - Distributed syringes with needle 1ml</v>
+        <v>COVAX - Drop out rates among frontline healthcare workers(%)</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Distributed syringes with needle 1ml</v>
+        <v>Drop out rates among frontline HCW (%)</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>CVX_DISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_DROPOUT_RATES_AMONG_FRONTLINE_HCW_%</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>Distributed syringes with needle 1ml</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>1</v>
+        <v>Given 1st dose</v>
       </c>
       <c r="H11" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I11" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J11" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3094,31 +3094,31 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>btAPoZyKLSW</v>
+        <v>ByzkeCHudEH</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAX - Drop out rates among frontline healthcare workers(%)</v>
+        <v>COVAX - Staff expected at PoC</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Drop out rates among frontline HCW (%)</v>
+        <v>Staff expected at PoC</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_FRONTLINE_HCW_%</v>
+        <v>CVX_STAFF_EXPECTED_AT_POC</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>(1st dose - last dose)/1st dose</v>
+        <v>Staff expected at PoC during the reporting period</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>Given 1st dose - Given last dose</v>
+        <v>Staff expected at PoC</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>Given 1st dose</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I12" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J12" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3126,31 +3126,31 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>ByzkeCHudEH</v>
+        <v>c4p6bfoOh0B</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX - Staff expected at centre today</v>
+        <v>COVAX - Drop out rates among essential workers(%)</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Staff expected at centre today</v>
+        <v>Drop out rates among essential workers (%)</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>CVX_STAFF_EXPECTED_AT_CENTRE_TODAY</v>
+        <v>CVX_DROPOUT_RATES_AMONG_ESS_WORKERS_%</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>Staff expected at centre today</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>Staff expected at centre today</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>1</v>
+        <v>Given 1st dose</v>
       </c>
       <c r="H13" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I13" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J13" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3158,31 +3158,31 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>c4p6bfoOh0B</v>
+        <v>cdLF5DVO45T</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAX - Drop out rates among essential workers(%)</v>
+        <v>COVAX - Closed vials wastage (%)</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Drop out rates among essential workers (%)</v>
+        <v>Closed vials wastage (%)</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_ESS_WORKERS_%</v>
+        <v>CVX_ CLOSED_VIALS_WASTAGE_%</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>(1st dose - last dose)/1st dose</v>
+        <v>(Discarded closed vial doses/Doses discarded)*100</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>Given 1st dose - Given last dose</v>
+        <v>Closed vial doses discarded</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>Given 1st dose</v>
+        <v>Discarded doses</v>
       </c>
       <c r="H14" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J14" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3190,31 +3190,31 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>cdLF5DVO45T</v>
+        <v>cEUzKKCa7fv</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - Closed vials wastage (%)</v>
+        <v>COVAX - Vaccine stock reporting rates</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>Closed vials wastage (%)</v>
+        <v>Vaccine stock reporting rates (%)</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>CVX_ CLOSED_VIALS_WASTAGE_%</v>
+        <v>CVX_VAC_STOCK_REPORTING_RATE_%</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>(Discarded closed vial doses/Doses discarded)*100</v>
+        <v>Proportion of all vaccination centres that submitted their report</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>Closed vial doses discarded</v>
+        <v>Actual reports received</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>Discarded doses</v>
+        <v>Expected reports</v>
       </c>
       <c r="H15" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I15" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J15" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3222,31 +3222,31 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>cEUzKKCa7fv</v>
+        <v>cSnIflt4J3h</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAX - Vaccine stock reporting rates</v>
+        <v>COVAX - Redistributed - Vaccine1 doses</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Vaccine stock reporting rates (%)</v>
+        <v>Redistributed - Vaccine1 doses</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>CVX_VAC_STOCK_REPORTING_RATE_%</v>
+        <v>CVX_REDISTRIBUTED_VACCINE1_DOSES</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v xml:space="preserve">Proportion of all vaccination centres that submitted their report </v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>Actual reports received</v>
+        <v>Redistributed - Vaccine1 doses</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>Expected reports</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I16" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J16" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3254,22 +3254,22 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>cSnIflt4J3h</v>
+        <v>CydbboFk0yH</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX - Redistributed - Vaccine1 doses</v>
+        <v>COVAX - Stock at hand - Vaccine 3 (doses)</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Redistributed - Vaccine1 doses</v>
+        <v>Stock at hand - Vaccine 3 (doses)</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_VACCINE1_DOSES</v>
+        <v>CVX_STOCK_AT_HAND_VACCINE3_DOSES</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Stock on-hand at the center after a physical stock count</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>Redistributed - Vaccine1 doses</v>
+        <v>Stock on hand - Vaccine3 doses</v>
       </c>
       <c r="G17" s="5" t="str">
         <v>1</v>
@@ -3278,7 +3278,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I17" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J17" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3286,22 +3286,22 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>CydbboFk0yH</v>
+        <v>eA3THL80DDH</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAX - Stock on hand - Vaccine3 doses</v>
+        <v>COVAX - Stockout days - Vaccine 1 (vials)</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Stock on hand - Vaccine3 doses</v>
+        <v>Stockout days - Vaccine 1 (vials)</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>CVX_STOCK_ON_HAND_VACCINE3_DOSES</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE1_VIALS</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>Days the centre was stocked out of the item</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>Stock on hand - Vaccine3 doses</v>
+        <v>Stockout days - Vaccine1</v>
       </c>
       <c r="G18" s="4" t="str">
         <v>1</v>
@@ -3310,7 +3310,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I18" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J18" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3318,22 +3318,22 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>eA3THL80DDH</v>
+        <v>EMDTyzi8eMD</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAX - Stockout days - Vaccine1 vials</v>
+        <v>COVAX - Stockout days syringes with needle 1ml</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>Stockout days - Vaccine1 vials</v>
+        <v>Stockout days syringes with needle 1ml</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE1_VIALS</v>
+        <v>CVX_STOCKOUT_DAYS_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v xml:space="preserve"> Days the centre was stocked out of the item</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>Stockout days - Vaccine1</v>
+        <v>Stockout days syringes with needle 1ml</v>
       </c>
       <c r="G19" s="5" t="str">
         <v>1</v>
@@ -3342,7 +3342,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I19" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J19" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3350,22 +3350,22 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>EMDTyzi8eMD</v>
+        <v>EPpNtahWX9y</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAX - Stockout days syringes with needle 1ml</v>
+        <v>COVAX - Discarded open vials - Vaccine 3</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>Stockout days syringes with needle 1ml</v>
+        <v>Discarded open vials - Vaccine 3</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_DISCARDED__CLOSED_VIALS_VACCINE3</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>Stockout days syringes with needle 1ml</v>
+        <v>Discarded open vials - Vaccine 3</v>
       </c>
       <c r="G20" s="4" t="str">
         <v>1</v>
@@ -3374,10 +3374,10 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I20" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J20" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -3406,7 +3406,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I21" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J21" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3417,10 +3417,10 @@
         <v>FE4mbnWq0rv</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX - Discarded - Vaccine2 doses</v>
+        <v>COVAX - Discarded closed vials - Vaccine 2 (doses)</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>Discarded - Vaccine2 doses</v>
+        <v>Discarded closed vials - Vaccine 2 (doses)</v>
       </c>
       <c r="D22" s="4" t="str">
         <v>CVX_DISCARDED_VACCINE2_DOSES</v>
@@ -3438,7 +3438,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I22" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J22" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3452,7 +3452,7 @@
         <v>COVAX - Stock discrepancy rate (%)</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Stock discrepancy rate</v>
+        <v>Stock discrepancy rate (%)</v>
       </c>
       <c r="D23" s="5" t="str">
         <v>CVX_STOCK_DISCREPANCY_VIALS</v>
@@ -3461,16 +3461,16 @@
         <v>(Closing balance-Stock on hand)/Stock on hand</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>Closing balance-Stock on hand</v>
+        <v>Closing balance-Stock at hand</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>Stock on hand</v>
+        <v>Stock at hand</v>
       </c>
       <c r="H23" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I23" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J23" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3502,7 +3502,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I24" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J24" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3510,22 +3510,22 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>fySBzigjUbH</v>
+        <v>fSchc931av0</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>COVAX - Closing balance vaccination cards</v>
+        <v>COVAX - Discarded open vials - Vaccine 1</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Closing balance vaccination cards</v>
+        <v>Discarded open vials - Vaccine 1</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_CARDS</v>
+        <v>CVX_DISCARDED__CLOSED_VIALS_VACCINE1</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Discarded open vials - Vaccine 1</v>
       </c>
       <c r="G25" s="5" t="str">
         <v>1</v>
@@ -3534,30 +3534,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I25" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J25" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>g2voTi7ZCxe</v>
+        <v>FyC7Cf74Cao</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>COVAX - Opening balance - Vaccine1 doses</v>
+        <v>COVAX - Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Opening balance - Vaccine1 doses</v>
+        <v>Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_VACCINE1_DOSES</v>
+        <v>CVX_DISCARDED__OPEN_VIALS_VACCINE2</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>Opening balance equals the physical 'stock on hand count of the previous day</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>Opening balance - Vaccine1 doses</v>
+        <v>Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="G26" s="4" t="str">
         <v>1</v>
@@ -3566,30 +3566,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I26" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J26" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>G9jRzY6zmJg</v>
+        <v>fySBzigjUbH</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>COVAX - Stock on hand vaccination cards</v>
+        <v>COVAX - Closing balance vaccination cards</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>Stock on hand vaccination cards</v>
+        <v>Closing balance vaccination cards</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_CARDS</v>
+        <v>CVX_CLOSING_BALANCE_CARDS</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>Stock on hand vaccination cards</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G27" s="5" t="str">
         <v>1</v>
@@ -3598,7 +3598,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I27" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J27" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3606,22 +3606,22 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>gZEoyKpx4hE</v>
+        <v>g2voTi7ZCxe</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>COVAX - Essential workers given 2+ dose</v>
+        <v>COVAX - Opening balance - Vaccine 1 (doses)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Essential workers given 2+ dose</v>
+        <v>Opening balance - Vaccine 1 (doses)</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_2PLUS_DOSE</v>
+        <v>CVX_OPENING_BALANCE_VACCINE1_DOSES</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Essential workers given 2+ dose</v>
+        <v>Opening balance equals the physical 'stock on hand count of the previous day</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>Essential workers given 2+ dose</v>
+        <v>Opening balance - Vaccine1 doses</v>
       </c>
       <c r="G28" s="4" t="str">
         <v>1</v>
@@ -3630,7 +3630,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I28" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J28" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3638,31 +3638,31 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>h3NchPC73cV</v>
+        <v>G9jRzY6zmJg</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>COVAX - Vaccination reporting rates</v>
+        <v>COVAX - Stock at hand vaccination cards</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>Vaccination reporting rates (%)</v>
+        <v>Stock at hand vaccination cards</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>CVX_VAC_REPORTING_RATE_%</v>
+        <v>CVX_STOCK_AT_HAND_CARDS</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v xml:space="preserve">Proportion of all vaccination centres that submitted their report </v>
+        <v>Stock on-hand at the center after a physical stock count</v>
       </c>
       <c r="F29" s="5" t="str">
-        <v>Actual reports received</v>
+        <v>Stock on hand vaccination cards</v>
       </c>
       <c r="G29" s="5" t="str">
-        <v>Expected reports</v>
+        <v>1</v>
       </c>
       <c r="H29" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I29" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J29" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3670,22 +3670,22 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>H6nsnH2w9A9</v>
+        <v>gZEoyKpx4hE</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>COVAX - Opening balance - Vaccine3 doses</v>
+        <v>COVAX - Essential workers given 2nd dose</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>Opening balance - Vaccine3 doses</v>
+        <v>Essential workers given 2nd dose</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_VACCINE3_DOSES</v>
+        <v>CVX_ESSENTIAL_WORKERS_2ND_DOSE</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous day</v>
+        <v>Essential workers given 2nd dose</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>Opening balance - Vaccine3 doses</v>
+        <v>Essential workers given 2+ dose</v>
       </c>
       <c r="G30" s="4" t="str">
         <v>1</v>
@@ -3694,7 +3694,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I30" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J30" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3702,31 +3702,31 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>hJKdezT5GcK</v>
+        <v>h3NchPC73cV</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>COVAX - Closing balance - Vaccine1 doses</v>
+        <v>COVAX - Vaccination reporting rates</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>Closing balance vials</v>
+        <v>Vaccination reporting rates (%)</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE1_DOSES</v>
+        <v>CVX_VAC_REPORTING_RATE_%</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Proportion of all vaccination centres that submitted their report</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Actual reports received</v>
       </c>
       <c r="G31" s="5" t="str">
-        <v>1</v>
+        <v>Expected reports</v>
       </c>
       <c r="H31" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I31" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J31" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3734,22 +3734,22 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>i0dG1vChnP6</v>
+        <v>H6nsnH2w9A9</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>COVAX - Discarded - Vaccine1 doses</v>
+        <v>COVAX - Opening balance - Vaccine 3 (doses)</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>Discarded - Vaccine1 doses</v>
+        <v>Opening balance - Vaccine 3 (doses)</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>CVX_DISCARDED_VACCINE1_DOSES</v>
+        <v>CVX_OPENING_BALANCE_VACCINE3_DOSES</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Opening balance equals the physical 'stock on hand count' of the previous day</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>Discarded - Vaccine1 doses</v>
+        <v>Opening balance - Vaccine3 doses</v>
       </c>
       <c r="G32" s="4" t="str">
         <v>1</v>
@@ -3758,7 +3758,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I32" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J32" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3766,22 +3766,22 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>iC5xj6Dqa0P</v>
+        <v>hJKdezT5GcK</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>COVAX - Target frontline healthcare workers</v>
+        <v>COVAX - Closing balance - Vaccine 1 (doses)</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Closing balance - Vaccine 1 (doses)</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>CVX_TARGET_FRONTLINE_HCW</v>
+        <v>CVX_CLOSING_BALANCE_VACCINE1_DOSES</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G33" s="5" t="str">
         <v>1</v>
@@ -3790,7 +3790,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I33" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J33" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3798,22 +3798,22 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>ILLy5jdUwwE</v>
+        <v>i0dG1vChnP6</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>COVAX - Stockout days safety boxes</v>
+        <v>COVAX - Discarded closed vials - Vaccine 1 (doses)</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Stockout days safety boxes</v>
+        <v>Discarded closed vials - Vaccine 1 (doses)</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_SAFETY_BOXES</v>
+        <v>CVX_DISCARDED_VACCINE1_DOSES</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F34" s="4" t="str">
-        <v>Stockout days safety boxes</v>
+        <v>Discarded - Vaccine1 doses</v>
       </c>
       <c r="G34" s="4" t="str">
         <v>1</v>
@@ -3822,7 +3822,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I34" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J34" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3830,31 +3830,31 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>Iv3tfc8gso7</v>
+        <v>iC5xj6Dqa0P</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>COVAX - Vaccination reporting rates on time</v>
+        <v>COVAX - Target frontline healthcare workers</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>Vaccination reporting rates on time (%)</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>CVX_VAC_REPORTING_RATE_ONTIME_%</v>
+        <v>CVX_TARGET_FRONTLINE_HCW</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>Proportion of all vaccination centres that submitted their report on time</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>Actual reports received on time</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="G35" s="5" t="str">
-        <v>Actual reports received</v>
+        <v>1</v>
       </c>
       <c r="H35" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I35" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J35" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3862,22 +3862,22 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>J4UW8FgK4vq</v>
+        <v>ILLy5jdUwwE</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>COVAX - Received vaccination cards</v>
+        <v>COVAX - Stockout days safety box</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>Received vaccination cards</v>
+        <v>Stockout days safety box</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>CVX_RECEIVED_CARD</v>
+        <v>CVX_STOCKOUT_DAYS_SAFETY_BOX</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>Received vaccination cards</v>
+        <v>Stockout days safety boxes</v>
       </c>
       <c r="G36" s="4" t="str">
         <v>1</v>
@@ -3886,7 +3886,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I36" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J36" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3894,63 +3894,63 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>j550fnnj9QU</v>
+        <v>iPolbKiHAaq</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>COVAX - Vaccine2 uptake (%)</v>
+        <v>COVAX - Discarded open vials - Vaccine 2</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Vaccine2 uptake (%)</v>
+        <v>Discarded open vials - Vaccine 2</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>CVX_VACCINE2_UPTAKE_%</v>
+        <v>CVX_DISCARDED__CLOSED_VIALS_VACCINE2</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>Proportion of people given doses of vaccine2</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>Vaccine2 doses given</v>
+        <v>Discarded open vials - Vaccine 2</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>Total doses of all vaccines given</v>
+        <v>1</v>
       </c>
       <c r="H37" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I37" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J37" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>jayuvPfIQBz</v>
+        <v>Iv3tfc8gso7</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>COVAX - Received cold boxes</v>
+        <v>COVAX - Vaccination reporting rates on time</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>Received cold boxes</v>
+        <v>Vaccination reporting rates on time (%)</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>CVX_RECEIVED_COLD_BOXES</v>
+        <v>CVX_VAC_REPORTING_RATE_ONTIME_%</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>Proportion of all vaccination centres that submitted their report on time</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>Received cold boxes</v>
+        <v>Actual reports received on time</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>1</v>
+        <v>Actual reports received</v>
       </c>
       <c r="H38" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I38" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J38" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3958,22 +3958,22 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>jFlfqS1M9Hj</v>
+        <v>J4UW8FgK4vq</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>COVAX - Staff available at centre today</v>
+        <v>COVAX - Received vaccination cards</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>Staff available at centre today</v>
+        <v>Received vaccination cards</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>CVX_STAFF_AVAILABLE_AT_CENTRE_TODAY</v>
+        <v>CVX_RECEIVED_CARD</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>Staff available at centre today</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F39" s="5" t="str">
-        <v>Staff available at centre today</v>
+        <v>Received vaccination cards</v>
       </c>
       <c r="G39" s="5" t="str">
         <v>1</v>
@@ -3982,7 +3982,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I39" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J39" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3990,31 +3990,31 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>k9kIyVQEc0o</v>
+        <v>j550fnnj9QU</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>COVAX - Wastage rate (%)</v>
+        <v>COVAX - Vaccine 2 uptake (%)</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Wastage rate (%)</v>
+        <v>Vaccine 2 uptake (%)</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>CVX_ WASTAGE_RATE_%</v>
+        <v>CVX_VACCINE2_UPTAKE_%</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>(Discarded/Used)*100</v>
+        <v>Proportion of people given doses of vaccine2</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>Discarded doses</v>
+        <v>Vaccine2 doses given</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>Used doses=(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>Total doses of all vaccines given</v>
       </c>
       <c r="H40" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I40" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J40" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4022,22 +4022,22 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>Kkbt3LgbCbD</v>
+        <v>jayuvPfIQBz</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>COVAX - Doses in a vial - Vaccine3</v>
+        <v>COVAX - Received cold box</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Doses in a vial - Vaccine3</v>
+        <v>Received cold box</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>CVX_DOSES_IN_A_VIAL_VACCINE3</v>
+        <v>CVX_RECEIVED_COLD_BOX</v>
       </c>
       <c r="E41" s="5" t="str">
-        <v>Number of doses in a vial - Vaccine3</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F41" s="5" t="str">
-        <v>Doses in a vial - Vaccine3</v>
+        <v>Received cold boxes</v>
       </c>
       <c r="G41" s="5" t="str">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I41" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J41" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4054,22 +4054,22 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>KLFHy7LdaEp</v>
+        <v>jFlfqS1M9Hj</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>COVAX - Received - Vaccine2 doses</v>
+        <v>COVAX - Staff available at PoC</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Received - Vaccine2 doses</v>
+        <v>Staff available at PoC</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>CVX_RECEIVED_VACCINE2_DOSES</v>
+        <v>CVX_STAFF_AVAILABLE_AT_POC</v>
       </c>
       <c r="E42" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>Staff available at PoC during the reporting period</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>Received - Vaccine2 doses</v>
+        <v>Staff available at PoC</v>
       </c>
       <c r="G42" s="4" t="str">
         <v>1</v>
@@ -4078,7 +4078,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I42" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J42" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4086,31 +4086,31 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>ktUQ6Yk8Ztv</v>
+        <v>k9kIyVQEc0o</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>COVAX - Target people given last dose</v>
+        <v>COVAX - Wastage rate (%)</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>Target people given last dose</v>
+        <v>Wastage rate (%)</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>CVX_PEOPLE_LAST_DOSE</v>
+        <v>CVX_ WASTAGE_RATE_%</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>Target people vaccinated last dose</v>
+        <v>(Discarded/Used)*100</v>
       </c>
       <c r="F43" s="5" t="str">
-        <v>Target people given last dose</v>
+        <v>Discarded doses</v>
       </c>
       <c r="G43" s="5" t="str">
-        <v>1</v>
+        <v>Used doses=(Opening balance+Received)-(Redistributed+Stock on hand)</v>
       </c>
       <c r="H43" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I43" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J43" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4118,22 +4118,22 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>kx79vq5XdQd</v>
+        <v>Kkbt3LgbCbD</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>COVAX - Closing balance syringes with needle 1ml</v>
+        <v>COVAX - Doses per vial - Vaccine 3</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Closing balance syringes with needle 1ml</v>
+        <v>Doses per vial - Vaccine 3</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_DOSES_IN_A_VIAL_VACCINE3</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Number of doses in a vial - Vaccine3</v>
       </c>
       <c r="F44" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Doses in a vial - Vaccine3</v>
       </c>
       <c r="G44" s="4" t="str">
         <v>1</v>
@@ -4142,7 +4142,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I44" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J44" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4150,22 +4150,22 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>lGv5kC9pLPI</v>
+        <v>KLFHy7LdaEp</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>COVAX - Discarded vials</v>
+        <v>COVAX - Received - Vaccine 2 (doses)</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Discarded vials</v>
+        <v>Received - Vaccine 2 (doses)</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>CVX_DISCARDED_VIALS</v>
+        <v>CVX_RECEIVED_VACCINE2_DOSES</v>
       </c>
       <c r="E45" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F45" s="5" t="str">
-        <v>Discarded vials</v>
+        <v>Received - Vaccine2 doses</v>
       </c>
       <c r="G45" s="5" t="str">
         <v>1</v>
@@ -4174,7 +4174,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I45" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J45" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4182,31 +4182,31 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>LgvcCkQIQ44</v>
+        <v>kx79vq5XdQd</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>COVAX - Opened vials wastage (%)</v>
+        <v>COVAX - Closing balance syringes with needle 1ml</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Opened vials wastage (%)</v>
+        <v>Closing balance syringes with needle 1ml</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>CVX_ OPENED_VIALS_WASTAGE_%</v>
+        <v>CVX_CLOSING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E46" s="4" t="str">
-        <v>(Discarded open vial doses/Doses discarded)*100</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>Opened vial doses discarded</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>Discarded doses</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I46" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J46" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4214,22 +4214,22 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>lXV4Lk0aah6</v>
+        <v>lGv5kC9pLPI</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>COVAX - Distributed vials</v>
+        <v>COVAX - Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>Distributed vials</v>
+        <v>Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>CVX_DISTRIBUTED_VIALS</v>
+        <v>CVX_DISCARDED__OPEN_VIALS_VACCINE1</v>
       </c>
       <c r="E47" s="5" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F47" s="5" t="str">
-        <v>Distributed vials</v>
+        <v>Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="G47" s="5" t="str">
         <v>1</v>
@@ -4238,7 +4238,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I47" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J47" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4246,31 +4246,31 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>mQYStz4mXT5</v>
+        <v>LgvcCkQIQ44</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>COVAX - Target people with existing medical conditions</v>
+        <v>COVAX - Opened vials wastage (%)</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>Opened vials wastage (%)</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>CVX_TARGET_PEOPLE_WITH_EXISTING_CONDITIONS</v>
+        <v>CVX_ OPENED_VIALS_WASTAGE_%</v>
       </c>
       <c r="E48" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>(Discarded open vial doses/Doses discarded)*100</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>Opened vial doses discarded</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>1</v>
+        <v>Discarded doses</v>
       </c>
       <c r="H48" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I48" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J48" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4278,22 +4278,22 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>MRUsCIsRdps</v>
+        <v>lXV4Lk0aah6</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>COVAX - Distributed - Vaccine2 doses</v>
+        <v>COVAX - Distributed vials</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>Distributed - Vaccine2 doses</v>
+        <v>Distributed vials</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>CVX_DISTRIBUTED_VACCINE2_DOSES</v>
+        <v>CVX_DISTRIBUTED_VIALS</v>
       </c>
       <c r="E49" s="5" t="str">
-        <v>Distributed to people receiving the vaccines</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F49" s="5" t="str">
-        <v>Distributed - Vaccine2 doses</v>
+        <v>Distributed vials</v>
       </c>
       <c r="G49" s="5" t="str">
         <v>1</v>
@@ -4302,7 +4302,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I49" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J49" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4310,22 +4310,22 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>N4iXbeP3T5O</v>
+        <v>mQYStz4mXT5</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>COVAX - Closing balance - Vaccine2 vials</v>
+        <v>COVAX - Target people with existing medical conditions</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>Closing balance - Vaccine2 vials</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE2_VIALS</v>
+        <v>CVX_TARGET_PEOPLE_WITH_EXISTING_CONDITIONS</v>
       </c>
       <c r="E50" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="G50" s="4" t="str">
         <v>1</v>
@@ -4334,7 +4334,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I50" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J50" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4342,22 +4342,22 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>N4O2KBFP7Ze</v>
+        <v>MRUsCIsRdps</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>COVAX - Received syringes with needle 1ml</v>
+        <v>COVAX - Distributed - Vaccine 2 (doses)</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>Received syringes with needle 1ml</v>
+        <v>Distributed - Vaccine 2 (doses)</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>CVX_RECEIVED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_DISTRIBUTED_VACCINE2_DOSES</v>
       </c>
       <c r="E51" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>Distributed to people receiving the vaccines</v>
       </c>
       <c r="F51" s="5" t="str">
-        <v>Received syringes with needle 1ml</v>
+        <v>Distributed - Vaccine2 doses</v>
       </c>
       <c r="G51" s="5" t="str">
         <v>1</v>
@@ -4366,7 +4366,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I51" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J51" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4374,22 +4374,22 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>n5u7G8DQYNJ</v>
+        <v>N4iXbeP3T5O</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>COVAX - AEFIs by vaccine and severity</v>
+        <v>COVAX - Closing balance - Vaccine 2 (vials)</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>Closing balance - Vaccine 2 (vials)</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>CVX_AEFIS_BY_VACCINE_AND_SEVERITY</v>
+        <v>CVX_CLOSING_BALANCE_VACCINE2_VIALS</v>
       </c>
       <c r="E52" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F52" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G52" s="4" t="str">
         <v>1</v>
@@ -4398,7 +4398,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I52" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J52" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4406,22 +4406,22 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>nO5aJYGv9qb</v>
+        <v>N4O2KBFP7Ze</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>COVAX - Received - Vaccine3 doses</v>
+        <v>COVAX - Received syringes with needle 1ml</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>Received - Vaccine3 doses</v>
+        <v>Received syringes with needle 1ml</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>CVX_RECEIVED_VACCINE3_DOSES</v>
+        <v>CVX_RECEIVED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E53" s="5" t="str">
         <v>Received at the centre</v>
       </c>
       <c r="F53" s="5" t="str">
-        <v>Received - Vaccine3 doses</v>
+        <v>Received syringes with needle 1ml</v>
       </c>
       <c r="G53" s="5" t="str">
         <v>1</v>
@@ -4430,7 +4430,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I53" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J53" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4438,22 +4438,22 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>NtkYtrGGzGV</v>
+        <v>n5u7G8DQYNJ</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>COVAX - Essential workers given 1st dose</v>
+        <v>COVAX - AEFIs by vaccine and severity</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
+        <v>CVX_AEFIS_BY_VACCINE_AND_SEVERITY</v>
       </c>
       <c r="E54" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="F54" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="G54" s="4" t="str">
         <v>1</v>
@@ -4462,7 +4462,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I54" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J54" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4470,22 +4470,22 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>o2sAk0ai7X9</v>
+        <v>nO5aJYGv9qb</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>COVAX - Stock on hand - Vaccine1 doses</v>
+        <v>COVAX - Received - Vaccine 3 (doses)</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>Stock on hand - Vaccine1 doses</v>
+        <v>Received - Vaccine 3 (doses)</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_VACCINE1_DOSES</v>
+        <v>CVX_RECEIVED_VACCINE3_DOSES</v>
       </c>
       <c r="E55" s="5" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>Received at the centre</v>
       </c>
       <c r="F55" s="5" t="str">
-        <v>Stock on hand - Vaccine1 doses</v>
+        <v>Received - Vaccine3 doses</v>
       </c>
       <c r="G55" s="5" t="str">
         <v>1</v>
@@ -4494,7 +4494,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I55" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J55" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4502,22 +4502,22 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>O9HPe4hooiB</v>
+        <v>NtkYtrGGzGV</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>COVAX - Doses discarded by reasons</v>
+        <v>COVAX - Essential workers given 1st dose</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>Doses discarded by reasons</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>CVX_DOSES_DISCARDED_BY_REASONS</v>
+        <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
       </c>
       <c r="E56" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="F56" s="4" t="str">
-        <v>Vials discarded by reasons</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="G56" s="4" t="str">
         <v>1</v>
@@ -4526,7 +4526,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I56" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J56" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4534,22 +4534,22 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>oB4qA3ZKs89</v>
+        <v>o2sAk0ai7X9</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>COVAX - Target people given 1st dose</v>
+        <v>COVAX - Stock at hand - Vaccine 1 (doses)</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Stock at hand - Vaccine 1 (doses)</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v>CVX_PEOPLE_1ST_DOSE</v>
+        <v>CVX_STOCK_AT_HAND_VACCINE1_DOSES</v>
       </c>
       <c r="E57" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Stock on-hand at the center after a physical stock count</v>
       </c>
       <c r="F57" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Stock on hand - Vaccine1 doses</v>
       </c>
       <c r="G57" s="5" t="str">
         <v>1</v>
@@ -4558,7 +4558,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I57" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J57" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4566,31 +4566,31 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>OkkYt2JpIZ8</v>
+        <v>O9HPe4hooiB</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>COVAX - Vaccine3 uptake (%)</v>
+        <v>COVAX - Doses discarded by reasons</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>Vaccine3 uptake (%)</v>
+        <v>Doses discarded by reasons</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>CVX_VACCINE3_UPTAKE_%</v>
+        <v>CVX_DOSES_DISCARDED_BY_REASONS</v>
       </c>
       <c r="E58" s="4" t="str">
-        <v>Proportion of people given doses of vaccine3</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F58" s="4" t="str">
-        <v>Vaccine3 doses given</v>
+        <v>Vials discarded by reasons</v>
       </c>
       <c r="G58" s="4" t="str">
-        <v>Total doses of all vaccines given</v>
+        <v>1</v>
       </c>
       <c r="H58" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I58" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J58" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4598,22 +4598,22 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>orUc26gd0BF</v>
+        <v>oB4qA3ZKs89</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>COVAX - Closing balance - Vaccine1 vials</v>
+        <v>COVAX - Target people given 1st dose</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>Closing balance vials</v>
+        <v>Target people given 1st dose</v>
       </c>
       <c r="D59" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE1_VIALS</v>
+        <v>CVX_PEOPLE_1ST_DOSE</v>
       </c>
       <c r="E59" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Target people given 1st dose</v>
       </c>
       <c r="F59" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Target people given 1st dose</v>
       </c>
       <c r="G59" s="5" t="str">
         <v>1</v>
@@ -4622,7 +4622,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I59" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J59" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4630,31 +4630,31 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>OxPqWqw6hL6</v>
+        <v>OkkYt2JpIZ8</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given 1st dose</v>
+        <v>COVAX - Vaccine 3 uptake (%)</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>Vaccine 3 uptake (%)</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_1ST_DOSE</v>
+        <v>CVX_VACCINE3_UPTAKE_%</v>
       </c>
       <c r="E60" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>Proportion of people given doses of vaccine3</v>
       </c>
       <c r="F60" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>Vaccine3 doses given</v>
       </c>
       <c r="G60" s="4" t="str">
-        <v>1</v>
+        <v>Total doses of all vaccines given</v>
       </c>
       <c r="H60" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I60" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J60" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4662,22 +4662,22 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
-        <v>pqED8vVfjlf</v>
+        <v>orUc26gd0BF</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>COVAX - Essential workers given last dose</v>
+        <v>COVAX - Closing balance - Vaccine 1 (vials)</v>
       </c>
       <c r="C61" s="5" t="str">
-        <v>Essential workers given last dose</v>
+        <v>Closing balance - Vaccine 1 (vials)</v>
       </c>
       <c r="D61" s="5" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_LAST_DOSE</v>
+        <v>CVX_CLOSING_BALANCE_VACCINE1_VIALS</v>
       </c>
       <c r="E61" s="5" t="str">
-        <v>Essential workers given last dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F61" s="5" t="str">
-        <v>Essential workers given last dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G61" s="5" t="str">
         <v>1</v>
@@ -4686,7 +4686,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I61" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J61" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4694,22 +4694,22 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>q2NHWRFKJIJ</v>
+        <v>OxPqWqw6hL6</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>COVAX - Redistributed syringes with needle 1ml</v>
+        <v>COVAX - Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>Redistributed syringes with needle 1ml</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_FRONTLINE_HCW_1ST_DOSE</v>
       </c>
       <c r="E62" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="F62" s="4" t="str">
-        <v>Redistributed syringes with needle 1ml</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="G62" s="4" t="str">
         <v>1</v>
@@ -4718,7 +4718,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I62" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J62" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4726,22 +4726,22 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>Q5CvJIeZAeh</v>
+        <v>pqED8vVfjlf</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>COVAX - Redistributed cold boxes</v>
+        <v>COVAX - Essential workers given booster dose</v>
       </c>
       <c r="C63" s="5" t="str">
-        <v>Redistributed cold boxes</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="D63" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_COLD_BOXES</v>
+        <v>CVX_ESSENTIAL_WORKERS_BOOSTER_DOSE</v>
       </c>
       <c r="E63" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="F63" s="5" t="str">
-        <v>Redistributed cold boxes</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="G63" s="5" t="str">
         <v>1</v>
@@ -4750,7 +4750,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I63" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J63" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4758,22 +4758,22 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>q7a0Mh2fRC1</v>
+        <v>q2NHWRFKJIJ</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>COVAX - Target people with existing medical conditions given 1st dose</v>
+        <v>COVAX - Redistributed syringes with needle 1ml</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>People with existing conditions given 1st dose</v>
+        <v>Redistributed syringes with needle 1ml</v>
       </c>
       <c r="D64" s="4" t="str">
-        <v>CVX_PEOPLE_WITH_EXISTING_CONDITIONS_1ST_DOSE</v>
+        <v>CVX_REDISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E64" s="4" t="str">
-        <v>People with existing medical conditions given 1st dose</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F64" s="4" t="str">
-        <v>Target people with existing medical conditions given 1st dose</v>
+        <v>Redistributed syringes with needle 1ml</v>
       </c>
       <c r="G64" s="4" t="str">
         <v>1</v>
@@ -4782,7 +4782,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I64" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J64" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4790,31 +4790,31 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v>qgyGe1hrTU8</v>
+        <v>Q5CvJIeZAeh</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>COVAX - Proportion of target people with underlying medical conditions given last dose</v>
+        <v>COVAX - Redistributed cold box</v>
       </c>
       <c r="C65" s="5" t="str">
-        <v>People with existing cond given last dose (%)</v>
+        <v>Redistributed cold box</v>
       </c>
       <c r="D65" s="5" t="str">
-        <v>CVX_EXISTING_CONDS_GIVEN_LAST_DOSE_%</v>
+        <v>CVX_REDISTRIBUTED_COLD_BOXES</v>
       </c>
       <c r="E65" s="5" t="str">
-        <v>Proportion of target people with existing medical conditions given last dose</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F65" s="5" t="str">
-        <v>Target people with existing conditions given last dose</v>
+        <v>Redistributed cold boxes</v>
       </c>
       <c r="G65" s="5" t="str">
-        <v>Target people with underlying medical conditions</v>
+        <v>1</v>
       </c>
       <c r="H65" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I65" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J65" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4822,31 +4822,31 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>QH43B8PD9V5</v>
+        <v>q7a0Mh2fRC1</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>COVAX - Proportion of target essential workers given 1st dose</v>
+        <v>COVAX - Target people with existing medical conditions given 1st dose</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>Target essential workers who received 1st dose (%)</v>
+        <v>People with existing conditions given 1st dose</v>
       </c>
       <c r="D66" s="4" t="str">
-        <v>CVX_ESS_WORKERS_GIVEN_1ST_DOSE_%</v>
+        <v>CVX_PEOPLE_WITH_EXISTING_CONDITIONS_1ST_DOSE</v>
       </c>
       <c r="E66" s="4" t="str">
-        <v>Proportion of essential workers given 1st dose</v>
+        <v>People with existing medical conditions given 1st dose</v>
       </c>
       <c r="F66" s="4" t="str">
-        <v>Target essential workers who received 1st dose</v>
+        <v>Target people with existing medical conditions given 1st dose</v>
       </c>
       <c r="G66" s="4" t="str">
-        <v>Target essential workers</v>
+        <v>1</v>
       </c>
       <c r="H66" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I66" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J66" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4854,22 +4854,22 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>qjnUyy7KWYf</v>
+        <v>QH43B8PD9V5</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>COVAX - Proportion of target essential workers given last dose</v>
+        <v>COVAX - Proportion of target essential workers given 1st dose</v>
       </c>
       <c r="C67" s="5" t="str">
-        <v>Target essential workers given last dose (%)</v>
+        <v>Target essential workers who received 1st dose (%)</v>
       </c>
       <c r="D67" s="5" t="str">
-        <v>CVX_ESS_WORKERS_GIVEN_LAST_DOSE_%</v>
+        <v>CVX_ESS_WORKERS_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E67" s="5" t="str">
-        <v>Proportion of essential workers given last dose</v>
+        <v>Proportion of essential workers given 1st dose</v>
       </c>
       <c r="F67" s="5" t="str">
-        <v xml:space="preserve">Target essential workers given last dose </v>
+        <v>Target essential workers who received 1st dose</v>
       </c>
       <c r="G67" s="5" t="str">
         <v>Target essential workers</v>
@@ -4878,7 +4878,7 @@
         <v>Percentage</v>
       </c>
       <c r="I67" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J67" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4889,10 +4889,10 @@
         <v>QkFx0Jr0EST</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>COVAX - Discarded cold boxes</v>
+        <v>COVAX - Discarded cold box</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>Discarded cold boxes</v>
+        <v>Discarded cold box</v>
       </c>
       <c r="D68" s="4" t="str">
         <v>CVX_DISCARDED_COLD_BOXES</v>
@@ -4910,7 +4910,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I68" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J68" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4921,10 +4921,10 @@
         <v>qM3QXxyUS64</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>COVAX - Redistributed safety boxes</v>
+        <v>COVAX - Redistributed safety box</v>
       </c>
       <c r="C69" s="5" t="str">
-        <v>Redistributed safety boxes</v>
+        <v>Redistributed safety box</v>
       </c>
       <c r="D69" s="5" t="str">
         <v>CVX_REDISTRIBUTED_SAFETY_BOXES</v>
@@ -4942,7 +4942,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I69" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J69" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4974,7 +4974,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I70" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J70" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4985,10 +4985,10 @@
         <v>RkC5nQeFp1f</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>COVAX - Doses in a vial - Vaccine2</v>
+        <v>COVAX - Doses per vial - Vaccine 2</v>
       </c>
       <c r="C71" s="5" t="str">
-        <v>Doses in a vial - Vaccine2</v>
+        <v>Doses per vial - Vaccine 2</v>
       </c>
       <c r="D71" s="5" t="str">
         <v>CVX_DOSES_IN_A_VIAL_VACCINE2</v>
@@ -5006,7 +5006,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I71" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J71" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5038,7 +5038,7 @@
         <v>Percentage</v>
       </c>
       <c r="I72" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J72" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5070,7 +5070,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I73" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J73" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5090,10 +5090,10 @@
         <v>CVX_DROPOUT_RATES_AMONG_ALL%</v>
       </c>
       <c r="E74" s="4" t="str">
-        <v>(1st dose - last dose)/1st dose</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F74" s="4" t="str">
-        <v>Given 1st dose - Given last dose</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G74" s="4" t="str">
         <v>Given 1st dose</v>
@@ -5102,7 +5102,7 @@
         <v>Percentage</v>
       </c>
       <c r="I74" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J74" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5122,10 +5122,10 @@
         <v>CVX_DROPOUT_RATES_AMONG_UNDERLYING_CONDs_%</v>
       </c>
       <c r="E75" s="5" t="str">
-        <v>(1st dose - last dose)/1st dose</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F75" s="5" t="str">
-        <v>Given 1st dose - Given last dose</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G75" s="5" t="str">
         <v>Given 1st dose</v>
@@ -5134,7 +5134,7 @@
         <v>Percentage</v>
       </c>
       <c r="I75" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J75" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5145,10 +5145,10 @@
         <v>sDWeBvf4rrQ</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>COVAX - Received - Vaccine1 doses</v>
+        <v>COVAX - Received - Vaccine 1 (doses)</v>
       </c>
       <c r="C76" s="4" t="str">
-        <v>Received - Vaccine1 doses</v>
+        <v>Received - Vaccine 1 (doses)</v>
       </c>
       <c r="D76" s="4" t="str">
         <v>CVX_RECEIVED_VACCINE1_DOSES</v>
@@ -5166,7 +5166,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I76" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J76" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5198,7 +5198,7 @@
         <v>Percentage</v>
       </c>
       <c r="I77" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J77" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5209,10 +5209,10 @@
         <v>t4hpTf9Jo4a</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>COVAX - Discarded - Vaccine3 doses</v>
+        <v>COVAX - Discarded closed vials - Vaccine 3 (doses)</v>
       </c>
       <c r="C78" s="4" t="str">
-        <v>Discarded - Vaccine3 doses</v>
+        <v>Discarded closed vials - Vaccine 3 (doses)</v>
       </c>
       <c r="D78" s="4" t="str">
         <v>CVX_DISCARDED_VACCINE3_DOSES</v>
@@ -5230,7 +5230,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I78" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J78" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5262,7 +5262,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I79" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J79" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5294,7 +5294,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I80" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J80" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5326,7 +5326,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I81" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J81" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5334,22 +5334,22 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>u56y5tRtmXY</v>
+        <v>U7Xq3jiK8Fy</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>COVAX - Proportion of target people given last dose</v>
+        <v>COVAX - Proportion of target people given 1st dose</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v>Target people given last dose (%)</v>
+        <v>Target people given 1st dose (%)</v>
       </c>
       <c r="D82" s="4" t="str">
-        <v>CVX_PEOPLE_GIVEN_LAST_DOSE_%</v>
+        <v>CVX_PEOPLE_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E82" s="4" t="str">
-        <v>Proportion of target people given last dose</v>
+        <v>Proportion of target people given 1st dose</v>
       </c>
       <c r="F82" s="4" t="str">
-        <v>Target people given last dose</v>
+        <v>Target people given 1st dose</v>
       </c>
       <c r="G82" s="4" t="str">
         <v>Target population</v>
@@ -5358,7 +5358,7 @@
         <v>Percentage</v>
       </c>
       <c r="I82" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J82" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5366,31 +5366,31 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="str">
-        <v>U7Xq3jiK8Fy</v>
+        <v>uhZxrsrhZuy</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>COVAX - Proportion of target people given 1st dose</v>
+        <v>COVAX - Closing balance vials</v>
       </c>
       <c r="C83" s="5" t="str">
-        <v>Target people given 1st dose (%)</v>
+        <v>Closing balance vials</v>
       </c>
       <c r="D83" s="5" t="str">
-        <v>CVX_PEOPLE_GIVEN_1ST_DOSE_%</v>
+        <v>CVX_CLOSING_BALANCE_VIALS</v>
       </c>
       <c r="E83" s="5" t="str">
-        <v>Proportion of target people given 1st dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F83" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G83" s="5" t="str">
-        <v>Target population</v>
+        <v>1</v>
       </c>
       <c r="H83" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I83" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J83" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5398,22 +5398,22 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
-        <v>uhZxrsrhZuy</v>
+        <v>ujhVVQlwTB0</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>COVAX - Closing balance vials</v>
+        <v>COVAX - Opening balance safety box</v>
       </c>
       <c r="C84" s="4" t="str">
-        <v>Closing balance vials</v>
+        <v>Opening balance safety box</v>
       </c>
       <c r="D84" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VIALS</v>
+        <v>CVX_OPENING_BALANCE_SAFETY_BOXES</v>
       </c>
       <c r="E84" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Opening balance equals the physical 'stock on hand count' of the previous period</v>
       </c>
       <c r="F84" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Opening balance safety box</v>
       </c>
       <c r="G84" s="4" t="str">
         <v>1</v>
@@ -5422,7 +5422,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I84" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J84" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5430,22 +5430,22 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="str">
-        <v>ujhVVQlwTB0</v>
+        <v>UjzjMQpG41z</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>COVAX - Opening balance safety boxes</v>
+        <v>COVAX - Stock at hand cold box</v>
       </c>
       <c r="C85" s="5" t="str">
-        <v>Opening balance safety boxes</v>
+        <v>Stock at hand cold box</v>
       </c>
       <c r="D85" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_SAFETY_BOXES</v>
+        <v>CVX_STOCK_AT_HAND_COLD_BOX</v>
       </c>
       <c r="E85" s="5" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous period</v>
+        <v>Stock on-hand at the center after a physical stock count</v>
       </c>
       <c r="F85" s="5" t="str">
-        <v>Opening balance safety boxes</v>
+        <v>Stock on hand cold boxes</v>
       </c>
       <c r="G85" s="5" t="str">
         <v>1</v>
@@ -5454,7 +5454,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I85" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J85" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5462,22 +5462,22 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
-        <v>UjzjMQpG41z</v>
+        <v>UsMLXbWhhEj</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>COVAX - Stock on hand cold boxes</v>
+        <v>COVAX - Distributed cold box</v>
       </c>
       <c r="C86" s="4" t="str">
-        <v>Stock on hand cold boxes</v>
+        <v>Distributed cold box</v>
       </c>
       <c r="D86" s="4" t="str">
-        <v>CVX_STOCK_ON_HAND_COLD_BOXES</v>
+        <v>CVX_DISTRIBUTED_COLD_BOXES</v>
       </c>
       <c r="E86" s="4" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F86" s="4" t="str">
-        <v>Stock on hand cold boxes</v>
+        <v>Distributed cold boxes</v>
       </c>
       <c r="G86" s="4" t="str">
         <v>1</v>
@@ -5486,7 +5486,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I86" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J86" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5494,22 +5494,22 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="str">
-        <v>UsMLXbWhhEj</v>
+        <v>V735nRG647O</v>
       </c>
       <c r="B87" s="5" t="str">
-        <v>COVAX - Distributed cold boxes</v>
+        <v>COVAX - Discarded syringes with needle 1ml</v>
       </c>
       <c r="C87" s="5" t="str">
-        <v>Distributed cold boxes</v>
+        <v>Discarded syringes with needle 1ml</v>
       </c>
       <c r="D87" s="5" t="str">
-        <v>CVX_DISTRIBUTED_COLD_BOXES</v>
+        <v>CVX_DISCARDED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E87" s="5" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F87" s="5" t="str">
-        <v>Distributed cold boxes</v>
+        <v>Discarded syringes with needle 1ml</v>
       </c>
       <c r="G87" s="5" t="str">
         <v>1</v>
@@ -5518,7 +5518,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I87" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J87" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5526,22 +5526,22 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
-        <v>V735nRG647O</v>
+        <v>V8XFjC7JHtx</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>COVAX - Discarded syringes with needle 1ml</v>
+        <v>COVAX - Distributed vaccination cards</v>
       </c>
       <c r="C88" s="4" t="str">
-        <v>Discarded syringes with needle 1ml</v>
+        <v>Distributed vaccination cards</v>
       </c>
       <c r="D88" s="4" t="str">
-        <v>CVX_DISCARDED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_DISTRIBUTED_CARDS</v>
       </c>
       <c r="E88" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F88" s="4" t="str">
-        <v>Discarded syringes with needle 1ml</v>
+        <v>Distributed vaccination cards</v>
       </c>
       <c r="G88" s="4" t="str">
         <v>1</v>
@@ -5550,7 +5550,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I88" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J88" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5558,22 +5558,22 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="str">
-        <v>V8XFjC7JHtx</v>
+        <v>vBBejr9Qm9y</v>
       </c>
       <c r="B89" s="5" t="str">
-        <v>COVAX - Distributed vaccination cards</v>
+        <v>COVAX - Closing balance - Vaccine 3 (vials)</v>
       </c>
       <c r="C89" s="5" t="str">
-        <v>Distributed vaccination cards</v>
+        <v>Closing balance - Vaccine 3 (vials)</v>
       </c>
       <c r="D89" s="5" t="str">
-        <v>CVX_DISTRIBUTED_CARDS</v>
+        <v>CVX_CLOSING_BALANCE_VACCINE3_VIALS</v>
       </c>
       <c r="E89" s="5" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F89" s="5" t="str">
-        <v>Distributed vaccination cards</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G89" s="5" t="str">
         <v>1</v>
@@ -5582,7 +5582,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I89" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J89" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5590,22 +5590,22 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="str">
-        <v>vBBejr9Qm9y</v>
+        <v>vBJQTfzca4x</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>COVAX - Closing balance - Vaccine3 vials</v>
+        <v>COVAX - Frontline healthcare workers given booster dose</v>
       </c>
       <c r="C90" s="4" t="str">
-        <v>Closing balance - Vaccine3 vials</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="D90" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE3_VIALS</v>
+        <v>CVX_FRONTLINE_HCW_BOOSTER_DOSE</v>
       </c>
       <c r="E90" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="F90" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="G90" s="4" t="str">
         <v>1</v>
@@ -5614,7 +5614,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I90" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J90" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5622,22 +5622,22 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="str">
-        <v>vBJQTfzca4x</v>
+        <v>VFdnTyYvS5c</v>
       </c>
       <c r="B91" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given last dose</v>
+        <v>COVAX - Stock at hand vials</v>
       </c>
       <c r="C91" s="5" t="str">
-        <v>Frontline healthcare workers given last dose</v>
+        <v>Stock at hand vials</v>
       </c>
       <c r="D91" s="5" t="str">
-        <v>CVX_FRONTLINE_HCW_LAST_DOSE</v>
+        <v>CVX_STOCK_AT_HAND_VIALS</v>
       </c>
       <c r="E91" s="5" t="str">
-        <v>Frontline healthcare workers given last dose</v>
+        <v>Stock on-hand at the center after a physical stock count</v>
       </c>
       <c r="F91" s="5" t="str">
-        <v>Frontline healthcare workers given last dose</v>
+        <v>Stock on hand vials</v>
       </c>
       <c r="G91" s="5" t="str">
         <v>1</v>
@@ -5646,7 +5646,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I91" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J91" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5654,22 +5654,22 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="str">
-        <v>VFdnTyYvS5c</v>
+        <v>vn6JSZdN0Gq</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>COVAX - Stock on hand vials</v>
+        <v>COVAX - Stockout days cold box</v>
       </c>
       <c r="C92" s="4" t="str">
-        <v>Stock on hand vials</v>
+        <v>Stockout days cold box</v>
       </c>
       <c r="D92" s="4" t="str">
-        <v>CVX_STOCK_ON_HAND_VIALS</v>
+        <v>CVX_STOCKOUT_DAYS_COLD_BOX</v>
       </c>
       <c r="E92" s="4" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F92" s="4" t="str">
-        <v>Stock on hand vials</v>
+        <v>Stockout days cold boxes</v>
       </c>
       <c r="G92" s="4" t="str">
         <v>1</v>
@@ -5678,7 +5678,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I92" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J92" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5686,22 +5686,22 @@
     </row>
     <row r="93">
       <c r="A93" s="5" t="str">
-        <v>vn6JSZdN0Gq</v>
+        <v>w42k9kZegoW</v>
       </c>
       <c r="B93" s="5" t="str">
-        <v>COVAX - Stockout days cold boxes</v>
+        <v>COVAX - Distributed safety box</v>
       </c>
       <c r="C93" s="5" t="str">
-        <v>Stockout days cold boxes</v>
+        <v>Distributed safety box</v>
       </c>
       <c r="D93" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_COLD_BOXES</v>
+        <v>CVX_DISTRIBUTED_SAFETY_BOXES</v>
       </c>
       <c r="E93" s="5" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F93" s="5" t="str">
-        <v>Stockout days cold boxes</v>
+        <v>Distributed safety boxes</v>
       </c>
       <c r="G93" s="5" t="str">
         <v>1</v>
@@ -5710,7 +5710,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I93" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J93" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5718,22 +5718,22 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="str">
-        <v>w42k9kZegoW</v>
+        <v>wassnxEhpwM</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>COVAX - Distributed safety boxes</v>
+        <v>COVAX - Target essential workers</v>
       </c>
       <c r="C94" s="4" t="str">
-        <v>Distributed safety boxes</v>
+        <v>Target essential workers</v>
       </c>
       <c r="D94" s="4" t="str">
-        <v>CVX_DISTRIBUTED_SAFETY_BOXES</v>
+        <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
       </c>
       <c r="E94" s="4" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Target essential workers</v>
       </c>
       <c r="F94" s="4" t="str">
-        <v>Distributed safety boxes</v>
+        <v>Target essential workers</v>
       </c>
       <c r="G94" s="4" t="str">
         <v>1</v>
@@ -5742,7 +5742,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I94" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J94" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5750,22 +5750,22 @@
     </row>
     <row r="95">
       <c r="A95" s="5" t="str">
-        <v>wassnxEhpwM</v>
+        <v>wcMsZNh0GO0</v>
       </c>
       <c r="B95" s="5" t="str">
-        <v>COVAX - Target essential workers</v>
+        <v>COVAX - Received safety box</v>
       </c>
       <c r="C95" s="5" t="str">
-        <v>Target essential workers</v>
+        <v>Received safety box</v>
       </c>
       <c r="D95" s="5" t="str">
-        <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
+        <v>CVX_RECEIVED_SAFETY_BOX</v>
       </c>
       <c r="E95" s="5" t="str">
-        <v>Target essential workers</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F95" s="5" t="str">
-        <v>Target essential workers</v>
+        <v>Received safety boxes</v>
       </c>
       <c r="G95" s="5" t="str">
         <v>1</v>
@@ -5774,7 +5774,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I95" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J95" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5782,22 +5782,22 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="str">
-        <v>wcMsZNh0GO0</v>
+        <v>WMjFkieChKj</v>
       </c>
       <c r="B96" s="4" t="str">
-        <v>COVAX - Received safety boxes</v>
+        <v>COVAX - Stockout days - Vaccine 2 (vials)</v>
       </c>
       <c r="C96" s="4" t="str">
-        <v>Received safety boxes</v>
+        <v>Stockout days - Vaccine 2 (vials)</v>
       </c>
       <c r="D96" s="4" t="str">
-        <v>CVX_RECEIVED_SAFETY_BOXES</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE2_VIALS</v>
       </c>
       <c r="E96" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>Days the centre was stocked out of the item</v>
       </c>
       <c r="F96" s="4" t="str">
-        <v>Received safety boxes</v>
+        <v>Stockout days - Vaccine2</v>
       </c>
       <c r="G96" s="4" t="str">
         <v>1</v>
@@ -5806,7 +5806,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I96" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J96" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5814,22 +5814,22 @@
     </row>
     <row r="97">
       <c r="A97" s="5" t="str">
-        <v>WMjFkieChKj</v>
+        <v>wpfKN5vD3QG</v>
       </c>
       <c r="B97" s="5" t="str">
-        <v>COVAX - Stockout days - Vaccine2 vials</v>
+        <v>COVAX - Used vials</v>
       </c>
       <c r="C97" s="5" t="str">
-        <v>Stockout days - Vaccine2 vials</v>
+        <v>Used vials</v>
       </c>
       <c r="D97" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE2_VIALS</v>
+        <v>CVX_USED_VIALS</v>
       </c>
       <c r="E97" s="5" t="str">
-        <v xml:space="preserve"> Days the centre was stocked out of the item</v>
+        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
       </c>
       <c r="F97" s="5" t="str">
-        <v>Stockout days - Vaccine2</v>
+        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
       </c>
       <c r="G97" s="5" t="str">
         <v>1</v>
@@ -5838,7 +5838,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I97" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J97" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5846,22 +5846,22 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="str">
-        <v>wpfKN5vD3QG</v>
+        <v>X2XYc8WNUY3</v>
       </c>
       <c r="B98" s="4" t="str">
-        <v>COVAX - Used vials</v>
+        <v>COVAX - Distributed - Vaccine 1 (doses)</v>
       </c>
       <c r="C98" s="4" t="str">
-        <v>Used vials</v>
+        <v>Distributed - Vaccine 1 (doses)</v>
       </c>
       <c r="D98" s="4" t="str">
-        <v>CVX_USED_VIALS</v>
+        <v>CVX_DISTRIBUTED_VACCINE1_DOSES</v>
       </c>
       <c r="E98" s="4" t="str">
-        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>Distributed to people receiving the vaccines</v>
       </c>
       <c r="F98" s="4" t="str">
-        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>Distributed - Vaccine1 doses</v>
       </c>
       <c r="G98" s="4" t="str">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I98" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J98" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5878,22 +5878,22 @@
     </row>
     <row r="99">
       <c r="A99" s="5" t="str">
-        <v>X2XYc8WNUY3</v>
+        <v>XP9ag4eDNlu</v>
       </c>
       <c r="B99" s="5" t="str">
-        <v>COVAX - Distributed - Vaccine1 doses</v>
+        <v>COVAX - Discarded closed vials - Vaccine 3</v>
       </c>
       <c r="C99" s="5" t="str">
-        <v>Distributed - Vaccine1 doses</v>
+        <v>Discarded closed vials - Vaccine 3</v>
       </c>
       <c r="D99" s="5" t="str">
-        <v>CVX_DISTRIBUTED_VACCINE1_DOSES</v>
+        <v>CVX_DISCARDED__OPEN_VIALS_VACCINE3</v>
       </c>
       <c r="E99" s="5" t="str">
-        <v>Distributed to people receiving the vaccines</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F99" s="5" t="str">
-        <v>Distributed - Vaccine1 doses</v>
+        <v>Discarded closed vials - Vaccine 3</v>
       </c>
       <c r="G99" s="5" t="str">
         <v>1</v>
@@ -5902,10 +5902,10 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I99" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J99" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="100">
@@ -5913,10 +5913,10 @@
         <v>XxmA3VOxZdM</v>
       </c>
       <c r="B100" s="4" t="str">
-        <v>COVAX - Distributed - Vaccine3 doses</v>
+        <v>COVAX - Distributed - Vaccine 3 (doses)</v>
       </c>
       <c r="C100" s="4" t="str">
-        <v>Distributed - Vaccine3 doses</v>
+        <v>Distributed - Vaccine 3 (doses)</v>
       </c>
       <c r="D100" s="4" t="str">
         <v>CVX_DISTRIBUTED_VACCINE3_DOSES</v>
@@ -5934,7 +5934,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I100" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J100" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5945,7 +5945,7 @@
         <v>y7uIwU6x8VS</v>
       </c>
       <c r="B101" s="5" t="str">
-        <v>COVAX - Vaccine1 uptake (%)</v>
+        <v>COVAX - Vaccine 1 uptake (%)</v>
       </c>
       <c r="C101" s="5" t="str">
         <v>Vaccine 1 uptake (%)</v>
@@ -5966,7 +5966,7 @@
         <v>Percentage</v>
       </c>
       <c r="I101" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J101" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5998,7 +5998,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I102" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J102" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6030,7 +6030,7 @@
         <v>Percentage</v>
       </c>
       <c r="I103" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J103" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6041,10 +6041,10 @@
         <v>YBLUIQSCFPJ</v>
       </c>
       <c r="B104" s="4" t="str">
-        <v>COVAX - Closing balance - Vaccine3 doses</v>
+        <v>COVAX - Closing balance - Vaccine 3 (doses)</v>
       </c>
       <c r="C104" s="4" t="str">
-        <v>Closing balance - Vaccine3 doses</v>
+        <v>Closing balance - Vaccine 3 (doses)</v>
       </c>
       <c r="D104" s="4" t="str">
         <v>CVX_CLOSING_BALANCE_VACCINE3_DOSES</v>
@@ -6062,7 +6062,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I104" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J104" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6070,31 +6070,31 @@
     </row>
     <row r="105">
       <c r="A105" s="5" t="str">
-        <v>YClBh4hwpk7</v>
+        <v>yJ9izFBk1bB</v>
       </c>
       <c r="B105" s="5" t="str">
-        <v>COVAX - Proportion of target frontline healthcare workers given last dose</v>
+        <v>COVAX - Closing balance safety boxes</v>
       </c>
       <c r="C105" s="5" t="str">
-        <v>Frontline healthcare workers given last dose (%)</v>
+        <v>Closing balance safety boxes</v>
       </c>
       <c r="D105" s="5" t="str">
-        <v>CVX_FRONTLINE_HCW_GIVEN_LAST_DOSE_%</v>
+        <v>CVX_CLOSING_BALANCE_SAFETY_BOXES</v>
       </c>
       <c r="E105" s="5" t="str">
-        <v>Proportion of frontline healthcare workers given last dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F105" s="5" t="str">
-        <v>Target frontline healthcare workers  given last dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G105" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>1</v>
       </c>
       <c r="H105" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I105" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J105" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6102,22 +6102,22 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="str">
-        <v>yJ9izFBk1bB</v>
+        <v>ymno3YCIqbh</v>
       </c>
       <c r="B106" s="4" t="str">
-        <v>COVAX - Closing balance safety boxes</v>
+        <v>COVAX - Redistributed vaccination cards</v>
       </c>
       <c r="C106" s="4" t="str">
-        <v>Closing balance safety boxes</v>
+        <v>Redistributed vaccination cards</v>
       </c>
       <c r="D106" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_SAFETY_BOXES</v>
+        <v>CVX_REDISTRIBUTED_CARDS</v>
       </c>
       <c r="E106" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F106" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Redistributed vaccination cards</v>
       </c>
       <c r="G106" s="4" t="str">
         <v>1</v>
@@ -6126,7 +6126,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I106" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J106" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6134,22 +6134,22 @@
     </row>
     <row r="107">
       <c r="A107" s="5" t="str">
-        <v>ymno3YCIqbh</v>
+        <v>yuEFomZq3Fh</v>
       </c>
       <c r="B107" s="5" t="str">
-        <v>COVAX - Redistributed vaccination cards</v>
+        <v>COVAX - Closing balance cold boxes</v>
       </c>
       <c r="C107" s="5" t="str">
-        <v>Redistributed vaccination cards</v>
+        <v>Closing balance cold boxes</v>
       </c>
       <c r="D107" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_CARDS</v>
+        <v>CVX_CLOSING_BALANCE_COLD_BOXES</v>
       </c>
       <c r="E107" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F107" s="5" t="str">
-        <v>Redistributed vaccination cards</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G107" s="5" t="str">
         <v>1</v>
@@ -6158,7 +6158,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I107" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J107" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6166,22 +6166,22 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="str">
-        <v>yuEFomZq3Fh</v>
+        <v>z0zjaGkserE</v>
       </c>
       <c r="B108" s="4" t="str">
-        <v>COVAX - Closing balance cold boxes</v>
+        <v>COVAX - Discarded safety box</v>
       </c>
       <c r="C108" s="4" t="str">
-        <v>Closing balance cold boxes</v>
+        <v>Discarded safety box</v>
       </c>
       <c r="D108" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_COLD_BOXES</v>
+        <v>CVX_DISCARDED_SAFETY_BOXES</v>
       </c>
       <c r="E108" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F108" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Discarded safety boxes</v>
       </c>
       <c r="G108" s="4" t="str">
         <v>1</v>
@@ -6190,7 +6190,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I108" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J108" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6198,22 +6198,22 @@
     </row>
     <row r="109">
       <c r="A109" s="5" t="str">
-        <v>z0zjaGkserE</v>
+        <v>zcN15JQUWc7</v>
       </c>
       <c r="B109" s="5" t="str">
-        <v>COVAX - Discarded safety boxes</v>
+        <v>COVAX - Stock at hand - Vaccine 2 (doses)</v>
       </c>
       <c r="C109" s="5" t="str">
-        <v>Discarded safety boxes</v>
+        <v>Stock at hand - Vaccine 2 (doses)</v>
       </c>
       <c r="D109" s="5" t="str">
-        <v>CVX_DISCARDED_SAFETY_BOXES</v>
+        <v>CVX_STOCK_AT_HAND_VACCINE2_DOSES</v>
       </c>
       <c r="E109" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Stock on-hand at the center after a physical stock count</v>
       </c>
       <c r="F109" s="5" t="str">
-        <v>Discarded safety boxes</v>
+        <v>Stock on hand - Vaccine2 doses</v>
       </c>
       <c r="G109" s="5" t="str">
         <v>1</v>
@@ -6222,7 +6222,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I109" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J109" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6230,22 +6230,22 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="str">
-        <v>zcN15JQUWc7</v>
+        <v>zdTKcWr73Sk</v>
       </c>
       <c r="B110" s="4" t="str">
-        <v>COVAX - Stock on hand - Vaccine2 doses</v>
+        <v>COVAX - Stock at hand syringes with needle 1ml</v>
       </c>
       <c r="C110" s="4" t="str">
-        <v>Stock on hand - Vaccine2 doses</v>
+        <v>Stock at hand syringes with needle 1ml</v>
       </c>
       <c r="D110" s="4" t="str">
-        <v>CVX_STOCK_ON_HAND_VACCINE2_DOSES</v>
+        <v>CVX_STOCK_AT_HAND_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E110" s="4" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>Stock on-hand at the center after a physical stock count</v>
       </c>
       <c r="F110" s="4" t="str">
-        <v>Stock on hand - Vaccine2 doses</v>
+        <v>Stock on hand syringes with needle 1ml</v>
       </c>
       <c r="G110" s="4" t="str">
         <v>1</v>
@@ -6254,7 +6254,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I110" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J110" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6262,22 +6262,22 @@
     </row>
     <row r="111">
       <c r="A111" s="5" t="str">
-        <v>zdTKcWr73Sk</v>
+        <v>ZEXvmTSnv8c</v>
       </c>
       <c r="B111" s="5" t="str">
-        <v>COVAX - Stock on hand syringes with needle 1ml</v>
+        <v>COVAX - Closing balance - Vaccine 2 (doses)</v>
       </c>
       <c r="C111" s="5" t="str">
-        <v>Stock on hand syringes with needle 1ml</v>
+        <v>Closing balance - Vaccine 2 (doses)</v>
       </c>
       <c r="D111" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_CLOSING_BALANCE_VACCINE2_DOSES</v>
       </c>
       <c r="E111" s="5" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F111" s="5" t="str">
-        <v>Stock on hand syringes with needle 1ml</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G111" s="5" t="str">
         <v>1</v>
@@ -6286,7 +6286,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I111" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J111" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6294,22 +6294,22 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="str">
-        <v>ZEXvmTSnv8c</v>
+        <v>zqTS3RiSL3o</v>
       </c>
       <c r="B112" s="4" t="str">
-        <v>COVAX - Closing balance - Vaccine2 doses</v>
+        <v>COVAX - Doses per vial - Vaccine 1</v>
       </c>
       <c r="C112" s="4" t="str">
-        <v>Closing balance - Vaccine2 doses</v>
+        <v>Doses per vial - Vaccine 1</v>
       </c>
       <c r="D112" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE2_DOSES</v>
+        <v>CVX_DOSES_IN_A_VIAL_VACCINE1</v>
       </c>
       <c r="E112" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Number of doses in a vial - Vaccine1</v>
       </c>
       <c r="F112" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Doses in a vial - Vaccine1</v>
       </c>
       <c r="G112" s="4" t="str">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I112" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J112" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6326,22 +6326,22 @@
     </row>
     <row r="113">
       <c r="A113" s="5" t="str">
-        <v>zqTS3RiSL3o</v>
+        <v>zTMJ8UYjlCU</v>
       </c>
       <c r="B113" s="5" t="str">
-        <v>COVAX - Doses in a vial - Vaccine1</v>
+        <v>COVAX - Opening balance vials</v>
       </c>
       <c r="C113" s="5" t="str">
-        <v>Doses in a vial - Vaccine1</v>
+        <v>Opening balance vials</v>
       </c>
       <c r="D113" s="5" t="str">
-        <v>CVX_DOSES_IN_A_VIAL_VACCINE1</v>
+        <v>CVX_OPENING_BALANCE_VIALS</v>
       </c>
       <c r="E113" s="5" t="str">
-        <v>Number of doses in a vial - Vaccine1</v>
+        <v>Opening balance equals the physical 'stock on hand count' of the previous day</v>
       </c>
       <c r="F113" s="5" t="str">
-        <v>Doses in a vial - Vaccine1</v>
+        <v>Opening balance vials</v>
       </c>
       <c r="G113" s="5" t="str">
         <v>1</v>
@@ -6350,41 +6350,9 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I113" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="J113" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="4" t="str">
-        <v>zTMJ8UYjlCU</v>
-      </c>
-      <c r="B114" s="4" t="str">
-        <v>COVAX - Opening balance vials</v>
-      </c>
-      <c r="C114" s="4" t="str">
-        <v>Opening balance vials</v>
-      </c>
-      <c r="D114" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_VIALS</v>
-      </c>
-      <c r="E114" s="4" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous day</v>
-      </c>
-      <c r="F114" s="4" t="str">
-        <v>Opening balance vials</v>
-      </c>
-      <c r="G114" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="H114" s="4" t="str">
-        <v>Numerator only (number)</v>
-      </c>
-      <c r="I114" s="4" t="str">
-        <v>2021-01-20</v>
-      </c>
-      <c r="J114" s="4" t="str">
         <v>SKgp2iI0dJp</v>
       </c>
     </row>
@@ -6434,7 +6402,7 @@
         <v>Yes</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>JYPhXEzBU2r</v>
@@ -6451,7 +6419,7 @@
         <v>Yes</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>Le8SvNemLGm</v>
@@ -6513,7 +6481,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-28</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>hmSnCXmLYwt</v>
@@ -6527,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-28</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>kHy61PbChXr</v>
@@ -6938,7 +6906,7 @@
         <v>Chart</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>COVAX - Number of people given 1st and last dose - this and last 6 months</v>
+        <v>COVAX - Number of people given 1st - this and last 6 months</v>
       </c>
       <c r="D18" s="4" t="str">
         <v>eLK1hVjcRMJ</v>
@@ -6981,7 +6949,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -7087,13 +7055,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Number of people given 1st and last dose - this and last 6 months</v>
+        <v>COVAX - Number of people given 1st - this and last 6 months</v>
       </c>
       <c r="B8" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>NBIo8UnkJsU</v>
@@ -7208,7 +7176,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-27</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>q24wzRQtygl</v>
@@ -7584,7 +7552,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -7618,12 +7586,23 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
+        <v>COVAX capture</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v>2021-01-20</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v>I9x6Bd4MwXc</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
         <v>COVAX access</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>2021-01-21</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <v>OeiDCnG3Pv2</v>
       </c>
     </row>
@@ -7788,7 +7767,7 @@
         <v>Vaccine stock status and usage - vials</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>kIScH2ovI2E</v>
@@ -7802,7 +7781,7 @@
         <v>Vaccine stock status and usage - doses</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-28</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>UMczq8tbksI</v>
@@ -7813,10 +7792,10 @@
         <v>COVAX - Vaccine stock (Daily)</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-27</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>Zutn3uE4YnV</v>
@@ -7856,12 +7835,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="79.7109375" customWidth="1"/>
@@ -8159,7 +8138,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B18" s="4" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8176,7 +8155,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B19" s="5" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8193,7 +8172,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B20" s="4" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8210,7 +8189,7 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B21" s="5" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8227,7 +8206,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B22" s="4" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8236,7 +8215,7 @@
         <v>kIScH2ovI2E</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>COVAX - Discarded vials</v>
+        <v>COVAX - Discarded (closed vials)</v>
       </c>
       <c r="E22" s="4" t="str">
         <v>jpHKXTmXBog</v>
@@ -8244,7 +8223,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B23" s="5" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8261,7 +8240,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B24" s="4" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8278,7 +8257,7 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B25" s="5" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8295,7 +8274,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B26" s="4" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8312,495 +8291,495 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Vaccine stock status and usage - vials</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>Zutn3uE4YnV</v>
+        <v>kIScH2ovI2E</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>COVAX - Discarded cold boxes</v>
+        <v>COVAX - Discarded (open vials)</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>gHjdt8paeZt</v>
+        <v>oozfHBgiPvP</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C28" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>COVAX - Distributed cold boxes</v>
+        <v>COVAX - Discarded cold boxes</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>y1TIZ7EacZy</v>
+        <v>gHjdt8paeZt</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C29" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>COVAX - Opening balance cold boxes</v>
+        <v>COVAX - Distributed cold boxes</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>e1YlvfQPdTe</v>
+        <v>y1TIZ7EacZy</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C30" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>COVAX - Received cold boxes</v>
+        <v>COVAX - Opening balance cold boxes</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>MhtJeFU1s3g</v>
+        <v>e1YlvfQPdTe</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C31" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>COVAX - Redistributed cold boxes</v>
+        <v>COVAX - Received cold boxes</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>sM3XJvqqU5k</v>
+        <v>MhtJeFU1s3g</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C32" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>COVAX - Stock on hand cold boxes</v>
+        <v>COVAX - Redistributed cold boxes</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>K1ykBWJNf5C</v>
+        <v>sM3XJvqqU5k</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C33" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>COVAX - Stockout days cold boxes</v>
+        <v>COVAX - Stock on hand cold boxes</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>Sq1bNvKm7eE</v>
+        <v>K1ykBWJNf5C</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C34" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>COVAX - Discarded vaccination cards</v>
+        <v>COVAX - Stockout days cold boxes</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>c1NTgV45W8M</v>
+        <v>Sq1bNvKm7eE</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C35" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>COVAX - Distributed vaccination cards</v>
+        <v>COVAX - Discarded vaccination cards</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>vThouKg9t52</v>
+        <v>c1NTgV45W8M</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C36" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>COVAX - Opening balance vaccination cards</v>
+        <v>COVAX - Distributed vaccination cards</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>UE9gtRQP6RN</v>
+        <v>vThouKg9t52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C37" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>COVAX - Received vaccination cards</v>
+        <v>COVAX - Opening balance vaccination cards</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>BeHrxrKVlAB</v>
+        <v>UE9gtRQP6RN</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C38" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>COVAX - Redistributed vaccination cards</v>
+        <v>COVAX - Received vaccination cards</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>p9sHAm0M0WF</v>
+        <v>BeHrxrKVlAB</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C39" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>COVAX - Stock on hand vaccination cards</v>
+        <v>COVAX - Redistributed vaccination cards</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>KWInDqcM0sc</v>
+        <v>p9sHAm0M0WF</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C40" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>COVAX - Stockout days vaccination cards</v>
+        <v>COVAX - Stock on hand vaccination cards</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>mQd64lsZ2Gj</v>
+        <v>KWInDqcM0sc</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C41" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>COVAX - Discarded syringes with needle 1ml</v>
+        <v>COVAX - Stockout days vaccination cards</v>
       </c>
       <c r="E41" s="5" t="str">
-        <v>fkvWMbUYYvR</v>
+        <v>mQd64lsZ2Gj</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C42" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>COVAX - Distributed syringes with needle 1ml</v>
+        <v>COVAX - Discarded syringes with needle 1ml</v>
       </c>
       <c r="E42" s="4" t="str">
-        <v>QFfvrOOhmqw</v>
+        <v>fkvWMbUYYvR</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C43" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>COVAX - Opening balance syringes with needle 1ml</v>
+        <v>COVAX - Distributed syringes with needle 1ml</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>heMYpVBrakv</v>
+        <v>QFfvrOOhmqw</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C44" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>COVAX - Received syringes with needle 1ml</v>
+        <v>COVAX - Opening balance syringes with needle 1ml</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v>i5pakKBw4VC</v>
+        <v>heMYpVBrakv</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C45" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>COVAX - Redistributed syringes with needle 1ml</v>
+        <v>COVAX - Received syringes with needle 1ml</v>
       </c>
       <c r="E45" s="5" t="str">
-        <v>eTsKBlD7fsX</v>
+        <v>i5pakKBw4VC</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C46" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>COVAX - Stock on hand syringes with needle 1ml</v>
+        <v>COVAX - Redistributed syringes with needle 1ml</v>
       </c>
       <c r="E46" s="4" t="str">
-        <v>jhutPejtr9l</v>
+        <v>eTsKBlD7fsX</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C47" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>COVAX - Stockout days syringes with needle 1ml</v>
+        <v>COVAX - Stock on hand syringes with needle 1ml</v>
       </c>
       <c r="E47" s="5" t="str">
-        <v>MVmWnSreLrA</v>
+        <v>jhutPejtr9l</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C48" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>COVAX - Discarded safety boxes</v>
+        <v>COVAX - Stockout days syringes with needle 1ml</v>
       </c>
       <c r="E48" s="4" t="str">
-        <v>HlicGU8jEZL</v>
+        <v>MVmWnSreLrA</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C49" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>COVAX - Distributed safety boxes</v>
+        <v>COVAX - Discarded safety boxes</v>
       </c>
       <c r="E49" s="5" t="str">
-        <v>l2tQDaRuqEG</v>
+        <v>HlicGU8jEZL</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C50" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>COVAX - Opening balance safety boxes</v>
+        <v>COVAX - Distributed safety boxes</v>
       </c>
       <c r="E50" s="4" t="str">
-        <v>maGZEvjJYsL</v>
+        <v>l2tQDaRuqEG</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C51" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>COVAX - Received safety boxes</v>
+        <v>COVAX - Opening balance safety boxes</v>
       </c>
       <c r="E51" s="5" t="str">
-        <v>ZdJXThga9s1</v>
+        <v>maGZEvjJYsL</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C52" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>COVAX - Redistributed safety boxes</v>
+        <v>COVAX - Received safety boxes</v>
       </c>
       <c r="E52" s="4" t="str">
-        <v>IA1dFNpYlvJ</v>
+        <v>ZdJXThga9s1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C53" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>COVAX - Stock on hand safety boxes</v>
+        <v>COVAX - Redistributed safety boxes</v>
       </c>
       <c r="E53" s="5" t="str">
-        <v>kJnQ1vmDeDe</v>
+        <v>IA1dFNpYlvJ</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C54" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>COVAX - Stockout days safety boxes</v>
+        <v>COVAX - Stock on hand safety boxes</v>
       </c>
       <c r="E54" s="4" t="str">
-        <v>NzVsILZ4qeb</v>
+        <v>kJnQ1vmDeDe</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>Targeted priority groups</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>Total target population</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>G0kKjl2enx4</v>
+        <v>Zutn3uE4YnV</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v>COVAX - Target population</v>
+        <v>COVAX - Stockout days safety boxes</v>
       </c>
       <c r="E55" s="5" t="str">
-        <v>BHgqoiEc7mS</v>
+        <v>NzVsILZ4qeb</v>
       </c>
     </row>
     <row r="56">
@@ -8808,16 +8787,16 @@
         <v>Targeted priority groups</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>Targeted priority groups</v>
+        <v>Total target population</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>xHWpKcRkeZU</v>
+        <v>G0kKjl2enx4</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>COVAX - Target frontline healthcare workers</v>
+        <v>COVAX - Target population</v>
       </c>
       <c r="E56" s="4" t="str">
-        <v>YC0JuESssig</v>
+        <v>BHgqoiEc7mS</v>
       </c>
     </row>
     <row r="57">
@@ -8831,10 +8810,10 @@
         <v>xHWpKcRkeZU</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v>COVAX - Target essential workers</v>
+        <v>COVAX - Target frontline healthcare workers</v>
       </c>
       <c r="E57" s="5" t="str">
-        <v>vkXAQQDE48p</v>
+        <v>YC0JuESssig</v>
       </c>
     </row>
     <row r="58">
@@ -8848,9 +8827,26 @@
         <v>xHWpKcRkeZU</v>
       </c>
       <c r="D58" s="4" t="str">
+        <v>COVAX - Target essential workers</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <v>vkXAQQDE48p</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="str">
+        <v>Targeted priority groups</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <v>Targeted priority groups</v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <v>xHWpKcRkeZU</v>
+      </c>
+      <c r="D59" s="5" t="str">
         <v>COVAX - Target people with at least one underlying medical condition</v>
       </c>
-      <c r="E58" s="4" t="str">
+      <c r="E59" s="5" t="str">
         <v>v2qvl9d2eqz</v>
       </c>
     </row>
@@ -8933,7 +8929,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -9524,22 +9520,22 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>COVAX - Discarded vials</v>
+        <v>COVAX - Discarded (closed vials)</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Discarded vials</v>
+        <v>Discarded (closed vials)</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>CVX_DISCARDED_VIALS</v>
+        <v>CVX_DISCARDED_CLOSED_VIALS</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>Total COVID-19 vaccine doses returned (unopened)</v>
+        <v>Number of closed vials that have been discarded</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>COVID19 Vaccine</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-27</v>
       </c>
       <c r="G26" s="4" t="str">
         <v>jpHKXTmXBog</v>
@@ -9869,36 +9865,36 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>COVAX - Redistributed vaccination cards</v>
+        <v>COVAX - Discarded (open vials)</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>Redistributed vaccination cards</v>
+        <v>Discarded (open vials)</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_CARDS</v>
+        <v>CVX_DISCARDED_OPEN_VIALS</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v/>
+        <v>Number of open vials that have been discarded</v>
       </c>
       <c r="E41" s="5" t="str">
-        <v>default</v>
+        <v>COVID19 Vaccine</v>
       </c>
       <c r="F41" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-27</v>
       </c>
       <c r="G41" s="5" t="str">
-        <v>p9sHAm0M0WF</v>
+        <v>oozfHBgiPvP</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>COVAX - Distributed syringes with needle 1ml</v>
+        <v>COVAX - Redistributed vaccination cards</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Distributed syringes with needle 1ml</v>
+        <v>Redistributed vaccination cards</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>CVX_DISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_REDISTRIBUTED_CARDS</v>
       </c>
       <c r="D42" s="4" t="str">
         <v/>
@@ -9910,18 +9906,18 @@
         <v>2021-01-20</v>
       </c>
       <c r="G42" s="4" t="str">
-        <v>QFfvrOOhmqw</v>
+        <v>p9sHAm0M0WF</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>COVAX - Redistributed cold boxes</v>
+        <v>COVAX - Distributed syringes with needle 1ml</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>Redistributed cold boxes</v>
+        <v>Distributed syringes with needle 1ml</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_COLD_BOXES</v>
+        <v>CVX_DISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="D43" s="5" t="str">
         <v/>
@@ -9933,18 +9929,18 @@
         <v>2021-01-20</v>
       </c>
       <c r="G43" s="5" t="str">
-        <v>sM3XJvqqU5k</v>
+        <v>QFfvrOOhmqw</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>COVAX - Stockout days vaccine3</v>
+        <v>COVAX - Redistributed cold boxes</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Stockout days vaccine3</v>
+        <v>Redistributed cold boxes</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE3</v>
+        <v>CVX_REDISTRIBUTED_COLD_BOXES</v>
       </c>
       <c r="D44" s="4" t="str">
         <v/>
@@ -9956,18 +9952,18 @@
         <v>2021-01-20</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>sNAklHVNhYj</v>
+        <v>sM3XJvqqU5k</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>COVAX - Stockout days cold boxes</v>
+        <v>COVAX - Stockout days vaccine3</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Stockout days cold boxes</v>
+        <v>Stockout days vaccine3</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_COLD_BOXES</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE3</v>
       </c>
       <c r="D45" s="5" t="str">
         <v/>
@@ -9979,18 +9975,18 @@
         <v>2021-01-20</v>
       </c>
       <c r="G45" s="5" t="str">
-        <v>Sq1bNvKm7eE</v>
+        <v>sNAklHVNhYj</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>COVAX - Stockout days vaccine2</v>
+        <v>COVAX - Stockout days cold boxes</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Stockout days vaccine2</v>
+        <v>Stockout days cold boxes</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE2</v>
+        <v>CVX_STOCKOUT_DAYS_COLD_BOXES</v>
       </c>
       <c r="D46" s="4" t="str">
         <v/>
@@ -10002,113 +9998,113 @@
         <v>2021-01-20</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>suWcEhb54Mz</v>
+        <v>Sq1bNvKm7eE</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given last dose</v>
+        <v>COVAX - Stockout days vaccine2</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>Frontline healthcare workers given last dose</v>
+        <v>Stockout days vaccine2</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>CVX_FRONTLINE_HCW_LAST_DOSE</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE2</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>Total frontline healthcare workers given last dose</v>
+        <v/>
       </c>
       <c r="E47" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F47" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-20</v>
       </c>
       <c r="G47" s="5" t="str">
-        <v>u70rr83wIzM</v>
+        <v>suWcEhb54Mz</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>COVAX - Opening balance vaccination cards</v>
+        <v>COVAX - Frontline healthcare workers given last dose</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Opening balance vaccination cards</v>
+        <v>Frontline healthcare workers given last dose</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_CARDS</v>
+        <v>CVX_FRONTLINE_HCW_LAST_DOSE</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v/>
+        <v>Total frontline healthcare workers given last dose</v>
       </c>
       <c r="E48" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-21</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>UE9gtRQP6RN</v>
+        <v>u70rr83wIzM</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>COVAX - Target people with at least one underlying medical condition</v>
+        <v>COVAX - Opening balance vaccination cards</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>Target people with underlying medical conditions</v>
+        <v>Opening balance vaccination cards</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>CVX_TARGET_PEOPLE_WITH_EXISTING_MEDICAL_CONDITIONS</v>
+        <v>CVX_OPENING_BALANCE_CARDS</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>Estimated people with at least one underlying medical condition</v>
+        <v/>
       </c>
       <c r="E49" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F49" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-20</v>
       </c>
       <c r="G49" s="5" t="str">
-        <v>v2qvl9d2eqz</v>
+        <v>UE9gtRQP6RN</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>COVAX - Stockout days vaccine1</v>
+        <v>COVAX - Target people with at least one underlying medical condition</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Stockout days vaccine1</v>
+        <v>Target people with underlying medical conditions</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE1</v>
+        <v>CVX_TARGET_PEOPLE_WITH_EXISTING_MEDICAL_CONDITIONS</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v/>
+        <v>Estimated people with at least one underlying medical condition</v>
       </c>
       <c r="E50" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-21</v>
       </c>
       <c r="G50" s="4" t="str">
-        <v>VISxgxU3QF1</v>
+        <v>v2qvl9d2eqz</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>COVAX - Target essential workers</v>
+        <v>COVAX - Stockout days vaccine1</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Target essential workers</v>
+        <v>Stockout days vaccine1</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE1</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>Estimated essential workers</v>
+        <v/>
       </c>
       <c r="E51" s="5" t="str">
         <v>default</v>
@@ -10117,21 +10113,21 @@
         <v>2021-01-20</v>
       </c>
       <c r="G51" s="5" t="str">
-        <v>vkXAQQDE48p</v>
+        <v>VISxgxU3QF1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>COVAX - Distributed vaccination cards</v>
+        <v>COVAX - Target essential workers</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Distributed vaccination cards</v>
+        <v>Target essential workers</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>CVX_DISTRIBUTED_CARDS</v>
+        <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v/>
+        <v>Estimated essential workers</v>
       </c>
       <c r="E52" s="4" t="str">
         <v>default</v>
@@ -10140,67 +10136,67 @@
         <v>2021-01-20</v>
       </c>
       <c r="G52" s="4" t="str">
-        <v>vThouKg9t52</v>
+        <v>vkXAQQDE48p</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>COVAX - Redistributed vials</v>
+        <v>COVAX - Distributed vaccination cards</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>Redistributed vials</v>
+        <v>Distributed vaccination cards</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_VIALS</v>
+        <v>CVX_DISTRIBUTED_CARDS</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>Total COVID-19 vaccine doses received</v>
+        <v/>
       </c>
       <c r="E53" s="5" t="str">
-        <v>COVID19 Vaccine</v>
+        <v>default</v>
       </c>
       <c r="F53" s="5" t="str">
         <v>2021-01-20</v>
       </c>
       <c r="G53" s="5" t="str">
-        <v>XgTKGD53X7l</v>
+        <v>vThouKg9t52</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>COVAX - Essential workers given 1st dose</v>
+        <v>COVAX - Redistributed vials</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>Redistributed vials</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
+        <v>CVX_REDISTRIBUTED_VIALS</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>Total Essential workers vaccinated with COVID-19 vaccine</v>
+        <v>Total COVID-19 vaccine doses received</v>
       </c>
       <c r="E54" s="4" t="str">
-        <v>default</v>
+        <v>COVID19 Vaccine</v>
       </c>
       <c r="F54" s="4" t="str">
         <v>2021-01-20</v>
       </c>
       <c r="G54" s="4" t="str">
-        <v>xtorWGRMKCn</v>
+        <v>XgTKGD53X7l</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>COVAX - Distributed cold boxes</v>
+        <v>COVAX - Essential workers given 1st dose</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>Distributed cold boxes</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>CVX_DISTRIBUTED_COLD_BOXES</v>
+        <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v/>
+        <v>Total Essential workers vaccinated with COVID-19 vaccine</v>
       </c>
       <c r="E55" s="5" t="str">
         <v>default</v>
@@ -10209,18 +10205,18 @@
         <v>2021-01-20</v>
       </c>
       <c r="G55" s="5" t="str">
-        <v>y1TIZ7EacZy</v>
+        <v>xtorWGRMKCn</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>COVAX - Target frontline healthcare workers</v>
+        <v>COVAX - Distributed cold boxes</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Distributed cold boxes</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>CVX_TARGET_FRONTLINE_HEALTHCARE_WORKERS</v>
+        <v>CVX_DISTRIBUTED_COLD_BOXES</v>
       </c>
       <c r="D56" s="4" t="str">
         <v/>
@@ -10232,18 +10228,18 @@
         <v>2021-01-20</v>
       </c>
       <c r="G56" s="4" t="str">
-        <v>YC0JuESssig</v>
+        <v>y1TIZ7EacZy</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>COVAX - Essential workers given 2+ dose</v>
+        <v>COVAX - Target frontline healthcare workers</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>Essential workers given 2+ dose</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_2PLUS_DOSE</v>
+        <v>CVX_TARGET_FRONTLINE_HEALTHCARE_WORKERS</v>
       </c>
       <c r="D57" s="5" t="str">
         <v/>
@@ -10252,21 +10248,21 @@
         <v>default</v>
       </c>
       <c r="F57" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-20</v>
       </c>
       <c r="G57" s="5" t="str">
-        <v>Z8SPWzgXYG5</v>
+        <v>YC0JuESssig</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>COVAX - Received safety boxes</v>
+        <v>COVAX - Essential workers given 2+ dose</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>Received safety boxes</v>
+        <v>Essential workers given 2+ dose</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>CVX_RECEIVED_SAFETY_BOXES</v>
+        <v>CVX_ESSENTIAL_WORKERS_2PLUS_DOSE</v>
       </c>
       <c r="D58" s="4" t="str">
         <v/>
@@ -10275,9 +10271,32 @@
         <v>default</v>
       </c>
       <c r="F58" s="4" t="str">
+        <v>2021-01-21</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <v>Z8SPWzgXYG5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="str">
+        <v>COVAX - Received safety boxes</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <v>Received safety boxes</v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <v>CVX_RECEIVED_SAFETY_BOXES</v>
+      </c>
+      <c r="D59" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E59" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F59" s="5" t="str">
         <v>2021-01-20</v>
       </c>
-      <c r="G58" s="4" t="str">
+      <c r="G59" s="5" t="str">
         <v>ZdJXThga9s1</v>
       </c>
     </row>
@@ -10501,7 +10520,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>COVAX - Discarded vials</v>
+        <v>COVAX - Discarded (closed vials)</v>
       </c>
     </row>
     <row r="27">
@@ -10796,7 +10815,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-05-11</v>
+        <v>2021-01-28</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>bjDvmb4bfuf</v>
@@ -10939,7 +10958,7 @@
         <v>Sex</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-28</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>FRwO58KwwJt</v>
@@ -10953,7 +10972,7 @@
         <v>default</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-28</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>GLevLNI9wkl</v>

--- a/metadata/COVAX_AGG/COVAX_AGG_COMPLETE_V1_DHIS2.30/reference.xlsx
+++ b/metadata/COVAX_AGG/COVAX_AGG_COMPLETE_V1_DHIS2.30/reference.xlsx
@@ -503,7 +503,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_AGG_COMPLETE_V1.0_DHIS2.30_2021-01-28T18:52</v>
+        <v>COVAX_AGG_COMPLETE_V1.0_DHIS2.30_2021-01-29T11:09</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +2786,7 @@
         <v>CVX_OPENING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous period</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F2" s="4" t="str">
         <v>Opening balance syringes with needle 1ml</v>
@@ -2798,7 +2798,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J2" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2818,7 +2818,7 @@
         <v>CVX_OPENING_BALANCE_COLD_BOXES</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous period</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F3" s="5" t="str">
         <v>Opening balance cold box</v>
@@ -2830,7 +2830,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J3" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2862,7 +2862,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J4" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2894,7 +2894,7 @@
         <v>Percentage</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J5" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2926,7 +2926,7 @@
         <v>Percentage</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J6" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2958,7 +2958,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I7" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J7" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2978,7 +2978,7 @@
         <v>CVX_OPENING_BALANCE_VACCINE2_DOSES</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous day</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F8" s="4" t="str">
         <v>Opening balance - Vaccine2 doses</v>
@@ -2990,7 +2990,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J8" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3022,7 +3022,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I9" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J9" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3054,7 +3054,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I10" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J10" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3086,7 +3086,7 @@
         <v>Percentage</v>
       </c>
       <c r="I11" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J11" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3118,7 +3118,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I12" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J12" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3150,7 +3150,7 @@
         <v>Percentage</v>
       </c>
       <c r="I13" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J13" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3182,7 +3182,7 @@
         <v>Percentage</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J14" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3214,7 +3214,7 @@
         <v>Percentage</v>
       </c>
       <c r="I15" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J15" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3246,7 +3246,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I16" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J16" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3278,7 +3278,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I17" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J17" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3310,7 +3310,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I18" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J18" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3342,7 +3342,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I19" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J19" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3374,7 +3374,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I20" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J20" s="4" t="str">
         <v/>
@@ -3406,7 +3406,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I21" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J21" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3438,7 +3438,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I22" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J22" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3458,7 +3458,7 @@
         <v>CVX_STOCK_DISCREPANCY_VIALS</v>
       </c>
       <c r="E23" s="5" t="str">
-        <v>(Closing balance-Stock on hand)/Stock on hand</v>
+        <v>(Closing balance-Stock on hand)/Stock at hand</v>
       </c>
       <c r="F23" s="5" t="str">
         <v>Closing balance-Stock at hand</v>
@@ -3470,7 +3470,7 @@
         <v>Percentage</v>
       </c>
       <c r="I23" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J23" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3502,7 +3502,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I24" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J24" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3534,7 +3534,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I25" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J25" s="5" t="str">
         <v/>
@@ -3566,7 +3566,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I26" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J26" s="4" t="str">
         <v/>
@@ -3598,7 +3598,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I27" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J27" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3618,7 +3618,7 @@
         <v>CVX_OPENING_BALANCE_VACCINE1_DOSES</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Opening balance equals the physical 'stock on hand count of the previous day</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F28" s="4" t="str">
         <v>Opening balance - Vaccine1 doses</v>
@@ -3630,7 +3630,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I28" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J28" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3662,7 +3662,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I29" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J29" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3694,7 +3694,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I30" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J30" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3726,7 +3726,7 @@
         <v>Percentage</v>
       </c>
       <c r="I31" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J31" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3746,7 +3746,7 @@
         <v>CVX_OPENING_BALANCE_VACCINE3_DOSES</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous day</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F32" s="4" t="str">
         <v>Opening balance - Vaccine3 doses</v>
@@ -3758,7 +3758,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I32" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J32" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3790,7 +3790,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I33" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J33" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3822,7 +3822,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I34" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J34" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3854,7 +3854,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I35" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J35" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3886,7 +3886,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I36" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J36" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3918,7 +3918,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I37" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J37" s="5" t="str">
         <v/>
@@ -3950,7 +3950,7 @@
         <v>Percentage</v>
       </c>
       <c r="I38" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J38" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3982,7 +3982,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I39" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J39" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4014,7 +4014,7 @@
         <v>Percentage</v>
       </c>
       <c r="I40" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J40" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4046,7 +4046,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I41" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J41" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4078,7 +4078,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I42" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J42" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4110,7 +4110,7 @@
         <v>Percentage</v>
       </c>
       <c r="I43" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J43" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4142,7 +4142,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I44" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J44" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4174,7 +4174,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I45" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J45" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4206,7 +4206,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I46" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J46" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4238,7 +4238,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I47" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J47" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4270,7 +4270,7 @@
         <v>Percentage</v>
       </c>
       <c r="I48" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J48" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4302,7 +4302,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I49" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J49" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4334,7 +4334,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I50" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J50" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4366,7 +4366,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I51" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J51" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4398,7 +4398,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I52" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J52" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4430,7 +4430,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I53" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J53" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4462,7 +4462,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I54" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J54" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4494,7 +4494,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I55" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J55" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4526,7 +4526,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I56" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J56" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4558,7 +4558,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I57" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J57" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4590,7 +4590,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I58" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J58" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4622,7 +4622,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I59" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J59" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4654,7 +4654,7 @@
         <v>Percentage</v>
       </c>
       <c r="I60" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J60" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4686,7 +4686,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I61" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J61" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4718,7 +4718,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I62" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J62" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4750,7 +4750,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I63" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J63" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4782,7 +4782,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I64" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J64" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4814,7 +4814,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I65" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J65" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4846,7 +4846,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I66" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J66" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4878,7 +4878,7 @@
         <v>Percentage</v>
       </c>
       <c r="I67" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J67" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4910,7 +4910,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I68" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J68" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4942,7 +4942,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I69" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J69" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4974,7 +4974,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I70" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J70" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5006,7 +5006,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I71" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J71" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5038,7 +5038,7 @@
         <v>Percentage</v>
       </c>
       <c r="I72" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J72" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5058,7 +5058,7 @@
         <v>CVX_OPENING_BALANCE_CARDS</v>
       </c>
       <c r="E73" s="5" t="str">
-        <v>Opening balance equals the physical stock on hand count' of the previous period</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F73" s="5" t="str">
         <v>Opening balance vaccination cards</v>
@@ -5070,7 +5070,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I73" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J73" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5102,7 +5102,7 @@
         <v>Percentage</v>
       </c>
       <c r="I74" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J74" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5134,7 +5134,7 @@
         <v>Percentage</v>
       </c>
       <c r="I75" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J75" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5166,7 +5166,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I76" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J76" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5198,7 +5198,7 @@
         <v>Percentage</v>
       </c>
       <c r="I77" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J77" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5230,7 +5230,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I78" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J78" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5262,7 +5262,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I79" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J79" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5294,7 +5294,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I80" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J80" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5326,7 +5326,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I81" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J81" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5358,7 +5358,7 @@
         <v>Percentage</v>
       </c>
       <c r="I82" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J82" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5390,7 +5390,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I83" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J83" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5410,7 +5410,7 @@
         <v>CVX_OPENING_BALANCE_SAFETY_BOXES</v>
       </c>
       <c r="E84" s="4" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous period</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F84" s="4" t="str">
         <v>Opening balance safety box</v>
@@ -5422,7 +5422,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I84" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J84" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5454,7 +5454,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I85" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J85" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5486,7 +5486,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I86" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J86" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5518,7 +5518,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I87" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J87" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5550,7 +5550,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I88" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J88" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5582,7 +5582,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I89" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J89" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5614,7 +5614,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I90" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J90" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5646,7 +5646,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I91" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J91" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5678,7 +5678,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I92" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J92" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5710,7 +5710,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I93" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J93" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5742,7 +5742,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I94" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J94" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5774,7 +5774,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I95" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J95" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5806,7 +5806,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I96" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J96" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5838,7 +5838,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I97" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J97" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5870,7 +5870,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I98" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J98" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5902,7 +5902,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I99" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J99" s="5" t="str">
         <v/>
@@ -5934,7 +5934,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I100" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J100" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5966,7 +5966,7 @@
         <v>Percentage</v>
       </c>
       <c r="I101" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J101" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5998,7 +5998,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I102" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J102" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6030,7 +6030,7 @@
         <v>Percentage</v>
       </c>
       <c r="I103" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J103" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6062,7 +6062,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I104" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J104" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6094,7 +6094,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I105" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J105" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6126,7 +6126,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I106" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J106" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6158,7 +6158,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I107" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J107" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6190,7 +6190,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I108" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J108" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6222,7 +6222,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I109" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J109" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6254,7 +6254,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I110" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J110" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6286,7 +6286,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I111" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J111" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6318,7 +6318,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I112" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J112" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6338,7 +6338,7 @@
         <v>CVX_OPENING_BALANCE_VIALS</v>
       </c>
       <c r="E113" s="5" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous day</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F113" s="5" t="str">
         <v>Opening balance vials</v>
@@ -6350,7 +6350,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I113" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="J113" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -7843,7 +7843,7 @@
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="79.7109375" customWidth="1"/>
+    <col min="4" max="4" width="86.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7875,7 +7875,7 @@
         <v>feQJxQGDpdt</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>COVAX - People given 1st dose</v>
+        <v>COVAX - 1st dose given</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>kif9K3XRSBh</v>
@@ -7892,7 +7892,7 @@
         <v>feQJxQGDpdt</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>COVAX - People given 2+ dose</v>
+        <v>COVAX - 2nd dose given</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>gOf1dLB3r8G</v>
@@ -7909,7 +7909,7 @@
         <v>feQJxQGDpdt</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>COVAX - People given last dose</v>
+        <v>COVAX - Booster given</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>fJzBX7mW5A9</v>
@@ -7926,7 +7926,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given 2+ dose</v>
+        <v>COVAX - 2nd dose given to HCWs</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>Ly6PaH1qIV3</v>
@@ -7943,7 +7943,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given 1st dose</v>
+        <v>COVAX - 1st dose given to HCWs</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>FCtGm0HJryo</v>
@@ -7960,7 +7960,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>COVAX - Essential workers given 1st dose</v>
+        <v>COVAX - 1st dose given to essential workers</v>
       </c>
       <c r="E7" s="5" t="str">
         <v>xtorWGRMKCn</v>
@@ -7977,7 +7977,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>COVAX - Essential workers given 2+ dose</v>
+        <v>COVAX - 2nd dose given to essential workers</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>Z8SPWzgXYG5</v>
@@ -7994,7 +7994,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given 1st dose</v>
+        <v>COVAX - 1st dose given to people with at least one underlying medical conditions</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>BaqWaD6pnbY</v>
@@ -8011,7 +8011,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given 2+ dose</v>
+        <v>COVAX - 2nd dose given to people with at least one underlying medical conditions</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>leiFl8fMdd3</v>
@@ -8028,7 +8028,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>COVAX - Essential workers given last dose</v>
+        <v>COVAX - Booster dose given to essential workers</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>KhFJj4Qz57c</v>
@@ -8045,7 +8045,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given last dose</v>
+        <v>COVAX - Booster dose given to HCWs</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>u70rr83wIzM</v>
@@ -8062,7 +8062,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given last dose</v>
+        <v>COVAX - Booster dose given to people with at least one underlying medical conditions</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>HYYuIK1V5n8</v>
@@ -8079,7 +8079,7 @@
         <v>foPKPuLnZOx</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>COVAX - Doses discarded by reasons</v>
+        <v>COVAX - Doses discarded by reason</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>aGlvT5OwKRZ</v>
@@ -8113,7 +8113,7 @@
         <v>vOnpw5UL45a</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>COVAX - Staff available at centre today</v>
+        <v>COVAX - Staff available at PoC</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>AxmVroGCQZO</v>
@@ -8130,7 +8130,7 @@
         <v>vOnpw5UL45a</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>COVAX - Staff expected at centre today</v>
+        <v>COVAX - Staff expected at PoC</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>FHvsTsdaer9</v>
@@ -8249,7 +8249,7 @@
         <v>kIScH2ovI2E</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>COVAX - Stockout days vaccine1</v>
+        <v>COVAX - Stockout days vaccine 1</v>
       </c>
       <c r="E24" s="4" t="str">
         <v>VISxgxU3QF1</v>
@@ -8266,7 +8266,7 @@
         <v>kIScH2ovI2E</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>COVAX - Stockout days vaccine2</v>
+        <v>COVAX - Stockout days vaccine 2</v>
       </c>
       <c r="E25" s="5" t="str">
         <v>suWcEhb54Mz</v>
@@ -8283,7 +8283,7 @@
         <v>kIScH2ovI2E</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>COVAX - Stockout days vaccine3</v>
+        <v>COVAX - Stockout days vaccine 3</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>sNAklHVNhYj</v>
@@ -8317,7 +8317,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>COVAX - Discarded cold boxes</v>
+        <v>COVAX - Discarded cold box</v>
       </c>
       <c r="E28" s="4" t="str">
         <v>gHjdt8paeZt</v>
@@ -8334,7 +8334,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>COVAX - Distributed cold boxes</v>
+        <v>COVAX - Distributed cold box</v>
       </c>
       <c r="E29" s="5" t="str">
         <v>y1TIZ7EacZy</v>
@@ -8351,7 +8351,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>COVAX - Opening balance cold boxes</v>
+        <v>COVAX - Opening balance cold box</v>
       </c>
       <c r="E30" s="4" t="str">
         <v>e1YlvfQPdTe</v>
@@ -8368,7 +8368,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>COVAX - Received cold boxes</v>
+        <v>COVAX - Received cold box</v>
       </c>
       <c r="E31" s="5" t="str">
         <v>MhtJeFU1s3g</v>
@@ -8385,7 +8385,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>COVAX - Redistributed cold boxes</v>
+        <v>COVAX - Redistributed cold box</v>
       </c>
       <c r="E32" s="4" t="str">
         <v>sM3XJvqqU5k</v>
@@ -8402,7 +8402,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>COVAX - Stock on hand cold boxes</v>
+        <v>COVAX - Stock on hand cold box</v>
       </c>
       <c r="E33" s="5" t="str">
         <v>K1ykBWJNf5C</v>
@@ -8419,7 +8419,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>COVAX - Stockout days cold boxes</v>
+        <v>COVAX - Stockout days cold box</v>
       </c>
       <c r="E34" s="4" t="str">
         <v>Sq1bNvKm7eE</v>
@@ -8674,7 +8674,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>COVAX - Discarded safety boxes</v>
+        <v>COVAX - Discarded safety box</v>
       </c>
       <c r="E49" s="5" t="str">
         <v>HlicGU8jEZL</v>
@@ -8691,7 +8691,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>COVAX - Distributed safety boxes</v>
+        <v>COVAX - Distributed safety box</v>
       </c>
       <c r="E50" s="4" t="str">
         <v>l2tQDaRuqEG</v>
@@ -8708,7 +8708,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>COVAX - Opening balance safety boxes</v>
+        <v>COVAX - Opening balance safety box</v>
       </c>
       <c r="E51" s="5" t="str">
         <v>maGZEvjJYsL</v>
@@ -8725,7 +8725,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>COVAX - Received safety boxes</v>
+        <v>COVAX - Received safety box</v>
       </c>
       <c r="E52" s="4" t="str">
         <v>ZdJXThga9s1</v>
@@ -8742,7 +8742,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>COVAX - Redistributed safety boxes</v>
+        <v>COVAX - Redistributed safety box</v>
       </c>
       <c r="E53" s="5" t="str">
         <v>IA1dFNpYlvJ</v>
@@ -8759,7 +8759,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>COVAX - Stock on hand safety boxes</v>
+        <v>COVAX - Stock on hand safety box</v>
       </c>
       <c r="E54" s="4" t="str">
         <v>kJnQ1vmDeDe</v>
@@ -8776,7 +8776,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v>COVAX - Stockout days safety boxes</v>
+        <v>COVAX - Stockout days safety box</v>
       </c>
       <c r="E55" s="5" t="str">
         <v>NzVsILZ4qeb</v>
@@ -8934,10 +8934,10 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="79.7109375" customWidth="1"/>
+    <col min="1" max="1" width="86.7109375" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="52.7109375" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
@@ -8968,10 +8968,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Doses discarded by reasons</v>
+        <v>COVAX - Doses discarded by reason</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Doses discarded by reasons</v>
+        <v>Doses discarded by reason</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>CVX_DOSES_DISCARDED_BY_REASONS</v>
@@ -8983,7 +8983,7 @@
         <v>Vial condition/Wastage reasons</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>aGlvT5OwKRZ</v>
@@ -8991,22 +8991,22 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Staff available at centre today</v>
+        <v>COVAX - Staff available at PoC</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Staff available at centre today</v>
+        <v>Staff available at PoC</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>CVX_STAFF_AVAILABLE_AT_CENTRE_TODAY</v>
+        <v>CVX_STAFF_AVAILABLE_AT_POC</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Total vaccination staff avialable today</v>
+        <v>Total vaccination staff avialable during the reporting period</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>AxmVroGCQZO</v>
@@ -9014,22 +9014,22 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given 1st dose</v>
+        <v>COVAX - 1st dose given to people with at least one underlying medical conditions</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>People with underlying conditions given 1st dose</v>
+        <v>1st dose - People with underlying conditions</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>CVX_PEOPLE_WITH_UNDERLYING_CONDITIONS_1ST_DOSE</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Total people with underlying medical conditions vaccinated with COVID-19 vaccine</v>
+        <v>People with underlying medical conditions vaccinated with the first dose</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>BaqWaD6pnbY</v>
@@ -9052,7 +9052,7 @@
         <v>default</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G5" s="5" t="str">
         <v>BeHrxrKVlAB</v>
@@ -9075,7 +9075,7 @@
         <v>Age(&lt;60-60+years)/Sex</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G6" s="4" t="str">
         <v>BHgqoiEc7mS</v>
@@ -9098,7 +9098,7 @@
         <v>default</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G7" s="5" t="str">
         <v>c1NTgV45W8M</v>
@@ -9115,13 +9115,13 @@
         <v>CVX_DISTRIBUTED_VIALS</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>COVID-19 vaccine doses opening balances</v>
+        <v>COVID-19 vaccine vials opening balances</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>COVID19 Vaccine</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>CoCPy5cKxx8</v>
@@ -9144,7 +9144,7 @@
         <v>COVID19 Vaccine</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G9" s="5" t="str">
         <v>DcW8k9WFCoN</v>
@@ -9152,13 +9152,13 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX - Opening balance cold boxes</v>
+        <v>COVAX - Opening balance cold box</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Opening balance cold boxes</v>
+        <v>Opening balance cold box</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_COLD_BOXES</v>
+        <v>CVX_OPENING_BALANCE_COLD_BOX</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
@@ -9167,7 +9167,7 @@
         <v>default</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G10" s="4" t="str">
         <v>e1YlvfQPdTe</v>
@@ -9190,7 +9190,7 @@
         <v>COVID19 Vaccine</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G11" s="5" t="str">
         <v>ep7EfKNsX3s</v>
@@ -9213,7 +9213,7 @@
         <v>default</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G12" s="4" t="str">
         <v>eTsKBlD7fsX</v>
@@ -9221,22 +9221,22 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given 1st dose</v>
+        <v>COVAX - 1st dose given to HCWs</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>1st dose - HCWs</v>
       </c>
       <c r="C13" s="5" t="str">
         <v>CVX_FRONTLINE_HCW_1ST_DOSE</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>Total Healthcare workers vaccinated with COVID-19 vaccine</v>
+        <v>Health Care Workers vaccinated with the first dose</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G13" s="5" t="str">
         <v>FCtGm0HJryo</v>
@@ -9244,22 +9244,22 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>COVAX - Staff expected at centre today</v>
+        <v>COVAX - Staff expected at PoC</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Staff expected at centre today</v>
+        <v>Staff expected at PoC</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>CVX_STAFF_EXPECTED_AT_CENTRE_TODAY</v>
+        <v>CVX_STAFF_EXPECTED_AT_PoC</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>Total vaccination staff expected at vaccination centre</v>
+        <v>Total vaccination staff expected at vaccination pont of care during the reporting period</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G14" s="4" t="str">
         <v>FHvsTsdaer9</v>
@@ -9267,22 +9267,22 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>COVAX - People given last dose</v>
+        <v>COVAX - Booster given</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>People given last dose</v>
+        <v>Booster dose</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>CVX_PEOPLE_LAST_DOSE</v>
+        <v>CVX_PEOPLE_BOOSTER_DOSE</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>Total people given last dose</v>
+        <v>People receiving the booster dose of COVID-19 vaccine</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G15" s="5" t="str">
         <v>fJzBX7mW5A9</v>
@@ -9305,7 +9305,7 @@
         <v>default</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G16" s="4" t="str">
         <v>fkvWMbUYYvR</v>
@@ -9313,13 +9313,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>COVAX - Discarded cold boxes</v>
+        <v>COVAX - Discarded cold box</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Discarded cold boxes</v>
+        <v>Discarded cold box</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>CVX_DISCARDED_COLD_BOXES</v>
+        <v>CVX_DISCARDED_COLD_BOX</v>
       </c>
       <c r="D17" s="5" t="str">
         <v/>
@@ -9328,7 +9328,7 @@
         <v>default</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G17" s="5" t="str">
         <v>gHjdt8paeZt</v>
@@ -9336,22 +9336,22 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>COVAX - People given 2+ dose</v>
+        <v>COVAX - 2nd dose given</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>People given 2+ dose</v>
+        <v>2nd dose</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>CVX_PEOPLE_2PLUS_DOSE</v>
+        <v>CVX_PEOPLE_2ND_DOSE</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v/>
+        <v>People receiving the second dose of COVID-19 vaccine</v>
       </c>
       <c r="E18" s="4" t="str">
         <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G18" s="4" t="str">
         <v>gOf1dLB3r8G</v>
@@ -9368,13 +9368,13 @@
         <v>CVX_AEFIS_BY_VACCINE_AND_SEVERITY</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>Total number of serious AEFIs reported</v>
+        <v>Serious AEFIs reported</v>
       </c>
       <c r="E19" s="5" t="str">
         <v>COVID19 Vaccine/AEFI Severity</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G19" s="5" t="str">
         <v>Gw8sB5U5JG3</v>
@@ -9397,7 +9397,7 @@
         <v>default</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G20" s="4" t="str">
         <v>heMYpVBrakv</v>
@@ -9405,13 +9405,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAX - Discarded safety boxes</v>
+        <v>COVAX - Discarded safety box</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Discarded safety boxes</v>
+        <v>Discarded safety box</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>CVX_DISCARDED_SAFETY_BOXES</v>
+        <v>CVX_DISCARDED_SAFETY_BOX</v>
       </c>
       <c r="D21" s="5" t="str">
         <v/>
@@ -9420,7 +9420,7 @@
         <v>default</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G21" s="5" t="str">
         <v>HlicGU8jEZL</v>
@@ -9428,22 +9428,22 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given last dose</v>
+        <v>COVAX - Booster dose given to people with at least one underlying medical conditions</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>People with underlying conditions given last dose</v>
+        <v>Booster - People with underlying conditions</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>CVX_PEOPLE_WITH_UNDERLYING_CONDITIONS_LAST_DOSE</v>
+        <v>CVX_PEOPLE_WITH_UNDERLYING_CONDITIONS_BOOSTER_DOSE</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>Total people with existing medical conditions given last dose</v>
+        <v>People with underlying medical conditions vaccinated with the booster dose</v>
       </c>
       <c r="E22" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G22" s="4" t="str">
         <v>HYYuIK1V5n8</v>
@@ -9466,7 +9466,7 @@
         <v>default</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G23" s="5" t="str">
         <v>i5pakKBw4VC</v>
@@ -9474,13 +9474,13 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>COVAX - Redistributed safety boxes</v>
+        <v>COVAX - Redistributed safety box</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Redistributed safety boxes</v>
+        <v>Redistributed safety box</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_SAFETY_BOXES</v>
+        <v>CVX_REDISTRIBUTED_SAFETY_BOX</v>
       </c>
       <c r="D24" s="4" t="str">
         <v/>
@@ -9489,7 +9489,7 @@
         <v>default</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G24" s="4" t="str">
         <v>IA1dFNpYlvJ</v>
@@ -9512,7 +9512,7 @@
         <v>default</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G25" s="5" t="str">
         <v>jhutPejtr9l</v>
@@ -9535,7 +9535,7 @@
         <v>COVID19 Vaccine</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>2021-01-27</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G26" s="4" t="str">
         <v>jpHKXTmXBog</v>
@@ -9543,13 +9543,13 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>COVAX - Stock on hand cold boxes</v>
+        <v>COVAX - Stock on hand cold box</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Stock on hand cold boxes</v>
+        <v>Stock on hand cold box</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_COLD_BOXES</v>
+        <v>CVX_STOCK_ON_HAND_COLD_BOX</v>
       </c>
       <c r="D27" s="5" t="str">
         <v/>
@@ -9558,7 +9558,7 @@
         <v>default</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G27" s="5" t="str">
         <v>K1ykBWJNf5C</v>
@@ -9566,22 +9566,22 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>COVAX - Essential workers given last dose</v>
+        <v>COVAX - Booster dose given to essential workers</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Essential workers given last dose</v>
+        <v>Booster - Essential workers</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_LAST_DOSE</v>
+        <v>CVX_ESSENTIAL_WORKERS_BOOSTER_DOSE</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>Total Essential workers given last dose</v>
+        <v>Essential workers who received a booster</v>
       </c>
       <c r="E28" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G28" s="4" t="str">
         <v>KhFJj4Qz57c</v>
@@ -9589,22 +9589,22 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>COVAX - People given 1st dose</v>
+        <v>COVAX - 1st dose given</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>People given 1st dose</v>
+        <v>1st dose</v>
       </c>
       <c r="C29" s="5" t="str">
         <v>CVX_PEOPLE_1ST_DOSE</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>Total people vaccinated with COVID-19 vaccine</v>
+        <v>People receiving the first dose of COVID-19 vaccine</v>
       </c>
       <c r="E29" s="5" t="str">
         <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
       </c>
       <c r="F29" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G29" s="5" t="str">
         <v>kif9K3XRSBh</v>
@@ -9612,13 +9612,13 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>COVAX - Stock on hand safety boxes</v>
+        <v>COVAX - Stock on hand safety box</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Stock on hand safety boxes</v>
+        <v>Stock on hand safety box</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>CVX_STOCK_ON_HAND_SAFETY_BOXES</v>
+        <v>CVX_STOCK_ON_HAND_SAFETY_BOX</v>
       </c>
       <c r="D30" s="4" t="str">
         <v/>
@@ -9627,7 +9627,7 @@
         <v>default</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G30" s="4" t="str">
         <v>kJnQ1vmDeDe</v>
@@ -9650,7 +9650,7 @@
         <v>default</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G31" s="5" t="str">
         <v>KWInDqcM0sc</v>
@@ -9658,13 +9658,13 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>COVAX - Distributed safety boxes</v>
+        <v>COVAX - Distributed safety box</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Distributed safety boxes</v>
+        <v>Distributed safety box</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>CVX_DISTRIBUTED_SAFETY_BOXES</v>
+        <v>CVX_DISTRIBUTED_SAFETY_BOX</v>
       </c>
       <c r="D32" s="4" t="str">
         <v/>
@@ -9673,7 +9673,7 @@
         <v>default</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G32" s="4" t="str">
         <v>l2tQDaRuqEG</v>
@@ -9681,22 +9681,22 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given 2+ dose</v>
+        <v>COVAX - 2nd dose given to people with at least one underlying medical conditions</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>People with underlying conditions given 2+ dose</v>
+        <v>2nd dose - People with underlying conditions</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>CVX_PEOPLE_WITH_UNDERLYING_CONDITIONS_2PLUS_DOSE</v>
+        <v>CVX_PEOPLE_WITH_UNDERLYING_CONDITIONS_2ND_DOSE</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v/>
+        <v>People with underlying medical conditions vaccinated with the second dose</v>
       </c>
       <c r="E33" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G33" s="5" t="str">
         <v>leiFl8fMdd3</v>
@@ -9704,22 +9704,22 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given 2+ dose</v>
+        <v>COVAX - 2nd dose given to HCWs</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Frontline healthcare workers given 2+ dose</v>
+        <v>2nd dose - HCWs</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_2PLUS_DOSE</v>
+        <v>CVX_FRONTLINE_HCW_2ND_DOSE</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v/>
+        <v>Health Care Workers who received the second dose</v>
       </c>
       <c r="E34" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F34" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G34" s="4" t="str">
         <v>Ly6PaH1qIV3</v>
@@ -9727,13 +9727,13 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>COVAX - Opening balance safety boxes</v>
+        <v>COVAX - Opening balance safety box</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>Opening balance safety boxes</v>
+        <v>Opening balance safety box</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_SAFETY_BOXES</v>
+        <v>CVX_OPENING_BALANCE_SAFETY_BOX</v>
       </c>
       <c r="D35" s="5" t="str">
         <v/>
@@ -9742,7 +9742,7 @@
         <v>default</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G35" s="5" t="str">
         <v>maGZEvjJYsL</v>
@@ -9750,13 +9750,13 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>COVAX - Received cold boxes</v>
+        <v>COVAX - Received cold box</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>Received cold boxes</v>
+        <v>Received cold box</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>CVX_RECEIVED_COLD_BOXES</v>
+        <v>CVX_RECEIVED_COLD_BOX</v>
       </c>
       <c r="D36" s="4" t="str">
         <v/>
@@ -9765,7 +9765,7 @@
         <v>default</v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G36" s="4" t="str">
         <v>MhtJeFU1s3g</v>
@@ -9788,7 +9788,7 @@
         <v>default</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G37" s="5" t="str">
         <v>mQd64lsZ2Gj</v>
@@ -9811,7 +9811,7 @@
         <v>default</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G38" s="4" t="str">
         <v>MVmWnSreLrA</v>
@@ -9834,7 +9834,7 @@
         <v>COVID19 Vaccine</v>
       </c>
       <c r="F39" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G39" s="5" t="str">
         <v>Nluny8KPumM</v>
@@ -9842,13 +9842,13 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>COVAX - Stockout days safety boxes</v>
+        <v>COVAX - Stockout days safety box</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Stockout days safety boxes</v>
+        <v>Stockout days safety box</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_SAFETY_BOXES</v>
+        <v>CVX_STOCKOUT_DAYS_SAFETY_BOX</v>
       </c>
       <c r="D40" s="4" t="str">
         <v/>
@@ -9857,7 +9857,7 @@
         <v>default</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G40" s="4" t="str">
         <v>NzVsILZ4qeb</v>
@@ -9880,7 +9880,7 @@
         <v>COVID19 Vaccine</v>
       </c>
       <c r="F41" s="5" t="str">
-        <v>2021-01-27</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G41" s="5" t="str">
         <v>oozfHBgiPvP</v>
@@ -9903,7 +9903,7 @@
         <v>default</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G42" s="4" t="str">
         <v>p9sHAm0M0WF</v>
@@ -9926,7 +9926,7 @@
         <v>default</v>
       </c>
       <c r="F43" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G43" s="5" t="str">
         <v>QFfvrOOhmqw</v>
@@ -9934,13 +9934,13 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>COVAX - Redistributed cold boxes</v>
+        <v>COVAX - Redistributed cold box</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Redistributed cold boxes</v>
+        <v>Redistributed cold box</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_COLD_BOXES</v>
+        <v>CVX_REDISTRIBUTED_COLD_BOX</v>
       </c>
       <c r="D44" s="4" t="str">
         <v/>
@@ -9949,7 +9949,7 @@
         <v>default</v>
       </c>
       <c r="F44" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G44" s="4" t="str">
         <v>sM3XJvqqU5k</v>
@@ -9957,10 +9957,10 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>COVAX - Stockout days vaccine3</v>
+        <v>COVAX - Stockout days vaccine 3</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Stockout days vaccine3</v>
+        <v>Stockout days vaccine 3</v>
       </c>
       <c r="C45" s="5" t="str">
         <v>CVX_STOCKOUT_DAYS_VACCINE3</v>
@@ -9972,7 +9972,7 @@
         <v>default</v>
       </c>
       <c r="F45" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G45" s="5" t="str">
         <v>sNAklHVNhYj</v>
@@ -9980,13 +9980,13 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>COVAX - Stockout days cold boxes</v>
+        <v>COVAX - Stockout days cold box</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Stockout days cold boxes</v>
+        <v>Stockout days cold box</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_COLD_BOXES</v>
+        <v>CVX_STOCKOUT_DAYS_COLD_BOX</v>
       </c>
       <c r="D46" s="4" t="str">
         <v/>
@@ -9995,7 +9995,7 @@
         <v>default</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G46" s="4" t="str">
         <v>Sq1bNvKm7eE</v>
@@ -10003,10 +10003,10 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>COVAX - Stockout days vaccine2</v>
+        <v>COVAX - Stockout days vaccine 2</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>Stockout days vaccine2</v>
+        <v>Stockout days vaccine 2</v>
       </c>
       <c r="C47" s="5" t="str">
         <v>CVX_STOCKOUT_DAYS_VACCINE2</v>
@@ -10018,7 +10018,7 @@
         <v>default</v>
       </c>
       <c r="F47" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G47" s="5" t="str">
         <v>suWcEhb54Mz</v>
@@ -10026,22 +10026,22 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given last dose</v>
+        <v>COVAX - Booster dose given to HCWs</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Frontline healthcare workers given last dose</v>
+        <v>Booster - HCWs</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_LAST_DOSE</v>
+        <v>CVX_FRONTLINE_HCW_BOOSTER_DOSE</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>Total frontline healthcare workers given last dose</v>
+        <v>Health Care Workers who received a booster</v>
       </c>
       <c r="E48" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G48" s="4" t="str">
         <v>u70rr83wIzM</v>
@@ -10064,7 +10064,7 @@
         <v>default</v>
       </c>
       <c r="F49" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G49" s="5" t="str">
         <v>UE9gtRQP6RN</v>
@@ -10081,13 +10081,13 @@
         <v>CVX_TARGET_PEOPLE_WITH_EXISTING_MEDICAL_CONDITIONS</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>Estimated people with at least one underlying medical condition</v>
+        <v>Estimated people with at least one underlying medical condition within the target area</v>
       </c>
       <c r="E50" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G50" s="4" t="str">
         <v>v2qvl9d2eqz</v>
@@ -10095,10 +10095,10 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>COVAX - Stockout days vaccine1</v>
+        <v>COVAX - Stockout days vaccine 1</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Stockout days vaccine1</v>
+        <v>Stockout days vaccine 1</v>
       </c>
       <c r="C51" s="5" t="str">
         <v>CVX_STOCKOUT_DAYS_VACCINE1</v>
@@ -10110,7 +10110,7 @@
         <v>default</v>
       </c>
       <c r="F51" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G51" s="5" t="str">
         <v>VISxgxU3QF1</v>
@@ -10127,13 +10127,13 @@
         <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>Estimated essential workers</v>
+        <v>Estimated essential workers within the target area</v>
       </c>
       <c r="E52" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F52" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G52" s="4" t="str">
         <v>vkXAQQDE48p</v>
@@ -10156,7 +10156,7 @@
         <v>default</v>
       </c>
       <c r="F53" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G53" s="5" t="str">
         <v>vThouKg9t52</v>
@@ -10179,7 +10179,7 @@
         <v>COVID19 Vaccine</v>
       </c>
       <c r="F54" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G54" s="4" t="str">
         <v>XgTKGD53X7l</v>
@@ -10187,22 +10187,22 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>COVAX - Essential workers given 1st dose</v>
+        <v>COVAX - 1st dose given to essential workers</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>1st dose - Essential workers</v>
       </c>
       <c r="C55" s="5" t="str">
         <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v>Total Essential workers vaccinated with COVID-19 vaccine</v>
+        <v>Essential workers vaccinated with the first dose</v>
       </c>
       <c r="E55" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F55" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G55" s="5" t="str">
         <v>xtorWGRMKCn</v>
@@ -10210,13 +10210,13 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>COVAX - Distributed cold boxes</v>
+        <v>COVAX - Distributed cold box</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>Distributed cold boxes</v>
+        <v>Distributed cold box</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>CVX_DISTRIBUTED_COLD_BOXES</v>
+        <v>CVX_DISTRIBUTED_COLD_BOX</v>
       </c>
       <c r="D56" s="4" t="str">
         <v/>
@@ -10225,7 +10225,7 @@
         <v>default</v>
       </c>
       <c r="F56" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G56" s="4" t="str">
         <v>y1TIZ7EacZy</v>
@@ -10242,13 +10242,13 @@
         <v>CVX_TARGET_FRONTLINE_HEALTHCARE_WORKERS</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v/>
+        <v>Estimated health care workers within the target area</v>
       </c>
       <c r="E57" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F57" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G57" s="5" t="str">
         <v>YC0JuESssig</v>
@@ -10256,22 +10256,22 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>COVAX - Essential workers given 2+ dose</v>
+        <v>COVAX - 2nd dose given to essential workers</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>Essential workers given 2+ dose</v>
+        <v>2nd dose - Essential woekers</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_2PLUS_DOSE</v>
+        <v>CVX_ESSENTIAL_WORKERS_2ND_DOSE</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v/>
+        <v>Essential workers who received the second dose</v>
       </c>
       <c r="E58" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F58" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G58" s="4" t="str">
         <v>Z8SPWzgXYG5</v>
@@ -10279,13 +10279,13 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>COVAX - Received safety boxes</v>
+        <v>COVAX - Received safety box</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>Received safety boxes</v>
+        <v>Received safety box</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>CVX_RECEIVED_SAFETY_BOXES</v>
+        <v>CVX_RECEIVED_SAFETY_BOX</v>
       </c>
       <c r="D59" s="5" t="str">
         <v/>
@@ -10294,7 +10294,7 @@
         <v>default</v>
       </c>
       <c r="F59" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="G59" s="5" t="str">
         <v>ZdJXThga9s1</v>
@@ -10312,7 +10312,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" customWidth="1"/>
+    <col min="2" max="2" width="86.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10328,7 +10328,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Doses discarded by reasons</v>
+        <v>COVAX - Doses discarded by reason</v>
       </c>
     </row>
     <row r="3">
@@ -10336,7 +10336,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Staff available at centre today</v>
+        <v>COVAX - Staff available at PoC</v>
       </c>
     </row>
     <row r="4">
@@ -10344,7 +10344,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given 1st dose</v>
+        <v>COVAX - 1st dose given to people with at least one underlying medical conditions</v>
       </c>
     </row>
     <row r="5">
@@ -10392,7 +10392,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAX - Opening balance cold boxes</v>
+        <v>COVAX - Opening balance cold box</v>
       </c>
     </row>
     <row r="11">
@@ -10416,7 +10416,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given 1st dose</v>
+        <v>COVAX - 1st dose given to HCWs</v>
       </c>
     </row>
     <row r="14">
@@ -10424,7 +10424,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAX - Staff expected at centre today</v>
+        <v>COVAX - Staff expected at PoC</v>
       </c>
     </row>
     <row r="15">
@@ -10432,7 +10432,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - People given last dose</v>
+        <v>COVAX - Booster given</v>
       </c>
     </row>
     <row r="16">
@@ -10448,7 +10448,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX - Discarded cold boxes</v>
+        <v>COVAX - Discarded cold box</v>
       </c>
     </row>
     <row r="18">
@@ -10456,7 +10456,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAX - People given 2+ dose</v>
+        <v>COVAX - 2nd dose given</v>
       </c>
     </row>
     <row r="19">
@@ -10480,7 +10480,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX - Discarded safety boxes</v>
+        <v>COVAX - Discarded safety box</v>
       </c>
     </row>
     <row r="22">
@@ -10488,7 +10488,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given last dose</v>
+        <v>COVAX - Booster dose given to people with at least one underlying medical conditions</v>
       </c>
     </row>
     <row r="23">
@@ -10504,7 +10504,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>COVAX - Redistributed safety boxes</v>
+        <v>COVAX - Redistributed safety box</v>
       </c>
     </row>
     <row r="25">
@@ -10528,7 +10528,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>COVAX - Stock on hand cold boxes</v>
+        <v>COVAX - Stock on hand cold box</v>
       </c>
     </row>
     <row r="28">
@@ -10536,7 +10536,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>COVAX - Essential workers given last dose</v>
+        <v>COVAX - Booster dose given to essential workers</v>
       </c>
     </row>
     <row r="29">
@@ -10544,7 +10544,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>COVAX - People given 1st dose</v>
+        <v>COVAX - 1st dose given</v>
       </c>
     </row>
     <row r="30">
@@ -10552,7 +10552,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>COVAX - Stock on hand safety boxes</v>
+        <v>COVAX - Stock on hand safety box</v>
       </c>
     </row>
     <row r="31">
@@ -10568,7 +10568,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>COVAX - Distributed safety boxes</v>
+        <v>COVAX - Distributed safety box</v>
       </c>
     </row>
     <row r="33">
@@ -10576,7 +10576,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given 2+ dose</v>
+        <v>COVAX - 2nd dose given to people with at least one underlying medical conditions</v>
       </c>
     </row>
     <row r="34">
@@ -10584,7 +10584,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given 2+ dose</v>
+        <v>COVAX - 2nd dose given to HCWs</v>
       </c>
     </row>
     <row r="35">
@@ -10592,7 +10592,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>COVAX - Opening balance safety boxes</v>
+        <v>COVAX - Opening balance safety box</v>
       </c>
     </row>
     <row r="36">
@@ -10600,7 +10600,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>COVAX - Received cold boxes</v>
+        <v>COVAX - Received cold box</v>
       </c>
     </row>
     <row r="37">
@@ -10632,7 +10632,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>COVAX - Stockout days safety boxes</v>
+        <v>COVAX - Stockout days safety box</v>
       </c>
     </row>
     <row r="41">
@@ -10656,7 +10656,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>COVAX - Redistributed cold boxes</v>
+        <v>COVAX - Redistributed cold box</v>
       </c>
     </row>
     <row r="44">
@@ -10664,7 +10664,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>COVAX - Stockout days vaccine3</v>
+        <v>COVAX - Stockout days vaccine 3</v>
       </c>
     </row>
     <row r="45">
@@ -10672,7 +10672,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>COVAX - Stockout days cold boxes</v>
+        <v>COVAX - Stockout days cold box</v>
       </c>
     </row>
     <row r="46">
@@ -10680,7 +10680,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>COVAX - Stockout days vaccine2</v>
+        <v>COVAX - Stockout days vaccine 2</v>
       </c>
     </row>
     <row r="47">
@@ -10688,7 +10688,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given last dose</v>
+        <v>COVAX - Booster dose given to HCWs</v>
       </c>
     </row>
     <row r="48">
@@ -10712,7 +10712,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>COVAX - Stockout days vaccine1</v>
+        <v>COVAX - Stockout days vaccine 1</v>
       </c>
     </row>
     <row r="51">
@@ -10744,7 +10744,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>COVAX - Essential workers given 1st dose</v>
+        <v>COVAX - 1st dose given to essential workers</v>
       </c>
     </row>
     <row r="55">
@@ -10752,7 +10752,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>COVAX - Distributed cold boxes</v>
+        <v>COVAX - Distributed cold box</v>
       </c>
     </row>
     <row r="56">
@@ -10768,7 +10768,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>COVAX - Essential workers given 2+ dose</v>
+        <v>COVAX - 2nd dose given to essential workers</v>
       </c>
     </row>
     <row r="58">
@@ -10776,7 +10776,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>COVAX - Received safety boxes</v>
+        <v>COVAX - Received safety box</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/COVAX_AGG/COVAX_AGG_COMPLETE_V1_DHIS2.30/reference.xlsx
+++ b/metadata/COVAX_AGG/COVAX_AGG_COMPLETE_V1_DHIS2.30/reference.xlsx
@@ -503,7 +503,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_AGG_COMPLETE_V1.0_DHIS2.30_2021-01-29T11:09</v>
+        <v>COVAX_AGG_COMPLETE_V1.0_DHIS2.30_2021-02-02T12:36</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +538,7 @@
         <v>Other reason</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>BaOUxUBEAp1</v>
@@ -549,7 +549,7 @@
         <v>Partial use</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>BoDgo1kqT4s</v>
@@ -560,7 +560,7 @@
         <v>80+ years</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>c2hLbh0drQI</v>
@@ -571,7 +571,7 @@
         <v>Female</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>FFA9e1yIXCT</v>
@@ -582,7 +582,7 @@
         <v>Vaccine3</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>IuU1MxFm2zp</v>
@@ -593,7 +593,7 @@
         <v>Vaccine2</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>j6Jq0MIuswR</v>
@@ -604,7 +604,7 @@
         <v>Contamination</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C8" s="4" t="str">
         <v>jAbqv8bnCqT</v>
@@ -615,7 +615,7 @@
         <v>60-69 years</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C9" s="5" t="str">
         <v>jLdW7zUyymx</v>
@@ -626,7 +626,7 @@
         <v>Open vial</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C10" s="4" t="str">
         <v>L8NDNe93WYp</v>
@@ -637,7 +637,7 @@
         <v>Non-Serious AEFI</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C11" s="5" t="str">
         <v>lMnq1h3SBZ4</v>
@@ -648,7 +648,7 @@
         <v>60+ years</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C12" s="4" t="str">
         <v>m9UzfatWfRs</v>
@@ -659,7 +659,7 @@
         <v>Serious AEFI</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C13" s="5" t="str">
         <v>mArfwb3Uoxu</v>
@@ -670,7 +670,7 @@
         <v>Color change (VVM)</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C14" s="4" t="str">
         <v>mlwTknbcGP4</v>
@@ -681,7 +681,7 @@
         <v>Male</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C15" s="5" t="str">
         <v>MP15bHaQh2x</v>
@@ -692,7 +692,7 @@
         <v>Closed vial</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C16" s="4" t="str">
         <v>Rcn9QLnWlua</v>
@@ -703,7 +703,7 @@
         <v>Exposure</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C17" s="5" t="str">
         <v>siAKZpu6g5x</v>
@@ -714,7 +714,7 @@
         <v>Expiry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C18" s="4" t="str">
         <v>tYiGorSNnzL</v>
@@ -725,7 +725,7 @@
         <v>Vaccine1</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C19" s="5" t="str">
         <v>u0GOii8aqZu</v>
@@ -736,7 +736,7 @@
         <v>70-79 years</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C20" s="4" t="str">
         <v>X4WuLNVuC6H</v>
@@ -747,7 +747,7 @@
         <v>default</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C21" s="5" t="str">
         <v>xYerKDKCefk</v>
@@ -758,7 +758,7 @@
         <v>&lt;60 years</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C22" s="4" t="str">
         <v>ZzSc6xP10nz</v>
@@ -796,7 +796,7 @@
         <v>Open vial, Other reason</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>AnEOc7eqTPG</v>
@@ -807,7 +807,7 @@
         <v>70-79 years, Male, Vaccine3</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>BLONsXiboym</v>
@@ -818,7 +818,7 @@
         <v>&lt;60 years, Female, Vaccine1</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>CAfB8ipjDhr</v>
@@ -829,7 +829,7 @@
         <v>70-79 years, Female, Vaccine2</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>CElAh1tA7Wf</v>
@@ -840,7 +840,7 @@
         <v>60-69 years, Female, Vaccine1</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>CJAFdzt8l6p</v>
@@ -851,7 +851,7 @@
         <v>Vaccine2, Non-Serious AEFI</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>csFACTpDkcv</v>
@@ -862,7 +862,7 @@
         <v>Open vial, Exposure</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C8" s="4" t="str">
         <v>d7iBKO4OtOL</v>
@@ -873,7 +873,7 @@
         <v>60+ years, Female, Vaccine3</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C9" s="5" t="str">
         <v>doV3TW4iOxr</v>
@@ -884,7 +884,7 @@
         <v>60-69 years, Male, Vaccine2</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C10" s="4" t="str">
         <v>DTiUTarVTR8</v>
@@ -895,7 +895,7 @@
         <v>60-69 years, Male, Vaccine1</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C11" s="5" t="str">
         <v>Eds0DVXiLk2</v>
@@ -906,7 +906,7 @@
         <v>60+ years, Male, Vaccine3</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C12" s="4" t="str">
         <v>EgYbpH9AslA</v>
@@ -917,7 +917,7 @@
         <v>80+ years, Male, Vaccine2</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C13" s="5" t="str">
         <v>eVbaXGtmja4</v>
@@ -928,7 +928,7 @@
         <v>Closed vial, Color change (VVM)</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C14" s="4" t="str">
         <v>EWaVKxhCw7E</v>
@@ -939,7 +939,7 @@
         <v>80+ years, Female, Vaccine3</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C15" s="5" t="str">
         <v>EWm4YRV997y</v>
@@ -950,7 +950,7 @@
         <v>60-69 years, Female, Vaccine2</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C16" s="4" t="str">
         <v>Fs3mk5kekbu</v>
@@ -961,7 +961,7 @@
         <v>&lt;60 years, Female</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C17" s="5" t="str">
         <v>FsZSFGKirY0</v>
@@ -972,7 +972,7 @@
         <v>Vaccine3</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C18" s="4" t="str">
         <v>g8LPkyYr8vl</v>
@@ -983,7 +983,7 @@
         <v>Vaccine1, Serious AEFI</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C19" s="5" t="str">
         <v>GPq1m6ZyFrl</v>
@@ -994,7 +994,7 @@
         <v>80+ years, Female</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C20" s="4" t="str">
         <v>GVJmfnpis1B</v>
@@ -1005,7 +1005,7 @@
         <v>Vaccine1, Non-Serious AEFI</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C21" s="5" t="str">
         <v>h2yCPynl6UQ</v>
@@ -1016,7 +1016,7 @@
         <v>Vaccine3, Non-Serious AEFI</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C22" s="4" t="str">
         <v>Hj01f2Rkx8s</v>
@@ -1027,7 +1027,7 @@
         <v>default</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C23" s="5" t="str">
         <v>HllvX50cXC0</v>
@@ -1038,7 +1038,7 @@
         <v>80+ years, Male, Vaccine3</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C24" s="4" t="str">
         <v>huTkIjvVR6R</v>
@@ -1049,7 +1049,7 @@
         <v>70-79 years, Male, Vaccine2</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C25" s="5" t="str">
         <v>hVXSS0DkOJ0</v>
@@ -1060,7 +1060,7 @@
         <v>Open vial, Color change (VVM)</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C26" s="4" t="str">
         <v>iemSXBenfIl</v>
@@ -1071,7 +1071,7 @@
         <v>60+ years, Female</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C27" s="5" t="str">
         <v>iUe9y7FGGws</v>
@@ -1082,7 +1082,7 @@
         <v>&lt;60 years, Male, Vaccine1</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C28" s="4" t="str">
         <v>IWFrV7VrJuu</v>
@@ -1093,7 +1093,7 @@
         <v>60-69 years, Female, Vaccine3</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C29" s="5" t="str">
         <v>JQYfvub8ZCm</v>
@@ -1104,7 +1104,7 @@
         <v>80+ years, Female, Vaccine1</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C30" s="4" t="str">
         <v>JsZNv7qtndI</v>
@@ -1115,7 +1115,7 @@
         <v>60+ years, Male, Vaccine2</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C31" s="5" t="str">
         <v>JwCdtXKTTK1</v>
@@ -1126,7 +1126,7 @@
         <v>Open vial, Contamination</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C32" s="4" t="str">
         <v>k3G5n6cjo1H</v>
@@ -1137,7 +1137,7 @@
         <v>80+ years, Male</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C33" s="5" t="str">
         <v>kEOrzHZcX3f</v>
@@ -1148,7 +1148,7 @@
         <v>Vaccine3, Serious AEFI</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C34" s="4" t="str">
         <v>LPhRMhbUbRE</v>
@@ -1159,7 +1159,7 @@
         <v>Closed vial, Exposure</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C35" s="5" t="str">
         <v>lTacio9Id50</v>
@@ -1170,7 +1170,7 @@
         <v>60+ years, Female, Vaccine2</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C36" s="4" t="str">
         <v>ly72sXh6ryW</v>
@@ -1181,7 +1181,7 @@
         <v>60-69 years, Male, Vaccine3</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C37" s="5" t="str">
         <v>Mb05QIgQcoM</v>
@@ -1192,7 +1192,7 @@
         <v>Closed vial, Partial use</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C38" s="4" t="str">
         <v>MkryG3woLLJ</v>
@@ -1203,7 +1203,7 @@
         <v>70-79 years, Female, Vaccine1</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C39" s="5" t="str">
         <v>Mso8C8jquvO</v>
@@ -1214,7 +1214,7 @@
         <v>70-79 years, Female, Vaccine3</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C40" s="4" t="str">
         <v>mUubrvrVIoV</v>
@@ -1225,7 +1225,7 @@
         <v>&lt;60 years, Male</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C41" s="5" t="str">
         <v>nACYHQS6RTn</v>
@@ -1236,7 +1236,7 @@
         <v>70-79 years, Male, Vaccine1</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C42" s="4" t="str">
         <v>O9Z6wZkNMl6</v>
@@ -1247,7 +1247,7 @@
         <v>60-69 years, Female</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C43" s="5" t="str">
         <v>osXg7mNNzWb</v>
@@ -1258,7 +1258,7 @@
         <v>Closed vial, Contamination</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C44" s="4" t="str">
         <v>QVo1zpPICJN</v>
@@ -1269,7 +1269,7 @@
         <v>Open vial, Partial use</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C45" s="5" t="str">
         <v>RPzlBMTlOxz</v>
@@ -1280,7 +1280,7 @@
         <v>60+ years, Male, Vaccine1</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C46" s="4" t="str">
         <v>S600AfMQbKQ</v>
@@ -1291,7 +1291,7 @@
         <v>&lt;60 years, Male, Vaccine2</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C47" s="5" t="str">
         <v>uIIFBU3NJCl</v>
@@ -1302,7 +1302,7 @@
         <v>Closed vial, Other reason</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C48" s="4" t="str">
         <v>utXnwFzJgiA</v>
@@ -1313,7 +1313,7 @@
         <v>&lt;60 years, Female, Vaccine3</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C49" s="5" t="str">
         <v>VDX4411bEwZ</v>
@@ -1324,7 +1324,7 @@
         <v>&lt;60 years, Male, Vaccine3</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C50" s="4" t="str">
         <v>Vva8jEdMGyx</v>
@@ -1335,7 +1335,7 @@
         <v>Vaccine2</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C51" s="5" t="str">
         <v>WCkKHHtraD5</v>
@@ -1346,7 +1346,7 @@
         <v>Vaccine1</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C52" s="4" t="str">
         <v>WID1zw7icTl</v>
@@ -1357,7 +1357,7 @@
         <v>Vaccine2, Serious AEFI</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C53" s="5" t="str">
         <v>wkgjnBtq9yC</v>
@@ -1368,7 +1368,7 @@
         <v>60+ years, Male</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C54" s="4" t="str">
         <v>wY6kS8VVWH9</v>
@@ -1379,7 +1379,7 @@
         <v>Closed vial, Expiry</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C55" s="5" t="str">
         <v>x0WvdmAkQqF</v>
@@ -1390,7 +1390,7 @@
         <v>Open vial, Expiry</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C56" s="4" t="str">
         <v>x1IX3hw1Xwl</v>
@@ -1401,7 +1401,7 @@
         <v>80+ years, Male, Vaccine1</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C57" s="5" t="str">
         <v>X7HDZBCO9Ck</v>
@@ -1412,7 +1412,7 @@
         <v>70-79 years, Male</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C58" s="4" t="str">
         <v>Xhq4cIsIPvF</v>
@@ -1423,7 +1423,7 @@
         <v>60+ years, Female, Vaccine1</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C59" s="5" t="str">
         <v>Xrbw9OSFk0m</v>
@@ -1434,7 +1434,7 @@
         <v>70-79 years, Female</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C60" s="4" t="str">
         <v>y9MlQ9kbywF</v>
@@ -1445,7 +1445,7 @@
         <v>60-69 years, Male</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C61" s="5" t="str">
         <v>YX9CbyGsJwx</v>
@@ -1456,7 +1456,7 @@
         <v>80+ years, Female, Vaccine2</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C62" s="4" t="str">
         <v>Yy6aoJ9PTVS</v>
@@ -1467,7 +1467,7 @@
         <v>&lt;60 years, Female, Vaccine2</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C63" s="5" t="str">
         <v>ZpvqjZ9iDSn</v>
@@ -1505,7 +1505,7 @@
         <v>COVID19 Vaccines</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>dX05HKf9jgk</v>
@@ -1516,7 +1516,7 @@
         <v>Vial condition</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>flirf9mAeha</v>
@@ -1527,7 +1527,7 @@
         <v>Age(&lt;60-60+years)</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>hEcLht1oMFl</v>
@@ -1538,7 +1538,7 @@
         <v>AEFI Severity</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>lKWQD9CDlOA</v>
@@ -1549,7 +1549,7 @@
         <v>Wastage reasons</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>mytJKrvlNuF</v>
@@ -1594,7 +1594,7 @@
         <v>Partial use</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>A3jbi9q2pvX</v>
@@ -1608,7 +1608,7 @@
         <v>Serious AEFI</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>aHtHUdheUX7</v>
@@ -1622,7 +1622,7 @@
         <v>Open vial</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>B1GRrudW4kx</v>
@@ -1636,7 +1636,7 @@
         <v>Other reason</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>CcM1wEkrHwA</v>
@@ -1650,7 +1650,7 @@
         <v>Color change (VVM)</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>diTeRoy0yzo</v>
@@ -1664,7 +1664,7 @@
         <v>Vaccine2</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D7" s="5" t="str">
         <v>FNFBfAafW1b</v>
@@ -1678,7 +1678,7 @@
         <v>0-59 y</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-27</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>fqborXHhXZG</v>
@@ -1692,7 +1692,7 @@
         <v>60+ y</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>hEct0AAbPAw</v>
@@ -1706,7 +1706,7 @@
         <v>Vaccine3</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>IIUfyc2Pe6x</v>
@@ -1720,7 +1720,7 @@
         <v>Contamination</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D11" s="5" t="str">
         <v>KS058ZLL570</v>
@@ -1734,7 +1734,7 @@
         <v>Vaccine1</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D12" s="4" t="str">
         <v>TJHsOAXOi3f</v>
@@ -1748,7 +1748,7 @@
         <v>Non-Serious AEFI</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D13" s="5" t="str">
         <v>uOiOUtqUZdY</v>
@@ -1762,7 +1762,7 @@
         <v>Closed vial</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D14" s="4" t="str">
         <v>uWJm7E7Jtgk</v>
@@ -1776,7 +1776,7 @@
         <v>Expiry</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D15" s="5" t="str">
         <v>ZyZJL43yTIM</v>
@@ -1977,7 +1977,7 @@
         <v>Opening balance + Received syringes with needle 1ml</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>Bqgw5ZswQ0i</v>
@@ -2000,7 +2000,7 @@
         <v>Opening balance + Received</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>DhgwNZdmK3z</v>
@@ -2023,7 +2023,7 @@
         <v>People given 2+ dose</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>FcHGTSb6QSX</v>
@@ -2046,7 +2046,7 @@
         <v>People given 1st dose</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G5" s="5" t="str">
         <v>FV15XHjS9KW</v>
@@ -2069,7 +2069,7 @@
         <v>People given 2+ dose</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G6" s="4" t="str">
         <v>fXfMrOF8GRi</v>
@@ -2092,7 +2092,7 @@
         <v>Opening balance + Received</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G7" s="5" t="str">
         <v>gfzqS2pyBsu</v>
@@ -2115,7 +2115,7 @@
         <v>People given last dose</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>GOXlyiQr5UG</v>
@@ -2138,7 +2138,7 @@
         <v>Target population</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G9" s="5" t="str">
         <v>hbbLJ70OB0F</v>
@@ -2161,7 +2161,7 @@
         <v>Opening balance + Received cold boxes</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G10" s="4" t="str">
         <v>JvKCXKBaFVh</v>
@@ -2184,7 +2184,7 @@
         <v>People given last dose</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G11" s="5" t="str">
         <v>Kdjeh5QThsn</v>
@@ -2207,7 +2207,7 @@
         <v>Opening balance + Received syringes</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G12" s="4" t="str">
         <v>kEXHGR4jkWR</v>
@@ -2230,7 +2230,7 @@
         <v>Discarded stock</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G13" s="5" t="str">
         <v>krggZifXtr2</v>
@@ -2253,7 +2253,7 @@
         <v>Staff expected at centre today</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G14" s="4" t="str">
         <v>oznilQuKpqC</v>
@@ -2276,7 +2276,7 @@
         <v>People given 1st dose</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G15" s="5" t="str">
         <v>pbKnj7OLeUd</v>
@@ -2299,7 +2299,7 @@
         <v>People given last dose</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G16" s="4" t="str">
         <v>QqtsnF38TX6</v>
@@ -2322,7 +2322,7 @@
         <v>Opening balance + Received cold boxes</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G17" s="5" t="str">
         <v>sCmEVokVIMZ</v>
@@ -2345,7 +2345,7 @@
         <v>People given 1st dose</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G18" s="4" t="str">
         <v>Shlzt0QvkUn</v>
@@ -2368,7 +2368,7 @@
         <v>People given 2+ dose</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G19" s="5" t="str">
         <v>SSwuygmdxTx</v>
@@ -2391,7 +2391,7 @@
         <v>Opening balance + Received vaccination cards</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G20" s="4" t="str">
         <v>t8vHdmah0wG</v>
@@ -2414,7 +2414,7 @@
         <v>Opening balance + Received  safety boxes</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G21" s="5" t="str">
         <v>uOHvnGyZZua</v>
@@ -2437,7 +2437,7 @@
         <v>Opening balance + Received</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G22" s="4" t="str">
         <v>wxhwtVbJt7n</v>
@@ -2475,7 +2475,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>OBpdFqWkQMK</v>
@@ -2711,7 +2711,7 @@
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2723,7 +2723,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A8UE5oyhOMl</v>
+        <v>a8exJvs1DYc</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Opening balance syringes with needle 1ml</v>
+        <v>COVAX - Received dilution syringes</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Opening balance syringes with needle 1ml</v>
+        <v>Received dilution syringes</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_RECEIVED_DILUTION_SYRINGES</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>Opening balance syringes with needle 1ml</v>
+        <v>Received dilution syringes</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>1</v>
@@ -2798,30 +2798,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J2" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>AfDDi4x9jOt</v>
+        <v>A8UE5oyhOMl</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Opening balance cold box</v>
+        <v>COVAX - Opening balance syringes with needle 1ml</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Opening balance cold box</v>
+        <v>Opening balance syringes with needle 1ml</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_COLD_BOXES</v>
+        <v>CVX_OPENING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>Opening balance cold box</v>
+        <v>Opening balance syringes with needle 1ml</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>1</v>
@@ -2830,7 +2830,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J3" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2838,22 +2838,22 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>ANmlPnVtTTa</v>
+        <v>AfDDi4x9jOt</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Stockout days - Vaccine 3 (vials)</v>
+        <v>COVAX - Opening balance cold box</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Stockout days - Vaccine 3 (vials)</v>
+        <v>Opening balance cold box</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE3_VIALS</v>
+        <v>CVX_OPENING_BALANCE_COLD_BOXES</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>Days the centre was stocked out of the item</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>Stockout days - Vaccine3</v>
+        <v>Opening balance cold box</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J4" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2870,31 +2870,31 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>AvwcVy7Yfv4</v>
+        <v>ANmlPnVtTTa</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX - Proportion of target frontline healthcare workers given 1st dose</v>
+        <v>COVAX - Stockout days - Vaccine 3 (vials)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Frontline healthcare workers given 1st dose (%)</v>
+        <v>Stockout days - Vaccine 3 (vials)</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>CVX_FRONTLINE_HCW_GIVEN_1ST_DOSE_%</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE3_VIALS</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>Proportion of frontline healthcare workers given 1st dose</v>
+        <v>Days the centre was stocked out of the item</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>Target frontline healthcare workers given 1st dose</v>
+        <v>Stockout days - Vaccine3</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J5" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2902,31 +2902,31 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>b3znXSaQjkD</v>
+        <v>AvwcVy7Yfv4</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAX - Proportion of staff available</v>
+        <v>COVAX - Proportion of target frontline healthcare workers given 1st dose</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Staff available (%)</v>
+        <v>Frontline healthcare workers given 1st dose (%)</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>CVX_STAFF_AVAILABLE_%</v>
+        <v>CVX_FRONTLINE_HCW_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Proportion of staff available</v>
+        <v>Proportion of frontline healthcare workers given 1st dose</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>Staff available</v>
+        <v>Target frontline healthcare workers given 1st dose</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>Expected staff</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="H6" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J6" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2934,31 +2934,31 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>B7vM2EWHmrP</v>
+        <v>b3znXSaQjkD</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX - Stock at hand safety box</v>
+        <v>COVAX - Proportion of staff available</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Stock at hand safety box</v>
+        <v>Staff available (%)</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_SAFETY_BOX</v>
+        <v>CVX_STAFF_AVAILABLE_%</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>Stock on-hand at the center after a physical stock count</v>
+        <v>Proportion of staff available</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>Stock on hand safety boxes</v>
+        <v>Staff available</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v>1</v>
+        <v>Expected staff</v>
       </c>
       <c r="H7" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I7" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J7" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2966,22 +2966,22 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>BbcV04tNF2n</v>
+        <v>B7vM2EWHmrP</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAX - Opening balance - Vaccine 2 (doses)</v>
+        <v>COVAX - Stock at hand safety box</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Opening balance - Vaccine 2 (doses)</v>
+        <v>Stock at hand safety box</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_VACCINE2_DOSES</v>
+        <v>CVX_STOCK_AT_HAND_SAFETY_BOX</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>Opening balance - Vaccine2 doses</v>
+        <v>Stock at hand safety boxes</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>1</v>
@@ -2990,7 +2990,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J8" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2998,22 +2998,22 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>BgtZgNWFVfb</v>
+        <v>BbcV04tNF2n</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given 2nd dose</v>
+        <v>COVAX - Opening balance - Vaccine 2 (doses)</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>Frontline healthcare workers given 2nd dose</v>
+        <v>Opening balance - Vaccine 2 (doses)</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>CVX_FRONTLINE_HCW_2ND_DOSE</v>
+        <v>CVX_OPENING_BALANCE_VACCINE2_DOSES</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>Frontline healthcare workers given 2nd dose</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>Frontline healthcare workers given 2+ dose</v>
+        <v>Opening balance - Vaccine2 doses</v>
       </c>
       <c r="G9" s="5" t="str">
         <v>1</v>
@@ -3022,7 +3022,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I9" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J9" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3030,22 +3030,22 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>bmUnh1j8eUE</v>
+        <v>BgtZgNWFVfb</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAX - Distributed syringes with needle 1ml</v>
+        <v>COVAX - Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Distributed syringes with needle 1ml</v>
+        <v>Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>CVX_DISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_FRONTLINE_HCW_2ND_DOSE</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>Distributed syringes with needle 1ml</v>
+        <v>Frontline healthcare workers given 2+ dose</v>
       </c>
       <c r="G10" s="4" t="str">
         <v>1</v>
@@ -3054,7 +3054,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I10" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J10" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3062,31 +3062,31 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>btAPoZyKLSW</v>
+        <v>bmUnh1j8eUE</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAX - Drop out rates among frontline healthcare workers(%)</v>
+        <v>COVAX - Distributed syringes with needle 1ml</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Drop out rates among frontline HCW (%)</v>
+        <v>Distributed syringes with needle 1ml</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_FRONTLINE_HCW_%</v>
+        <v>CVX_DISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>(1st dose - 2nd dose)/1st dose</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>Given 1st dose - Given second dose</v>
+        <v>Distributed syringes with needle 1ml</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>Given 1st dose</v>
+        <v>1</v>
       </c>
       <c r="H11" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I11" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J11" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3094,31 +3094,31 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>ByzkeCHudEH</v>
+        <v>btAPoZyKLSW</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAX - Staff expected at PoC</v>
+        <v>COVAX - Drop out rates among frontline healthcare workers(%)</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Staff expected at PoC</v>
+        <v>Drop out rates among frontline HCW (%)</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>CVX_STAFF_EXPECTED_AT_POC</v>
+        <v>CVX_DROPOUT_RATES_AMONG_FRONTLINE_HCW_%</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>Staff expected at PoC during the reporting period</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>Staff expected at PoC</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>1</v>
+        <v>Given 1st dose</v>
       </c>
       <c r="H12" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I12" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J12" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3126,31 +3126,31 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>c4p6bfoOh0B</v>
+        <v>ByzkeCHudEH</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX - Drop out rates among essential workers(%)</v>
+        <v>COVAX - Staff expected at PoC</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Drop out rates among essential workers (%)</v>
+        <v>Staff expected at PoC</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_ESS_WORKERS_%</v>
+        <v>CVX_STAFF_EXPECTED_AT_POC</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>(1st dose - 2nd dose)/1st dose</v>
+        <v>Staff expected at PoC during the reporting period</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>Given 1st dose - Given second dose</v>
+        <v>Staff expected at PoC</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>Given 1st dose</v>
+        <v>1</v>
       </c>
       <c r="H13" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I13" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J13" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3158,31 +3158,31 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>cdLF5DVO45T</v>
+        <v>c4p6bfoOh0B</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAX - Closed vials wastage (%)</v>
+        <v>COVAX - Drop out rates among essential workers(%)</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Closed vials wastage (%)</v>
+        <v>Drop out rates among essential workers (%)</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>CVX_ CLOSED_VIALS_WASTAGE_%</v>
+        <v>CVX_DROPOUT_RATES_AMONG_ESS_WORKERS_%</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>(Discarded closed vial doses/Doses discarded)*100</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>Closed vial doses discarded</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>Discarded doses</v>
+        <v>Given 1st dose</v>
       </c>
       <c r="H14" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J14" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3190,63 +3190,63 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>cEUzKKCa7fv</v>
+        <v>cd7NXT5z1pV</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - Vaccine stock reporting rates</v>
+        <v>COVAX - Received diluent</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>Vaccine stock reporting rates (%)</v>
+        <v>Received diluent</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>CVX_VAC_STOCK_REPORTING_RATE_%</v>
+        <v>CVX_RECEIVED_DILUENT</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>Proportion of all vaccination centres that submitted their report</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>Actual reports received</v>
+        <v>Received diluent</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>Expected reports</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I15" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J15" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>cSnIflt4J3h</v>
+        <v>cdLF5DVO45T</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAX - Redistributed - Vaccine1 doses</v>
+        <v>COVAX - Closed vials wastage (%)</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Redistributed - Vaccine1 doses</v>
+        <v>Closed vials wastage (%)</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_VACCINE1_DOSES</v>
+        <v>CVX_ CLOSED_VIALS_WASTAGE_%</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>(Discarded closed vial doses/Doses discarded)*100</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>Redistributed - Vaccine1 doses</v>
+        <v>Closed vial doses discarded</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>1</v>
+        <v>Discarded doses</v>
       </c>
       <c r="H16" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I16" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J16" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3254,31 +3254,31 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>CydbboFk0yH</v>
+        <v>cEUzKKCa7fv</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX - Stock at hand - Vaccine 3 (doses)</v>
+        <v>COVAX - Vaccine stock reporting rates</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Stock at hand - Vaccine 3 (doses)</v>
+        <v>Vaccine stock reporting rates (%)</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_VACCINE3_DOSES</v>
+        <v>CVX_VAC_STOCK_REPORTING_RATE_%</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>Stock on-hand at the center after a physical stock count</v>
+        <v>Proportion of all vaccination centres that submitted their report</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>Stock on hand - Vaccine3 doses</v>
+        <v>Actual reports received</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>1</v>
+        <v>Expected reports</v>
       </c>
       <c r="H17" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I17" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J17" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3286,22 +3286,22 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>eA3THL80DDH</v>
+        <v>cSnIflt4J3h</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAX - Stockout days - Vaccine 1 (vials)</v>
+        <v>COVAX - Redistributed - Vaccine1 doses</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Stockout days - Vaccine 1 (vials)</v>
+        <v>Redistributed - Vaccine1 doses</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE1_VIALS</v>
+        <v>CVX_REDISTRIBUTED_VACCINE1_DOSES</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>Days the centre was stocked out of the item</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>Stockout days - Vaccine1</v>
+        <v>Redistributed - Vaccine1 doses</v>
       </c>
       <c r="G18" s="4" t="str">
         <v>1</v>
@@ -3310,7 +3310,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I18" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J18" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3318,22 +3318,22 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>EMDTyzi8eMD</v>
+        <v>cVo16hm11Kj</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAX - Stockout days syringes with needle 1ml</v>
+        <v>COVAX - Redistributed dilution syringes</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>Stockout days syringes with needle 1ml</v>
+        <v>Redistributed dilution syringes</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_REDISTRIBUTED_DILUTION_SYRINGES</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>Stockout days syringes with needle 1ml</v>
+        <v>Redistributed dilution syringes</v>
       </c>
       <c r="G19" s="5" t="str">
         <v>1</v>
@@ -3342,30 +3342,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I19" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J19" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>EPpNtahWX9y</v>
+        <v>CydbboFk0yH</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAX - Discarded open vials - Vaccine 3</v>
+        <v>COVAX - Stock at hand - Vaccine 3 (doses)</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>Discarded open vials - Vaccine 3</v>
+        <v>Stock at hand - Vaccine 3 (doses)</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>CVX_DISCARDED__CLOSED_VIALS_VACCINE3</v>
+        <v>CVX_STOCK_AT_HAND_VACCINE3_DOSES</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>Discarded open vials - Vaccine 3</v>
+        <v>Stock at hand - Vaccine 3 doses</v>
       </c>
       <c r="G20" s="4" t="str">
         <v>1</v>
@@ -3374,30 +3374,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I20" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J20" s="4" t="str">
-        <v/>
+        <v>SKgp2iI0dJp</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>f1W0R9vbMEn</v>
+        <v>djMXxir9aEw</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX - Stockout days vaccination cards</v>
+        <v>COVAX - Stock at hand dilution syringes</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>Stockout days vaccination cards</v>
+        <v>Stock at hand dilution syringes</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_CARDS</v>
+        <v>CVX_STOCK_AT_HAND_DILUTION_SYRINGES</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>Stockout days vaccination cards</v>
+        <v>Stock at hand dilution syringes</v>
       </c>
       <c r="G21" s="5" t="str">
         <v>1</v>
@@ -3406,30 +3406,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I21" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J21" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>FE4mbnWq0rv</v>
+        <v>eA3THL80DDH</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX - Discarded closed vials - Vaccine 2 (doses)</v>
+        <v>COVAX - Stockout days - Vaccine 1 (vials)</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>Discarded closed vials - Vaccine 2 (doses)</v>
+        <v>Stockout days - Vaccine 1 (vials)</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>CVX_DISCARDED_VACCINE2_DOSES</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE1_VIALS</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Days the centre was stocked out of the item</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>Discarded - Vaccine2 doses</v>
+        <v>Stockout days - Vaccine1</v>
       </c>
       <c r="G22" s="4" t="str">
         <v>1</v>
@@ -3438,7 +3438,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I22" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J22" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3446,31 +3446,31 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>ffjCEkN7xC2</v>
+        <v>EMDTyzi8eMD</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAX - Stock discrepancy rate (%)</v>
+        <v>COVAX - Stockout days syringes with needle 1ml</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Stock discrepancy rate (%)</v>
+        <v>Stockout days syringes with needle 1ml</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>CVX_STOCK_DISCREPANCY_VIALS</v>
+        <v>CVX_STOCKOUT_DAYS_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E23" s="5" t="str">
-        <v>(Closing balance-Stock on hand)/Stock at hand</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>Closing balance-Stock at hand</v>
+        <v>Stockout days syringes with needle 1ml</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>Stock at hand</v>
+        <v>1</v>
       </c>
       <c r="H23" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I23" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J23" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3478,22 +3478,22 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>fQAVcB4dAQp</v>
+        <v>EPpNtahWX9y</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>COVAX - Redistributed vials</v>
+        <v>COVAX - Discarded open vials - Vaccine 3</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>Redistributed vials</v>
+        <v>Discarded open vials - Vaccine 3</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_VIALS</v>
+        <v>CVX_DISCARDED__CLOSED_VIALS_VACCINE3</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>Redistributed vials</v>
+        <v>Discarded open vials - Vaccine 3</v>
       </c>
       <c r="G24" s="4" t="str">
         <v>1</v>
@@ -3502,30 +3502,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I24" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J24" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>fSchc931av0</v>
+        <v>f1W0R9vbMEn</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>COVAX - Discarded open vials - Vaccine 1</v>
+        <v>COVAX - Stockout days vaccination cards</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Discarded open vials - Vaccine 1</v>
+        <v>Stockout days vaccination cards</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>CVX_DISCARDED__CLOSED_VIALS_VACCINE1</v>
+        <v>CVX_STOCKOUT_DAYS_CARDS</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>Discarded open vials - Vaccine 1</v>
+        <v>Stockout days vaccination cards</v>
       </c>
       <c r="G25" s="5" t="str">
         <v>1</v>
@@ -3534,30 +3534,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I25" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J25" s="5" t="str">
-        <v/>
+        <v>SKgp2iI0dJp</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>FyC7Cf74Cao</v>
+        <v>FE4mbnWq0rv</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>COVAX - Discarded closed vials - Vaccine 2</v>
+        <v>COVAX - Discarded closed vials - Vaccine 2 (doses)</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Discarded closed vials - Vaccine 2</v>
+        <v>Discarded closed vials - Vaccine 2 (doses)</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>CVX_DISCARDED__OPEN_VIALS_VACCINE2</v>
+        <v>CVX_DISCARDED_VACCINE2_DOSES</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>Discarded closed vials - Vaccine 2</v>
+        <v>Discarded - Vaccine2 doses</v>
       </c>
       <c r="G26" s="4" t="str">
         <v>1</v>
@@ -3566,39 +3566,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I26" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J26" s="4" t="str">
-        <v/>
+        <v>SKgp2iI0dJp</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>fySBzigjUbH</v>
+        <v>ffjCEkN7xC2</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>COVAX - Closing balance vaccination cards</v>
+        <v>COVAX - Stock discrepancy rate (%)</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>Closing balance vaccination cards</v>
+        <v>Stock discrepancy rate (%)</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_CARDS</v>
+        <v>CVX_STOCK_DISCREPANCY_VIALS</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>(Closing balance-Stock on hand)/Stock at hand</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Closing balance-Stock at hand</v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>1</v>
+        <v>Stock at hand</v>
       </c>
       <c r="H27" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I27" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J27" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3606,22 +3606,22 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>g2voTi7ZCxe</v>
+        <v>FMLTWPO5qFU</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>COVAX - Opening balance - Vaccine 1 (doses)</v>
+        <v>COVAX - Distributed diluent</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Opening balance - Vaccine 1 (doses)</v>
+        <v>Distriuted diluent</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_VACCINE1_DOSES</v>
+        <v>CVX_DISTRIBUTED_DILUENT</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>Opening balance - Vaccine1 doses</v>
+        <v>Distributed diluent</v>
       </c>
       <c r="G28" s="4" t="str">
         <v>1</v>
@@ -3630,30 +3630,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I28" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J28" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>G9jRzY6zmJg</v>
+        <v>fQAVcB4dAQp</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>COVAX - Stock at hand vaccination cards</v>
+        <v>COVAX - Redistributed vials</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>Stock at hand vaccination cards</v>
+        <v>Redistributed vials</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_CARDS</v>
+        <v>CVX_REDISTRIBUTED_VIALS</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>Stock on-hand at the center after a physical stock count</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F29" s="5" t="str">
-        <v>Stock on hand vaccination cards</v>
+        <v>Redistributed vials</v>
       </c>
       <c r="G29" s="5" t="str">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I29" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J29" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3670,22 +3670,22 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>gZEoyKpx4hE</v>
+        <v>fSchc931av0</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>COVAX - Essential workers given 2nd dose</v>
+        <v>COVAX - Discarded open vials - Vaccine 1</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>Essential workers given 2nd dose</v>
+        <v>Discarded open vials - Vaccine 1</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_2ND_DOSE</v>
+        <v>CVX_DISCARDED__CLOSED_VIALS_VACCINE1</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>Essential workers given 2nd dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>Essential workers given 2+ dose</v>
+        <v>Discarded open vials - Vaccine 1</v>
       </c>
       <c r="G30" s="4" t="str">
         <v>1</v>
@@ -3694,62 +3694,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I30" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J30" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>h3NchPC73cV</v>
+        <v>FyC7Cf74Cao</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>COVAX - Vaccination reporting rates</v>
+        <v>COVAX - Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>Vaccination reporting rates (%)</v>
+        <v>Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>CVX_VAC_REPORTING_RATE_%</v>
+        <v>CVX_DISCARDED__OPEN_VIALS_VACCINE2</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>Proportion of all vaccination centres that submitted their report</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>Actual reports received</v>
+        <v>Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="G31" s="5" t="str">
-        <v>Expected reports</v>
+        <v>1</v>
       </c>
       <c r="H31" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I31" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J31" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>H6nsnH2w9A9</v>
+        <v>fySBzigjUbH</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>COVAX - Opening balance - Vaccine 3 (doses)</v>
+        <v>COVAX - Closing balance vaccination cards</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>Opening balance - Vaccine 3 (doses)</v>
+        <v>Closing balance vaccination cards</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_VACCINE3_DOSES</v>
+        <v>CVX_CLOSING_BALANCE_CARDS</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>Opening balance - Vaccine3 doses</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G32" s="4" t="str">
         <v>1</v>
@@ -3758,7 +3758,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I32" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J32" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3766,22 +3766,22 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>hJKdezT5GcK</v>
+        <v>g2voTi7ZCxe</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>COVAX - Closing balance - Vaccine 1 (doses)</v>
+        <v>COVAX - Opening balance - Vaccine 1 (doses)</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Closing balance - Vaccine 1 (doses)</v>
+        <v>Opening balance - Vaccine 1 (doses)</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE1_DOSES</v>
+        <v>CVX_OPENING_BALANCE_VACCINE1_DOSES</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Opening balance - Vaccine1 doses</v>
       </c>
       <c r="G33" s="5" t="str">
         <v>1</v>
@@ -3790,7 +3790,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I33" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J33" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3798,22 +3798,22 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>i0dG1vChnP6</v>
+        <v>G9jRzY6zmJg</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>COVAX - Discarded closed vials - Vaccine 1 (doses)</v>
+        <v>COVAX - Stock at hand vaccination cards</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Discarded closed vials - Vaccine 1 (doses)</v>
+        <v>Stock at hand vaccination cards</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>CVX_DISCARDED_VACCINE1_DOSES</v>
+        <v>CVX_STOCK_AT_HAND_CARDS</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F34" s="4" t="str">
-        <v>Discarded - Vaccine1 doses</v>
+        <v>Stock at hand vaccination cards</v>
       </c>
       <c r="G34" s="4" t="str">
         <v>1</v>
@@ -3822,7 +3822,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I34" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J34" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3830,22 +3830,22 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>iC5xj6Dqa0P</v>
+        <v>gZEoyKpx4hE</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>COVAX - Target frontline healthcare workers</v>
+        <v>COVAX - Essential workers given 2nd dose</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Essential workers given 2nd dose</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>CVX_TARGET_FRONTLINE_HCW</v>
+        <v>CVX_ESSENTIAL_WORKERS_2ND_DOSE</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Essential workers given 2nd dose</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Essential workers given 2+ dose</v>
       </c>
       <c r="G35" s="5" t="str">
         <v>1</v>
@@ -3854,7 +3854,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I35" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J35" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3862,31 +3862,31 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>ILLy5jdUwwE</v>
+        <v>h3NchPC73cV</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>COVAX - Stockout days safety box</v>
+        <v>COVAX - Vaccination reporting rates</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>Stockout days safety box</v>
+        <v>Vaccination reporting rates (%)</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_SAFETY_BOX</v>
+        <v>CVX_VAC_REPORTING_RATE_%</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Proportion of all vaccination centres that submitted their report</v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>Stockout days safety boxes</v>
+        <v>Actual reports received</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>1</v>
+        <v>Expected reports</v>
       </c>
       <c r="H36" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I36" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J36" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3894,22 +3894,22 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>iPolbKiHAaq</v>
+        <v>H6nsnH2w9A9</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>COVAX - Discarded open vials - Vaccine 2</v>
+        <v>COVAX - Opening balance - Vaccine 3 (doses)</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Discarded open vials - Vaccine 2</v>
+        <v>Opening balance - Vaccine 3 (doses)</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>CVX_DISCARDED__CLOSED_VIALS_VACCINE2</v>
+        <v>CVX_OPENING_BALANCE_VACCINE3_DOSES</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>Discarded open vials - Vaccine 2</v>
+        <v>Opening balance - Vaccine3 doses</v>
       </c>
       <c r="G37" s="5" t="str">
         <v>1</v>
@@ -3918,39 +3918,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I37" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J37" s="5" t="str">
-        <v/>
+        <v>SKgp2iI0dJp</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>Iv3tfc8gso7</v>
+        <v>hJKdezT5GcK</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>COVAX - Vaccination reporting rates on time</v>
+        <v>COVAX - Closing balance - Vaccine 1 (doses)</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>Vaccination reporting rates on time (%)</v>
+        <v>Closing balance - Vaccine 1 (doses)</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>CVX_VAC_REPORTING_RATE_ONTIME_%</v>
+        <v>CVX_CLOSING_BALANCE_VACCINE1_DOSES</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>Proportion of all vaccination centres that submitted their report on time</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>Actual reports received on time</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>Actual reports received</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I38" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J38" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3958,22 +3958,22 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>J4UW8FgK4vq</v>
+        <v>hlmH910DBPC</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>COVAX - Received vaccination cards</v>
+        <v>COVAX - Discarded vaccination dilution syringes</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>Received vaccination cards</v>
+        <v>Discarded dilution syringes</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>CVX_RECEIVED_CARD</v>
+        <v>CVX_DISCARDED_DILUTION_SYRINGES</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F39" s="5" t="str">
-        <v>Received vaccination cards</v>
+        <v>Discarded dilution syringes</v>
       </c>
       <c r="G39" s="5" t="str">
         <v>1</v>
@@ -3982,39 +3982,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I39" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J39" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>j550fnnj9QU</v>
+        <v>i0dG1vChnP6</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>COVAX - Vaccine 2 uptake (%)</v>
+        <v>COVAX - Discarded closed vials - Vaccine 1 (doses)</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Vaccine 2 uptake (%)</v>
+        <v>Discarded closed vials - Vaccine 1 (doses)</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>CVX_VACCINE2_UPTAKE_%</v>
+        <v>CVX_DISCARDED_VACCINE1_DOSES</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>Proportion of people given doses of vaccine2</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>Vaccine2 doses given</v>
+        <v>Discarded - Vaccine1 doses</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>Total doses of all vaccines given</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I40" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J40" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4022,22 +4022,22 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>jayuvPfIQBz</v>
+        <v>iC5xj6Dqa0P</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>COVAX - Received cold box</v>
+        <v>COVAX - Target frontline healthcare workers</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Received cold box</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>CVX_RECEIVED_COLD_BOX</v>
+        <v>CVX_TARGET_FRONTLINE_HCW</v>
       </c>
       <c r="E41" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="F41" s="5" t="str">
-        <v>Received cold boxes</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="G41" s="5" t="str">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I41" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J41" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4054,22 +4054,22 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>jFlfqS1M9Hj</v>
+        <v>ILLy5jdUwwE</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>COVAX - Staff available at PoC</v>
+        <v>COVAX - Stockout days safety box</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Staff available at PoC</v>
+        <v>Stockout days safety box</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>CVX_STAFF_AVAILABLE_AT_POC</v>
+        <v>CVX_STOCKOUT_DAYS_SAFETY_BOX</v>
       </c>
       <c r="E42" s="4" t="str">
-        <v>Staff available at PoC during the reporting period</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>Staff available at PoC</v>
+        <v>Stockout days safety boxes</v>
       </c>
       <c r="G42" s="4" t="str">
         <v>1</v>
@@ -4078,7 +4078,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I42" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J42" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4086,63 +4086,63 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>k9kIyVQEc0o</v>
+        <v>iPolbKiHAaq</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>COVAX - Wastage rate (%)</v>
+        <v>COVAX - Discarded open vials - Vaccine 2</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>Wastage rate (%)</v>
+        <v>Discarded open vials - Vaccine 2</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>CVX_ WASTAGE_RATE_%</v>
+        <v>CVX_DISCARDED__CLOSED_VIALS_VACCINE2</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>(Discarded/Used)*100</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F43" s="5" t="str">
-        <v>Discarded doses</v>
+        <v>Discarded open vials - Vaccine 2</v>
       </c>
       <c r="G43" s="5" t="str">
-        <v>Used doses=(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>1</v>
       </c>
       <c r="H43" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I43" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J43" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>Kkbt3LgbCbD</v>
+        <v>Iv3tfc8gso7</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>COVAX - Doses per vial - Vaccine 3</v>
+        <v>COVAX - Vaccination reporting rates on time</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Doses per vial - Vaccine 3</v>
+        <v>Vaccination reporting rates on time (%)</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>CVX_DOSES_IN_A_VIAL_VACCINE3</v>
+        <v>CVX_VAC_REPORTING_RATE_ONTIME_%</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v>Number of doses in a vial - Vaccine3</v>
+        <v>Proportion of all vaccination centres that submitted their report on time</v>
       </c>
       <c r="F44" s="4" t="str">
-        <v>Doses in a vial - Vaccine3</v>
+        <v>Actual reports received on time</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>1</v>
+        <v>Actual reports received</v>
       </c>
       <c r="H44" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I44" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J44" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4150,22 +4150,22 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>KLFHy7LdaEp</v>
+        <v>J4UW8FgK4vq</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>COVAX - Received - Vaccine 2 (doses)</v>
+        <v>COVAX - Received vaccination cards</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Received - Vaccine 2 (doses)</v>
+        <v>Received vaccination cards</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>CVX_RECEIVED_VACCINE2_DOSES</v>
+        <v>CVX_RECEIVED_CARD</v>
       </c>
       <c r="E45" s="5" t="str">
         <v>Received at the centre</v>
       </c>
       <c r="F45" s="5" t="str">
-        <v>Received - Vaccine2 doses</v>
+        <v>Received vaccination cards</v>
       </c>
       <c r="G45" s="5" t="str">
         <v>1</v>
@@ -4174,7 +4174,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I45" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J45" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4182,31 +4182,31 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>kx79vq5XdQd</v>
+        <v>j550fnnj9QU</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>COVAX - Closing balance syringes with needle 1ml</v>
+        <v>COVAX - Vaccine 2 uptake (%)</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Closing balance syringes with needle 1ml</v>
+        <v>Vaccine 2 uptake (%)</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_VACCINE2_UPTAKE_%</v>
       </c>
       <c r="E46" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Proportion of people given doses of vaccine2</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Vaccine2 doses given</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>1</v>
+        <v>Total doses of all vaccines given</v>
       </c>
       <c r="H46" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I46" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J46" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4214,22 +4214,22 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>lGv5kC9pLPI</v>
+        <v>jayuvPfIQBz</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>COVAX - Discarded closed vials - Vaccine 1</v>
+        <v>COVAX - Received cold box</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>Discarded closed vials - Vaccine 1</v>
+        <v>Received cold box</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>CVX_DISCARDED__OPEN_VIALS_VACCINE1</v>
+        <v>CVX_RECEIVED_COLD_BOX</v>
       </c>
       <c r="E47" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F47" s="5" t="str">
-        <v>Discarded closed vials - Vaccine 1</v>
+        <v>Received cold boxes</v>
       </c>
       <c r="G47" s="5" t="str">
         <v>1</v>
@@ -4238,7 +4238,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I47" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J47" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4246,31 +4246,31 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>LgvcCkQIQ44</v>
+        <v>jFlfqS1M9Hj</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>COVAX - Opened vials wastage (%)</v>
+        <v>COVAX - Staff available at PoC</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Opened vials wastage (%)</v>
+        <v>Staff available at PoC</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>CVX_ OPENED_VIALS_WASTAGE_%</v>
+        <v>CVX_STAFF_AVAILABLE_AT_POC</v>
       </c>
       <c r="E48" s="4" t="str">
-        <v>(Discarded open vial doses/Doses discarded)*100</v>
+        <v>Staff available at PoC during the reporting period</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>Opened vial doses discarded</v>
+        <v>Staff available at PoC</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>Discarded doses</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I48" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J48" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4278,31 +4278,31 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>lXV4Lk0aah6</v>
+        <v>k9kIyVQEc0o</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>COVAX - Distributed vials</v>
+        <v>COVAX - Wastage rate (%)</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>Distributed vials</v>
+        <v>Wastage rate (%)</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>CVX_DISTRIBUTED_VIALS</v>
+        <v>CVX_ WASTAGE_RATE_%</v>
       </c>
       <c r="E49" s="5" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>(Discarded/Used)*100</v>
       </c>
       <c r="F49" s="5" t="str">
-        <v>Distributed vials</v>
+        <v>Discarded doses</v>
       </c>
       <c r="G49" s="5" t="str">
-        <v>1</v>
+        <v>Used doses=(Opening balance+Received)-(Redistributed+Stock on hand)</v>
       </c>
       <c r="H49" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I49" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J49" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4310,22 +4310,22 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>mQYStz4mXT5</v>
+        <v>Kkbt3LgbCbD</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>COVAX - Target people with existing medical conditions</v>
+        <v>COVAX - Doses per vial - Vaccine 3</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>Doses per vial - Vaccine 3</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>CVX_TARGET_PEOPLE_WITH_EXISTING_CONDITIONS</v>
+        <v>CVX_DOSES_IN_A_VIAL_VACCINE3</v>
       </c>
       <c r="E50" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>Number of doses in a vial - Vaccine3</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>Doses in a vial - Vaccine3</v>
       </c>
       <c r="G50" s="4" t="str">
         <v>1</v>
@@ -4334,7 +4334,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I50" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J50" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4342,22 +4342,22 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>MRUsCIsRdps</v>
+        <v>KLFHy7LdaEp</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>COVAX - Distributed - Vaccine 2 (doses)</v>
+        <v>COVAX - Received - Vaccine 2 (doses)</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>Distributed - Vaccine 2 (doses)</v>
+        <v>Received - Vaccine 2 (doses)</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>CVX_DISTRIBUTED_VACCINE2_DOSES</v>
+        <v>CVX_RECEIVED_VACCINE2_DOSES</v>
       </c>
       <c r="E51" s="5" t="str">
-        <v>Distributed to people receiving the vaccines</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F51" s="5" t="str">
-        <v>Distributed - Vaccine2 doses</v>
+        <v>Received - Vaccine2 doses</v>
       </c>
       <c r="G51" s="5" t="str">
         <v>1</v>
@@ -4366,7 +4366,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I51" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J51" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4374,16 +4374,16 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>N4iXbeP3T5O</v>
+        <v>kx79vq5XdQd</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>COVAX - Closing balance - Vaccine 2 (vials)</v>
+        <v>COVAX - Closing balance syringes with needle 1ml</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>Closing balance - Vaccine 2 (vials)</v>
+        <v>Closing balance syringes with needle 1ml</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE2_VIALS</v>
+        <v>CVX_CLOSING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E52" s="4" t="str">
         <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
@@ -4398,7 +4398,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I52" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J52" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4406,22 +4406,22 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>N4O2KBFP7Ze</v>
+        <v>lGv5kC9pLPI</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>COVAX - Received syringes with needle 1ml</v>
+        <v>COVAX - Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>Received syringes with needle 1ml</v>
+        <v>Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>CVX_RECEIVED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_DISCARDED__OPEN_VIALS_VACCINE1</v>
       </c>
       <c r="E53" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F53" s="5" t="str">
-        <v>Received syringes with needle 1ml</v>
+        <v>Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="G53" s="5" t="str">
         <v>1</v>
@@ -4430,7 +4430,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I53" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J53" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4438,31 +4438,31 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>n5u7G8DQYNJ</v>
+        <v>LgvcCkQIQ44</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>COVAX - AEFIs by vaccine and severity</v>
+        <v>COVAX - Opened vials wastage (%)</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>Opened vials wastage (%)</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>CVX_AEFIS_BY_VACCINE_AND_SEVERITY</v>
+        <v>CVX_ OPENED_VIALS_WASTAGE_%</v>
       </c>
       <c r="E54" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>(Discarded open vial doses/Doses discarded)*100</v>
       </c>
       <c r="F54" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>Opened vial doses discarded</v>
       </c>
       <c r="G54" s="4" t="str">
-        <v>1</v>
+        <v>Discarded doses</v>
       </c>
       <c r="H54" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I54" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J54" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4470,22 +4470,22 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>nO5aJYGv9qb</v>
+        <v>LlSh5OozlKX</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>COVAX - Received - Vaccine 3 (doses)</v>
+        <v>COVAX - Closing balance diluent</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>Received - Vaccine 3 (doses)</v>
+        <v>Closing balance diluent</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v>CVX_RECEIVED_VACCINE3_DOSES</v>
+        <v>CVX_CLOSING_BALANCE_DILUENT</v>
       </c>
       <c r="E55" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F55" s="5" t="str">
-        <v>Received - Vaccine3 doses</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G55" s="5" t="str">
         <v>1</v>
@@ -4494,30 +4494,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I55" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J55" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>NtkYtrGGzGV</v>
+        <v>lXV4Lk0aah6</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>COVAX - Essential workers given 1st dose</v>
+        <v>COVAX - Distributed vials</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>Distributed vials</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
+        <v>CVX_DISTRIBUTED_VIALS</v>
       </c>
       <c r="E56" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F56" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>Distributed vials</v>
       </c>
       <c r="G56" s="4" t="str">
         <v>1</v>
@@ -4526,7 +4526,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I56" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J56" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4534,22 +4534,22 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>o2sAk0ai7X9</v>
+        <v>M5EPDK0aiWj</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>COVAX - Stock at hand - Vaccine 1 (doses)</v>
+        <v>COVAX - Discarded vaccination diluent</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>Stock at hand - Vaccine 1 (doses)</v>
+        <v>Discarded diluent</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_VACCINE1_DOSES</v>
+        <v>CVX_DISCARDED_DILUENT</v>
       </c>
       <c r="E57" s="5" t="str">
-        <v>Stock on-hand at the center after a physical stock count</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F57" s="5" t="str">
-        <v>Stock on hand - Vaccine1 doses</v>
+        <v>Discarded diluent</v>
       </c>
       <c r="G57" s="5" t="str">
         <v>1</v>
@@ -4558,30 +4558,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I57" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J57" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>O9HPe4hooiB</v>
+        <v>mQYStz4mXT5</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>COVAX - Doses discarded by reasons</v>
+        <v>COVAX - Target people with existing medical conditions</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>Doses discarded by reasons</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>CVX_DOSES_DISCARDED_BY_REASONS</v>
+        <v>CVX_TARGET_PEOPLE_WITH_EXISTING_CONDITIONS</v>
       </c>
       <c r="E58" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="F58" s="4" t="str">
-        <v>Vials discarded by reasons</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="G58" s="4" t="str">
         <v>1</v>
@@ -4590,7 +4590,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I58" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J58" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4598,22 +4598,22 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>oB4qA3ZKs89</v>
+        <v>MRUsCIsRdps</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>COVAX - Target people given 1st dose</v>
+        <v>COVAX - Distributed - Vaccine 2 (doses)</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Distributed - Vaccine 2 (doses)</v>
       </c>
       <c r="D59" s="5" t="str">
-        <v>CVX_PEOPLE_1ST_DOSE</v>
+        <v>CVX_DISTRIBUTED_VACCINE2_DOSES</v>
       </c>
       <c r="E59" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Distributed to people receiving the vaccines</v>
       </c>
       <c r="F59" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Distributed - Vaccine2 doses</v>
       </c>
       <c r="G59" s="5" t="str">
         <v>1</v>
@@ -4622,7 +4622,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I59" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J59" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4630,31 +4630,31 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>OkkYt2JpIZ8</v>
+        <v>N4iXbeP3T5O</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>COVAX - Vaccine 3 uptake (%)</v>
+        <v>COVAX - Closing balance - Vaccine 2 (vials)</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>Vaccine 3 uptake (%)</v>
+        <v>Closing balance - Vaccine 2 (vials)</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>CVX_VACCINE3_UPTAKE_%</v>
+        <v>CVX_CLOSING_BALANCE_VACCINE2_VIALS</v>
       </c>
       <c r="E60" s="4" t="str">
-        <v>Proportion of people given doses of vaccine3</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F60" s="4" t="str">
-        <v>Vaccine3 doses given</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G60" s="4" t="str">
-        <v>Total doses of all vaccines given</v>
+        <v>1</v>
       </c>
       <c r="H60" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I60" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J60" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4662,22 +4662,22 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
-        <v>orUc26gd0BF</v>
+        <v>N4O2KBFP7Ze</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>COVAX - Closing balance - Vaccine 1 (vials)</v>
+        <v>COVAX - Received syringes with needle 1ml</v>
       </c>
       <c r="C61" s="5" t="str">
-        <v>Closing balance - Vaccine 1 (vials)</v>
+        <v>Received syringes with needle 1ml</v>
       </c>
       <c r="D61" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE1_VIALS</v>
+        <v>CVX_RECEIVED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E61" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F61" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Received syringes with needle 1ml</v>
       </c>
       <c r="G61" s="5" t="str">
         <v>1</v>
@@ -4686,7 +4686,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I61" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J61" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4694,22 +4694,22 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>OxPqWqw6hL6</v>
+        <v>n5u7G8DQYNJ</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given 1st dose</v>
+        <v>COVAX - AEFIs by vaccine and severity</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_1ST_DOSE</v>
+        <v>CVX_AEFIS_BY_VACCINE_AND_SEVERITY</v>
       </c>
       <c r="E62" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="F62" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="G62" s="4" t="str">
         <v>1</v>
@@ -4718,7 +4718,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I62" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J62" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4726,22 +4726,22 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>pqED8vVfjlf</v>
+        <v>nO5aJYGv9qb</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>COVAX - Essential workers given booster dose</v>
+        <v>COVAX - Received - Vaccine 3 (doses)</v>
       </c>
       <c r="C63" s="5" t="str">
-        <v>Essential workers given booster dose</v>
+        <v>Received - Vaccine 3 (doses)</v>
       </c>
       <c r="D63" s="5" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_BOOSTER_DOSE</v>
+        <v>CVX_RECEIVED_VACCINE3_DOSES</v>
       </c>
       <c r="E63" s="5" t="str">
-        <v>Essential workers given booster dose</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F63" s="5" t="str">
-        <v>Essential workers given booster dose</v>
+        <v>Received - Vaccine3 doses</v>
       </c>
       <c r="G63" s="5" t="str">
         <v>1</v>
@@ -4750,7 +4750,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I63" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J63" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4758,22 +4758,22 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>q2NHWRFKJIJ</v>
+        <v>NtkYtrGGzGV</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>COVAX - Redistributed syringes with needle 1ml</v>
+        <v>COVAX - Essential workers given 1st dose</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>Redistributed syringes with needle 1ml</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="D64" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
       </c>
       <c r="E64" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="F64" s="4" t="str">
-        <v>Redistributed syringes with needle 1ml</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="G64" s="4" t="str">
         <v>1</v>
@@ -4782,7 +4782,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I64" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J64" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4790,22 +4790,22 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v>Q5CvJIeZAeh</v>
+        <v>o2sAk0ai7X9</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>COVAX - Redistributed cold box</v>
+        <v>COVAX - Stock at hand - Vaccine 1 (doses)</v>
       </c>
       <c r="C65" s="5" t="str">
-        <v>Redistributed cold box</v>
+        <v>Stock at hand - Vaccine 1 (doses)</v>
       </c>
       <c r="D65" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_COLD_BOXES</v>
+        <v>CVX_STOCK_AT_HAND_VACCINE1_DOSES</v>
       </c>
       <c r="E65" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F65" s="5" t="str">
-        <v>Redistributed cold boxes</v>
+        <v>Stock at hand - Vaccine 1 doses</v>
       </c>
       <c r="G65" s="5" t="str">
         <v>1</v>
@@ -4814,7 +4814,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I65" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J65" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4822,22 +4822,22 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>q7a0Mh2fRC1</v>
+        <v>O9HPe4hooiB</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>COVAX - Target people with existing medical conditions given 1st dose</v>
+        <v>COVAX - Doses discarded by reasons</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>People with existing conditions given 1st dose</v>
+        <v>Doses discarded by reasons</v>
       </c>
       <c r="D66" s="4" t="str">
-        <v>CVX_PEOPLE_WITH_EXISTING_CONDITIONS_1ST_DOSE</v>
+        <v>CVX_DOSES_DISCARDED_BY_REASONS</v>
       </c>
       <c r="E66" s="4" t="str">
-        <v>People with existing medical conditions given 1st dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F66" s="4" t="str">
-        <v>Target people with existing medical conditions given 1st dose</v>
+        <v>Vials discarded by reasons</v>
       </c>
       <c r="G66" s="4" t="str">
         <v>1</v>
@@ -4846,7 +4846,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I66" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J66" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4854,31 +4854,31 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>QH43B8PD9V5</v>
+        <v>oB4qA3ZKs89</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>COVAX - Proportion of target essential workers given 1st dose</v>
+        <v>COVAX - Target people given 1st dose</v>
       </c>
       <c r="C67" s="5" t="str">
-        <v>Target essential workers who received 1st dose (%)</v>
+        <v>Target people given 1st dose</v>
       </c>
       <c r="D67" s="5" t="str">
-        <v>CVX_ESS_WORKERS_GIVEN_1ST_DOSE_%</v>
+        <v>CVX_PEOPLE_1ST_DOSE</v>
       </c>
       <c r="E67" s="5" t="str">
-        <v>Proportion of essential workers given 1st dose</v>
+        <v>Target people given 1st dose</v>
       </c>
       <c r="F67" s="5" t="str">
-        <v>Target essential workers who received 1st dose</v>
+        <v>Target people given 1st dose</v>
       </c>
       <c r="G67" s="5" t="str">
-        <v>Target essential workers</v>
+        <v>1</v>
       </c>
       <c r="H67" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I67" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J67" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4886,31 +4886,31 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>QkFx0Jr0EST</v>
+        <v>OkkYt2JpIZ8</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>COVAX - Discarded cold box</v>
+        <v>COVAX - Vaccine 3 uptake (%)</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>Discarded cold box</v>
+        <v>Vaccine 3 uptake (%)</v>
       </c>
       <c r="D68" s="4" t="str">
-        <v>CVX_DISCARDED_COLD_BOXES</v>
+        <v>CVX_VACCINE3_UPTAKE_%</v>
       </c>
       <c r="E68" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Proportion of people given doses of vaccine3</v>
       </c>
       <c r="F68" s="4" t="str">
-        <v>Discarded cold boxes</v>
+        <v>Vaccine3 doses given</v>
       </c>
       <c r="G68" s="4" t="str">
-        <v>1</v>
+        <v>Total doses of all vaccines given</v>
       </c>
       <c r="H68" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I68" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J68" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4918,22 +4918,22 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
-        <v>qM3QXxyUS64</v>
+        <v>orUc26gd0BF</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>COVAX - Redistributed safety box</v>
+        <v>COVAX - Closing balance - Vaccine 1 (vials)</v>
       </c>
       <c r="C69" s="5" t="str">
-        <v>Redistributed safety box</v>
+        <v>Closing balance - Vaccine 1 (vials)</v>
       </c>
       <c r="D69" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_SAFETY_BOXES</v>
+        <v>CVX_CLOSING_BALANCE_VACCINE1_VIALS</v>
       </c>
       <c r="E69" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F69" s="5" t="str">
-        <v>Redistributed safety boxes</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G69" s="5" t="str">
         <v>1</v>
@@ -4942,7 +4942,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I69" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J69" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4950,22 +4950,22 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>QZritWA9epc</v>
+        <v>OxPqWqw6hL6</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>COVAX - Redistributed - Vaccine2 doses</v>
+        <v>COVAX - Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>Redistributed - Vaccine2 doses</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="D70" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_VACCINE2_DOSES</v>
+        <v>CVX_FRONTLINE_HCW_1ST_DOSE</v>
       </c>
       <c r="E70" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="F70" s="4" t="str">
-        <v>Redistributed - Vaccine2 doses</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="G70" s="4" t="str">
         <v>1</v>
@@ -4974,7 +4974,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I70" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J70" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4982,22 +4982,22 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v>RkC5nQeFp1f</v>
+        <v>pqED8vVfjlf</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>COVAX - Doses per vial - Vaccine 2</v>
+        <v>COVAX - Essential workers given booster dose</v>
       </c>
       <c r="C71" s="5" t="str">
-        <v>Doses per vial - Vaccine 2</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="D71" s="5" t="str">
-        <v>CVX_DOSES_IN_A_VIAL_VACCINE2</v>
+        <v>CVX_ESSENTIAL_WORKERS_BOOSTER_DOSE</v>
       </c>
       <c r="E71" s="5" t="str">
-        <v>Number of doses in a vial - Vaccine2</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="F71" s="5" t="str">
-        <v>Doses in a vial - Vaccine2</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="G71" s="5" t="str">
         <v>1</v>
@@ -5006,7 +5006,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I71" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J71" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5014,31 +5014,31 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v>rms4sR9JeYV</v>
+        <v>q2NHWRFKJIJ</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>COVAX - Proportion of target people with underlying medical conditions given 1st dose</v>
+        <v>COVAX - Redistributed syringes with needle 1ml</v>
       </c>
       <c r="C72" s="4" t="str">
-        <v>People with existing conditions given 1st dose (%)</v>
+        <v>Redistributed syringes with needle 1ml</v>
       </c>
       <c r="D72" s="4" t="str">
-        <v>CVX_EXISTING_CONDS_GIVEN_1ST_DOSE_%</v>
+        <v>CVX_REDISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E72" s="4" t="str">
-        <v>Proportion of target people with existing medical conditions given 1st dose</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F72" s="4" t="str">
-        <v>Target people with existing conditions given 1st dose</v>
+        <v>Redistributed syringes with needle 1ml</v>
       </c>
       <c r="G72" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>1</v>
       </c>
       <c r="H72" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I72" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J72" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5046,22 +5046,22 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="str">
-        <v>RneeVTogdGr</v>
+        <v>Q5CvJIeZAeh</v>
       </c>
       <c r="B73" s="5" t="str">
-        <v>COVAX - Opening balance vaccination cards</v>
+        <v>COVAX - Redistributed cold box</v>
       </c>
       <c r="C73" s="5" t="str">
-        <v>Opening balance vaccination cards</v>
+        <v>Redistributed cold box</v>
       </c>
       <c r="D73" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_CARDS</v>
+        <v>CVX_REDISTRIBUTED_COLD_BOXES</v>
       </c>
       <c r="E73" s="5" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F73" s="5" t="str">
-        <v>Opening balance vaccination cards</v>
+        <v>Redistributed cold boxes</v>
       </c>
       <c r="G73" s="5" t="str">
         <v>1</v>
@@ -5070,7 +5070,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I73" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J73" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5078,31 +5078,31 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>SBiW9NeXZeE</v>
+        <v>q7a0Mh2fRC1</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>COVAX - Drop out rates among all people targeted</v>
+        <v>COVAX - Target people with existing medical conditions given 1st dose</v>
       </c>
       <c r="C74" s="4" t="str">
-        <v>Drop out rates among all (%)</v>
+        <v>People with existing conditions given 1st dose</v>
       </c>
       <c r="D74" s="4" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_ALL%</v>
+        <v>CVX_PEOPLE_WITH_EXISTING_CONDITIONS_1ST_DOSE</v>
       </c>
       <c r="E74" s="4" t="str">
-        <v>(1st dose - 2nd dose)/1st dose</v>
+        <v>People with existing medical conditions given 1st dose</v>
       </c>
       <c r="F74" s="4" t="str">
-        <v>Given 1st dose - Given second dose</v>
+        <v>Target people with existing medical conditions given 1st dose</v>
       </c>
       <c r="G74" s="4" t="str">
-        <v>Given 1st dose</v>
+        <v>1</v>
       </c>
       <c r="H74" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I74" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J74" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5110,31 +5110,31 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="str">
-        <v>sCEtYxBxsIc</v>
+        <v>QH43B8PD9V5</v>
       </c>
       <c r="B75" s="5" t="str">
-        <v>COVAX - Drop out rates among people with underlying medical conditions(%)</v>
+        <v>COVAX - Proportion of target essential workers given 1st dose</v>
       </c>
       <c r="C75" s="5" t="str">
-        <v>Drop out rates - people with underlying cond (%)</v>
+        <v>Target essential workers who received 1st dose (%)</v>
       </c>
       <c r="D75" s="5" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_UNDERLYING_CONDs_%</v>
+        <v>CVX_ESS_WORKERS_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E75" s="5" t="str">
-        <v>(1st dose - 2nd dose)/1st dose</v>
+        <v>Proportion of essential workers given 1st dose</v>
       </c>
       <c r="F75" s="5" t="str">
-        <v>Given 1st dose - Given second dose</v>
+        <v>Target essential workers who received 1st dose</v>
       </c>
       <c r="G75" s="5" t="str">
-        <v>Given 1st dose</v>
+        <v>Target essential workers</v>
       </c>
       <c r="H75" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I75" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J75" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5142,22 +5142,22 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>sDWeBvf4rrQ</v>
+        <v>QkFx0Jr0EST</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>COVAX - Received - Vaccine 1 (doses)</v>
+        <v>COVAX - Discarded cold box</v>
       </c>
       <c r="C76" s="4" t="str">
-        <v>Received - Vaccine 1 (doses)</v>
+        <v>Discarded cold box</v>
       </c>
       <c r="D76" s="4" t="str">
-        <v>CVX_RECEIVED_VACCINE1_DOSES</v>
+        <v>CVX_DISCARDED_COLD_BOXES</v>
       </c>
       <c r="E76" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F76" s="4" t="str">
-        <v>Received - Vaccine1 doses</v>
+        <v>Discarded cold boxes</v>
       </c>
       <c r="G76" s="4" t="str">
         <v>1</v>
@@ -5166,7 +5166,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I76" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J76" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5174,31 +5174,31 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="str">
-        <v>SvxFYXEwEwh</v>
+        <v>qM3QXxyUS64</v>
       </c>
       <c r="B77" s="5" t="str">
-        <v>COVAX - Vaccine stock reporting rates on time</v>
+        <v>COVAX - Redistributed safety box</v>
       </c>
       <c r="C77" s="5" t="str">
-        <v>Vaccine stock reporting rates on time (%)</v>
+        <v>Redistributed safety box</v>
       </c>
       <c r="D77" s="5" t="str">
-        <v>CVX_VAC_STOCK_REPORTING_RATE_ONTIME_%</v>
+        <v>CVX_REDISTRIBUTED_SAFETY_BOXES</v>
       </c>
       <c r="E77" s="5" t="str">
-        <v>Proportion of all vaccination centres that submitted their report on time</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F77" s="5" t="str">
-        <v>Actual reports received on time</v>
+        <v>Redistributed safety boxes</v>
       </c>
       <c r="G77" s="5" t="str">
-        <v>Actual reports received</v>
+        <v>1</v>
       </c>
       <c r="H77" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I77" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J77" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5206,22 +5206,22 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>t4hpTf9Jo4a</v>
+        <v>QZritWA9epc</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>COVAX - Discarded closed vials - Vaccine 3 (doses)</v>
+        <v>COVAX - Redistributed - Vaccine2 doses</v>
       </c>
       <c r="C78" s="4" t="str">
-        <v>Discarded closed vials - Vaccine 3 (doses)</v>
+        <v>Redistributed - Vaccine2 doses</v>
       </c>
       <c r="D78" s="4" t="str">
-        <v>CVX_DISCARDED_VACCINE3_DOSES</v>
+        <v>CVX_REDISTRIBUTED_VACCINE2_DOSES</v>
       </c>
       <c r="E78" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F78" s="4" t="str">
-        <v>Discarded - Vaccine3 doses</v>
+        <v>Redistributed - Vaccine2 doses</v>
       </c>
       <c r="G78" s="4" t="str">
         <v>1</v>
@@ -5230,7 +5230,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I78" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J78" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5238,22 +5238,22 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="str">
-        <v>tiFvalDGy3M</v>
+        <v>RkC5nQeFp1f</v>
       </c>
       <c r="B79" s="5" t="str">
-        <v>COVAX - Redistributed - Vaccine3 doses</v>
+        <v>COVAX - Doses per vial - Vaccine 2</v>
       </c>
       <c r="C79" s="5" t="str">
-        <v>Redistributed - Vaccine3 doses</v>
+        <v>Doses per vial - Vaccine 2</v>
       </c>
       <c r="D79" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_VACCINE3_DOSES</v>
+        <v>CVX_DOSES_IN_A_VIAL_VACCINE2</v>
       </c>
       <c r="E79" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Number of doses in a vial - Vaccine2</v>
       </c>
       <c r="F79" s="5" t="str">
-        <v>Redistributed - Vaccine3 doses</v>
+        <v>Doses in a vial - Vaccine2</v>
       </c>
       <c r="G79" s="5" t="str">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I79" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J79" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5270,31 +5270,31 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
-        <v>TiylZPMlukw</v>
+        <v>rms4sR9JeYV</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>COVAX - Received vials</v>
+        <v>COVAX - Proportion of target people with underlying medical conditions given 1st dose</v>
       </c>
       <c r="C80" s="4" t="str">
-        <v>Received vials</v>
+        <v>People with existing conditions given 1st dose (%)</v>
       </c>
       <c r="D80" s="4" t="str">
-        <v>CVX_RECEIVED_VIALS</v>
+        <v>CVX_EXISTING_CONDS_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E80" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>Proportion of target people with existing medical conditions given 1st dose</v>
       </c>
       <c r="F80" s="4" t="str">
-        <v>Received vials</v>
+        <v>Target people with existing conditions given 1st dose</v>
       </c>
       <c r="G80" s="4" t="str">
-        <v>1</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="H80" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I80" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J80" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5302,22 +5302,22 @@
     </row>
     <row r="81">
       <c r="A81" s="5" t="str">
-        <v>TJqiY5fLP8C</v>
+        <v>RneeVTogdGr</v>
       </c>
       <c r="B81" s="5" t="str">
-        <v>COVAX - Target population</v>
+        <v>COVAX - Opening balance vaccination cards</v>
       </c>
       <c r="C81" s="5" t="str">
-        <v>Target population</v>
+        <v>Opening balance vaccination cards</v>
       </c>
       <c r="D81" s="5" t="str">
-        <v>CVX_TARGET_POPULATION</v>
+        <v>CVX_OPENING_BALANCE_CARDS</v>
       </c>
       <c r="E81" s="5" t="str">
-        <v>Target population</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F81" s="5" t="str">
-        <v>Target population</v>
+        <v>Opening balance vaccination cards</v>
       </c>
       <c r="G81" s="5" t="str">
         <v>1</v>
@@ -5326,7 +5326,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I81" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J81" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5334,31 +5334,31 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>U7Xq3jiK8Fy</v>
+        <v>SBiW9NeXZeE</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>COVAX - Proportion of target people given 1st dose</v>
+        <v>COVAX - Drop out rates among all people targeted</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v>Target people given 1st dose (%)</v>
+        <v>Drop out rates among all (%)</v>
       </c>
       <c r="D82" s="4" t="str">
-        <v>CVX_PEOPLE_GIVEN_1ST_DOSE_%</v>
+        <v>CVX_DROPOUT_RATES_AMONG_ALL%</v>
       </c>
       <c r="E82" s="4" t="str">
-        <v>Proportion of target people given 1st dose</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F82" s="4" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G82" s="4" t="str">
-        <v>Target population</v>
+        <v>Given 1st dose</v>
       </c>
       <c r="H82" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I82" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J82" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5366,31 +5366,31 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="str">
-        <v>uhZxrsrhZuy</v>
+        <v>sCEtYxBxsIc</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>COVAX - Closing balance vials</v>
+        <v>COVAX - Drop out rates among people with underlying medical conditions(%)</v>
       </c>
       <c r="C83" s="5" t="str">
-        <v>Closing balance vials</v>
+        <v>Drop out rates - people with underlying cond (%)</v>
       </c>
       <c r="D83" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VIALS</v>
+        <v>CVX_DROPOUT_RATES_AMONG_UNDERLYING_CONDs_%</v>
       </c>
       <c r="E83" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F83" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G83" s="5" t="str">
-        <v>1</v>
+        <v>Given 1st dose</v>
       </c>
       <c r="H83" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I83" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J83" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5398,22 +5398,22 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
-        <v>ujhVVQlwTB0</v>
+        <v>sDWeBvf4rrQ</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>COVAX - Opening balance safety box</v>
+        <v>COVAX - Received - Vaccine 1 (doses)</v>
       </c>
       <c r="C84" s="4" t="str">
-        <v>Opening balance safety box</v>
+        <v>Received - Vaccine 1 (doses)</v>
       </c>
       <c r="D84" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_SAFETY_BOXES</v>
+        <v>CVX_RECEIVED_VACCINE1_DOSES</v>
       </c>
       <c r="E84" s="4" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F84" s="4" t="str">
-        <v>Opening balance safety box</v>
+        <v>Received - Vaccine1 doses</v>
       </c>
       <c r="G84" s="4" t="str">
         <v>1</v>
@@ -5422,7 +5422,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I84" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J84" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5430,22 +5430,22 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="str">
-        <v>UjzjMQpG41z</v>
+        <v>sQaCAFVXOgq</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>COVAX - Stock at hand cold box</v>
+        <v>COVAX - Stockout days dilution syringes</v>
       </c>
       <c r="C85" s="5" t="str">
-        <v>Stock at hand cold box</v>
+        <v>Stockout days dilution syringes</v>
       </c>
       <c r="D85" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_COLD_BOX</v>
+        <v>CVX_STOCKOUT_DAYS_DILUTION_SYRINGES</v>
       </c>
       <c r="E85" s="5" t="str">
-        <v>Stock on-hand at the center after a physical stock count</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F85" s="5" t="str">
-        <v>Stock on hand cold boxes</v>
+        <v>Stockout days dilution syringes</v>
       </c>
       <c r="G85" s="5" t="str">
         <v>1</v>
@@ -5454,39 +5454,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I85" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J85" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
-        <v>UsMLXbWhhEj</v>
+        <v>SvxFYXEwEwh</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>COVAX - Distributed cold box</v>
+        <v>COVAX - Vaccine stock reporting rates on time</v>
       </c>
       <c r="C86" s="4" t="str">
-        <v>Distributed cold box</v>
+        <v>Vaccine stock reporting rates on time (%)</v>
       </c>
       <c r="D86" s="4" t="str">
-        <v>CVX_DISTRIBUTED_COLD_BOXES</v>
+        <v>CVX_VAC_STOCK_REPORTING_RATE_ONTIME_%</v>
       </c>
       <c r="E86" s="4" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Proportion of all vaccination centres that submitted their report on time</v>
       </c>
       <c r="F86" s="4" t="str">
-        <v>Distributed cold boxes</v>
+        <v>Actual reports received on time</v>
       </c>
       <c r="G86" s="4" t="str">
-        <v>1</v>
+        <v>Actual reports received</v>
       </c>
       <c r="H86" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I86" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J86" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5494,22 +5494,22 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="str">
-        <v>V735nRG647O</v>
+        <v>t4hpTf9Jo4a</v>
       </c>
       <c r="B87" s="5" t="str">
-        <v>COVAX - Discarded syringes with needle 1ml</v>
+        <v>COVAX - Discarded closed vials - Vaccine 3 (doses)</v>
       </c>
       <c r="C87" s="5" t="str">
-        <v>Discarded syringes with needle 1ml</v>
+        <v>Discarded closed vials - Vaccine 3 (doses)</v>
       </c>
       <c r="D87" s="5" t="str">
-        <v>CVX_DISCARDED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_DISCARDED_VACCINE3_DOSES</v>
       </c>
       <c r="E87" s="5" t="str">
         <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F87" s="5" t="str">
-        <v>Discarded syringes with needle 1ml</v>
+        <v>Discarded - Vaccine3 doses</v>
       </c>
       <c r="G87" s="5" t="str">
         <v>1</v>
@@ -5518,7 +5518,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I87" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J87" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5526,22 +5526,22 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
-        <v>V8XFjC7JHtx</v>
+        <v>tiFvalDGy3M</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>COVAX - Distributed vaccination cards</v>
+        <v>COVAX - Redistributed - Vaccine3 doses</v>
       </c>
       <c r="C88" s="4" t="str">
-        <v>Distributed vaccination cards</v>
+        <v>Redistributed - Vaccine3 doses</v>
       </c>
       <c r="D88" s="4" t="str">
-        <v>CVX_DISTRIBUTED_CARDS</v>
+        <v>CVX_REDISTRIBUTED_VACCINE3_DOSES</v>
       </c>
       <c r="E88" s="4" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F88" s="4" t="str">
-        <v>Distributed vaccination cards</v>
+        <v>Redistributed - Vaccine3 doses</v>
       </c>
       <c r="G88" s="4" t="str">
         <v>1</v>
@@ -5550,7 +5550,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I88" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J88" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5558,22 +5558,22 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="str">
-        <v>vBBejr9Qm9y</v>
+        <v>TiylZPMlukw</v>
       </c>
       <c r="B89" s="5" t="str">
-        <v>COVAX - Closing balance - Vaccine 3 (vials)</v>
+        <v>COVAX - Received vials</v>
       </c>
       <c r="C89" s="5" t="str">
-        <v>Closing balance - Vaccine 3 (vials)</v>
+        <v>Received vials</v>
       </c>
       <c r="D89" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE3_VIALS</v>
+        <v>CVX_RECEIVED_VIALS</v>
       </c>
       <c r="E89" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F89" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Received vials</v>
       </c>
       <c r="G89" s="5" t="str">
         <v>1</v>
@@ -5582,7 +5582,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I89" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J89" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5590,22 +5590,22 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="str">
-        <v>vBJQTfzca4x</v>
+        <v>TJqiY5fLP8C</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given booster dose</v>
+        <v>COVAX - Target population</v>
       </c>
       <c r="C90" s="4" t="str">
-        <v>Frontline healthcare workers given booster dose</v>
+        <v>Target population</v>
       </c>
       <c r="D90" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_BOOSTER_DOSE</v>
+        <v>CVX_TARGET_POPULATION</v>
       </c>
       <c r="E90" s="4" t="str">
-        <v>Frontline healthcare workers given booster dose</v>
+        <v>Target population</v>
       </c>
       <c r="F90" s="4" t="str">
-        <v>Frontline healthcare workers given booster dose</v>
+        <v>Target population</v>
       </c>
       <c r="G90" s="4" t="str">
         <v>1</v>
@@ -5614,7 +5614,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I90" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J90" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5622,22 +5622,22 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="str">
-        <v>VFdnTyYvS5c</v>
+        <v>TS3T65BQ5mQ</v>
       </c>
       <c r="B91" s="5" t="str">
-        <v>COVAX - Stock at hand vials</v>
+        <v>COVAX - Closing balance dilution syringes</v>
       </c>
       <c r="C91" s="5" t="str">
-        <v>Stock at hand vials</v>
+        <v>Closing balance dilution syringes</v>
       </c>
       <c r="D91" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_VIALS</v>
+        <v>CVX_CLOSING_BALANCE_DILUTION SYRINGES</v>
       </c>
       <c r="E91" s="5" t="str">
-        <v>Stock on-hand at the center after a physical stock count</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F91" s="5" t="str">
-        <v>Stock on hand vials</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G91" s="5" t="str">
         <v>1</v>
@@ -5646,39 +5646,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I91" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J91" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="str">
-        <v>vn6JSZdN0Gq</v>
+        <v>U7Xq3jiK8Fy</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>COVAX - Stockout days cold box</v>
+        <v>COVAX - Proportion of target people given 1st dose</v>
       </c>
       <c r="C92" s="4" t="str">
-        <v>Stockout days cold box</v>
+        <v>Target people given 1st dose (%)</v>
       </c>
       <c r="D92" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_COLD_BOX</v>
+        <v>CVX_PEOPLE_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E92" s="4" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Proportion of target people given 1st dose</v>
       </c>
       <c r="F92" s="4" t="str">
-        <v>Stockout days cold boxes</v>
+        <v>Target people given 1st dose</v>
       </c>
       <c r="G92" s="4" t="str">
-        <v>1</v>
+        <v>Target population</v>
       </c>
       <c r="H92" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I92" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J92" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5686,22 +5686,22 @@
     </row>
     <row r="93">
       <c r="A93" s="5" t="str">
-        <v>w42k9kZegoW</v>
+        <v>uhZxrsrhZuy</v>
       </c>
       <c r="B93" s="5" t="str">
-        <v>COVAX - Distributed safety box</v>
+        <v>COVAX - Closing balance vials</v>
       </c>
       <c r="C93" s="5" t="str">
-        <v>Distributed safety box</v>
+        <v>Closing balance vials</v>
       </c>
       <c r="D93" s="5" t="str">
-        <v>CVX_DISTRIBUTED_SAFETY_BOXES</v>
+        <v>CVX_CLOSING_BALANCE_VIALS</v>
       </c>
       <c r="E93" s="5" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F93" s="5" t="str">
-        <v>Distributed safety boxes</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G93" s="5" t="str">
         <v>1</v>
@@ -5710,7 +5710,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I93" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J93" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5718,22 +5718,22 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="str">
-        <v>wassnxEhpwM</v>
+        <v>ujhVVQlwTB0</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>COVAX - Target essential workers</v>
+        <v>COVAX - Opening balance safety box</v>
       </c>
       <c r="C94" s="4" t="str">
-        <v>Target essential workers</v>
+        <v>Opening balance safety box</v>
       </c>
       <c r="D94" s="4" t="str">
-        <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
+        <v>CVX_OPENING_BALANCE_SAFETY_BOXES</v>
       </c>
       <c r="E94" s="4" t="str">
-        <v>Target essential workers</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F94" s="4" t="str">
-        <v>Target essential workers</v>
+        <v>Opening balance safety box</v>
       </c>
       <c r="G94" s="4" t="str">
         <v>1</v>
@@ -5742,7 +5742,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I94" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J94" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5750,22 +5750,22 @@
     </row>
     <row r="95">
       <c r="A95" s="5" t="str">
-        <v>wcMsZNh0GO0</v>
+        <v>UjzjMQpG41z</v>
       </c>
       <c r="B95" s="5" t="str">
-        <v>COVAX - Received safety box</v>
+        <v>COVAX - Stock at hand cold box</v>
       </c>
       <c r="C95" s="5" t="str">
-        <v>Received safety box</v>
+        <v>Stock at hand cold box</v>
       </c>
       <c r="D95" s="5" t="str">
-        <v>CVX_RECEIVED_SAFETY_BOX</v>
+        <v>CVX_STOCK_AT_HAND_COLD_BOX</v>
       </c>
       <c r="E95" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F95" s="5" t="str">
-        <v>Received safety boxes</v>
+        <v>Stock at hand cold boxes</v>
       </c>
       <c r="G95" s="5" t="str">
         <v>1</v>
@@ -5774,7 +5774,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I95" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J95" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5782,22 +5782,22 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="str">
-        <v>WMjFkieChKj</v>
+        <v>USByeCb5DTV</v>
       </c>
       <c r="B96" s="4" t="str">
-        <v>COVAX - Stockout days - Vaccine 2 (vials)</v>
+        <v>COVAX - Stockout days diluent</v>
       </c>
       <c r="C96" s="4" t="str">
-        <v>Stockout days - Vaccine 2 (vials)</v>
+        <v>Stockout days diluent</v>
       </c>
       <c r="D96" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE2_VIALS</v>
+        <v>CVX_STOCKOUT_DAYS_DILUENT</v>
       </c>
       <c r="E96" s="4" t="str">
-        <v>Days the centre was stocked out of the item</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F96" s="4" t="str">
-        <v>Stockout days - Vaccine2</v>
+        <v>Stockout days diluent</v>
       </c>
       <c r="G96" s="4" t="str">
         <v>1</v>
@@ -5806,30 +5806,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I96" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J96" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="str">
-        <v>wpfKN5vD3QG</v>
+        <v>UsMLXbWhhEj</v>
       </c>
       <c r="B97" s="5" t="str">
-        <v>COVAX - Used vials</v>
+        <v>COVAX - Distributed cold box</v>
       </c>
       <c r="C97" s="5" t="str">
-        <v>Used vials</v>
+        <v>Distributed cold box</v>
       </c>
       <c r="D97" s="5" t="str">
-        <v>CVX_USED_VIALS</v>
+        <v>CVX_DISTRIBUTED_COLD_BOXES</v>
       </c>
       <c r="E97" s="5" t="str">
-        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F97" s="5" t="str">
-        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>Distributed cold boxes</v>
       </c>
       <c r="G97" s="5" t="str">
         <v>1</v>
@@ -5838,7 +5838,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I97" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J97" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5846,22 +5846,22 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="str">
-        <v>X2XYc8WNUY3</v>
+        <v>V735nRG647O</v>
       </c>
       <c r="B98" s="4" t="str">
-        <v>COVAX - Distributed - Vaccine 1 (doses)</v>
+        <v>COVAX - Discarded syringes with needle 1ml</v>
       </c>
       <c r="C98" s="4" t="str">
-        <v>Distributed - Vaccine 1 (doses)</v>
+        <v>Discarded syringes with needle 1ml</v>
       </c>
       <c r="D98" s="4" t="str">
-        <v>CVX_DISTRIBUTED_VACCINE1_DOSES</v>
+        <v>CVX_DISCARDED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E98" s="4" t="str">
-        <v>Distributed to people receiving the vaccines</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F98" s="4" t="str">
-        <v>Distributed - Vaccine1 doses</v>
+        <v>Discarded syringes with needle 1ml</v>
       </c>
       <c r="G98" s="4" t="str">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I98" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J98" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5878,22 +5878,22 @@
     </row>
     <row r="99">
       <c r="A99" s="5" t="str">
-        <v>XP9ag4eDNlu</v>
+        <v>V8XFjC7JHtx</v>
       </c>
       <c r="B99" s="5" t="str">
-        <v>COVAX - Discarded closed vials - Vaccine 3</v>
+        <v>COVAX - Distributed vaccination cards</v>
       </c>
       <c r="C99" s="5" t="str">
-        <v>Discarded closed vials - Vaccine 3</v>
+        <v>Distributed vaccination cards</v>
       </c>
       <c r="D99" s="5" t="str">
-        <v>CVX_DISCARDED__OPEN_VIALS_VACCINE3</v>
+        <v>CVX_DISTRIBUTED_CARDS</v>
       </c>
       <c r="E99" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F99" s="5" t="str">
-        <v>Discarded closed vials - Vaccine 3</v>
+        <v>Distributed vaccination cards</v>
       </c>
       <c r="G99" s="5" t="str">
         <v>1</v>
@@ -5902,30 +5902,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I99" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J99" s="5" t="str">
-        <v/>
+        <v>SKgp2iI0dJp</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="str">
-        <v>XxmA3VOxZdM</v>
+        <v>vBBejr9Qm9y</v>
       </c>
       <c r="B100" s="4" t="str">
-        <v>COVAX - Distributed - Vaccine 3 (doses)</v>
+        <v>COVAX - Closing balance - Vaccine 3 (vials)</v>
       </c>
       <c r="C100" s="4" t="str">
-        <v>Distributed - Vaccine 3 (doses)</v>
+        <v>Closing balance - Vaccine 3 (vials)</v>
       </c>
       <c r="D100" s="4" t="str">
-        <v>CVX_DISTRIBUTED_VACCINE3_DOSES</v>
+        <v>CVX_CLOSING_BALANCE_VACCINE3_VIALS</v>
       </c>
       <c r="E100" s="4" t="str">
-        <v>Distributed to people receiving the vaccines</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F100" s="4" t="str">
-        <v>Distributed - Vaccine3 doses</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G100" s="4" t="str">
         <v>1</v>
@@ -5934,7 +5934,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I100" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J100" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5942,31 +5942,31 @@
     </row>
     <row r="101">
       <c r="A101" s="5" t="str">
-        <v>y7uIwU6x8VS</v>
+        <v>vBJQTfzca4x</v>
       </c>
       <c r="B101" s="5" t="str">
-        <v>COVAX - Vaccine 1 uptake (%)</v>
+        <v>COVAX - Frontline healthcare workers given booster dose</v>
       </c>
       <c r="C101" s="5" t="str">
-        <v>Vaccine 1 uptake (%)</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="D101" s="5" t="str">
-        <v>CVX_VACCINE1_UPTAKE_%</v>
+        <v>CVX_FRONTLINE_HCW_BOOSTER_DOSE</v>
       </c>
       <c r="E101" s="5" t="str">
-        <v>Proportion of people given doses of vaccine1</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="F101" s="5" t="str">
-        <v>Vaccine1 doses given</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="G101" s="5" t="str">
-        <v>Total doses of all vaccines given</v>
+        <v>1</v>
       </c>
       <c r="H101" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I101" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J101" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5974,22 +5974,22 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="str">
-        <v>yB3Vf9Quskj</v>
+        <v>VFdnTyYvS5c</v>
       </c>
       <c r="B102" s="4" t="str">
-        <v>COVAX - Discarded vaccination cards</v>
+        <v>COVAX - Stock at hand vials</v>
       </c>
       <c r="C102" s="4" t="str">
-        <v>Discarded vaccination cards</v>
+        <v>Stock at hand vials</v>
       </c>
       <c r="D102" s="4" t="str">
-        <v>CVX_DISCARDED_CARDS</v>
+        <v>CVX_STOCK_AT_HAND_VIALS</v>
       </c>
       <c r="E102" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F102" s="4" t="str">
-        <v>Discarded vaccination cards</v>
+        <v>Stock at hand vials</v>
       </c>
       <c r="G102" s="4" t="str">
         <v>1</v>
@@ -5998,7 +5998,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I102" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J102" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6006,31 +6006,31 @@
     </row>
     <row r="103">
       <c r="A103" s="5" t="str">
-        <v>Yb759ffWrrD</v>
+        <v>vn6JSZdN0Gq</v>
       </c>
       <c r="B103" s="5" t="str">
-        <v>COVAX - Vaccine usage rate (%)</v>
+        <v>COVAX - Stockout days cold box</v>
       </c>
       <c r="C103" s="5" t="str">
-        <v>Vaccine usage rate (%)</v>
+        <v>Stockout days cold box</v>
       </c>
       <c r="D103" s="5" t="str">
-        <v>CVX_ VACCINE_USAGE_RATE_%</v>
+        <v>CVX_STOCKOUT_DAYS_COLD_BOX</v>
       </c>
       <c r="E103" s="5" t="str">
-        <v>(Distributed/Used)*100</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F103" s="5" t="str">
-        <v>Distributed vials</v>
+        <v>Stockout days cold boxes</v>
       </c>
       <c r="G103" s="5" t="str">
-        <v>Used vials</v>
+        <v>1</v>
       </c>
       <c r="H103" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I103" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J103" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6038,22 +6038,22 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="str">
-        <v>YBLUIQSCFPJ</v>
+        <v>w42k9kZegoW</v>
       </c>
       <c r="B104" s="4" t="str">
-        <v>COVAX - Closing balance - Vaccine 3 (doses)</v>
+        <v>COVAX - Distributed safety box</v>
       </c>
       <c r="C104" s="4" t="str">
-        <v>Closing balance - Vaccine 3 (doses)</v>
+        <v>Distributed safety box</v>
       </c>
       <c r="D104" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE3_DOSES</v>
+        <v>CVX_DISTRIBUTED_SAFETY_BOXES</v>
       </c>
       <c r="E104" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F104" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Distributed safety boxes</v>
       </c>
       <c r="G104" s="4" t="str">
         <v>1</v>
@@ -6062,7 +6062,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I104" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J104" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6070,22 +6070,22 @@
     </row>
     <row r="105">
       <c r="A105" s="5" t="str">
-        <v>yJ9izFBk1bB</v>
+        <v>wassnxEhpwM</v>
       </c>
       <c r="B105" s="5" t="str">
-        <v>COVAX - Closing balance safety boxes</v>
+        <v>COVAX - Target essential workers</v>
       </c>
       <c r="C105" s="5" t="str">
-        <v>Closing balance safety boxes</v>
+        <v>Target essential workers</v>
       </c>
       <c r="D105" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_SAFETY_BOXES</v>
+        <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
       </c>
       <c r="E105" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Target essential workers</v>
       </c>
       <c r="F105" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Target essential workers</v>
       </c>
       <c r="G105" s="5" t="str">
         <v>1</v>
@@ -6094,7 +6094,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I105" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J105" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6102,22 +6102,22 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="str">
-        <v>ymno3YCIqbh</v>
+        <v>wcMsZNh0GO0</v>
       </c>
       <c r="B106" s="4" t="str">
-        <v>COVAX - Redistributed vaccination cards</v>
+        <v>COVAX - Received safety box</v>
       </c>
       <c r="C106" s="4" t="str">
-        <v>Redistributed vaccination cards</v>
+        <v>Received safety box</v>
       </c>
       <c r="D106" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_CARDS</v>
+        <v>CVX_RECEIVED_SAFETY_BOX</v>
       </c>
       <c r="E106" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F106" s="4" t="str">
-        <v>Redistributed vaccination cards</v>
+        <v>Received safety boxes</v>
       </c>
       <c r="G106" s="4" t="str">
         <v>1</v>
@@ -6126,7 +6126,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I106" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J106" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6134,22 +6134,22 @@
     </row>
     <row r="107">
       <c r="A107" s="5" t="str">
-        <v>yuEFomZq3Fh</v>
+        <v>WMjFkieChKj</v>
       </c>
       <c r="B107" s="5" t="str">
-        <v>COVAX - Closing balance cold boxes</v>
+        <v>COVAX - Stockout days - Vaccine 2 (vials)</v>
       </c>
       <c r="C107" s="5" t="str">
-        <v>Closing balance cold boxes</v>
+        <v>Stockout days - Vaccine 2 (vials)</v>
       </c>
       <c r="D107" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_COLD_BOXES</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE2_VIALS</v>
       </c>
       <c r="E107" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Days the centre was stocked out of the item</v>
       </c>
       <c r="F107" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Stockout days - Vaccine2</v>
       </c>
       <c r="G107" s="5" t="str">
         <v>1</v>
@@ -6158,7 +6158,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I107" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J107" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6166,22 +6166,22 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="str">
-        <v>z0zjaGkserE</v>
+        <v>wpfKN5vD3QG</v>
       </c>
       <c r="B108" s="4" t="str">
-        <v>COVAX - Discarded safety box</v>
+        <v>COVAX - Used vials</v>
       </c>
       <c r="C108" s="4" t="str">
-        <v>Discarded safety box</v>
+        <v>Used vials</v>
       </c>
       <c r="D108" s="4" t="str">
-        <v>CVX_DISCARDED_SAFETY_BOXES</v>
+        <v>CVX_USED_VIALS</v>
       </c>
       <c r="E108" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
       </c>
       <c r="F108" s="4" t="str">
-        <v>Discarded safety boxes</v>
+        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
       </c>
       <c r="G108" s="4" t="str">
         <v>1</v>
@@ -6190,7 +6190,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I108" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J108" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6198,22 +6198,22 @@
     </row>
     <row r="109">
       <c r="A109" s="5" t="str">
-        <v>zcN15JQUWc7</v>
+        <v>X2XYc8WNUY3</v>
       </c>
       <c r="B109" s="5" t="str">
-        <v>COVAX - Stock at hand - Vaccine 2 (doses)</v>
+        <v>COVAX - Distributed - Vaccine 1 (doses)</v>
       </c>
       <c r="C109" s="5" t="str">
-        <v>Stock at hand - Vaccine 2 (doses)</v>
+        <v>Distributed - Vaccine 1 (doses)</v>
       </c>
       <c r="D109" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_VACCINE2_DOSES</v>
+        <v>CVX_DISTRIBUTED_VACCINE1_DOSES</v>
       </c>
       <c r="E109" s="5" t="str">
-        <v>Stock on-hand at the center after a physical stock count</v>
+        <v>Distributed to people receiving the vaccines</v>
       </c>
       <c r="F109" s="5" t="str">
-        <v>Stock on hand - Vaccine2 doses</v>
+        <v>Distributed - Vaccine1 doses</v>
       </c>
       <c r="G109" s="5" t="str">
         <v>1</v>
@@ -6222,7 +6222,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I109" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J109" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6230,22 +6230,22 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="str">
-        <v>zdTKcWr73Sk</v>
+        <v>x4tQ5wV60mg</v>
       </c>
       <c r="B110" s="4" t="str">
-        <v>COVAX - Stock at hand syringes with needle 1ml</v>
+        <v>COVAX - Redistributed diluent</v>
       </c>
       <c r="C110" s="4" t="str">
-        <v>Stock at hand syringes with needle 1ml</v>
+        <v>Redistributed diluent</v>
       </c>
       <c r="D110" s="4" t="str">
-        <v>CVX_STOCK_AT_HAND_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_REDISTRIBUTED_DILUENT</v>
       </c>
       <c r="E110" s="4" t="str">
-        <v>Stock on-hand at the center after a physical stock count</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F110" s="4" t="str">
-        <v>Stock on hand syringes with needle 1ml</v>
+        <v>Redistributed diluent</v>
       </c>
       <c r="G110" s="4" t="str">
         <v>1</v>
@@ -6254,30 +6254,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I110" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J110" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="5" t="str">
-        <v>ZEXvmTSnv8c</v>
+        <v>XAu9nDyYWiQ</v>
       </c>
       <c r="B111" s="5" t="str">
-        <v>COVAX - Closing balance - Vaccine 2 (doses)</v>
+        <v>COVAX - Stock at hand diluent</v>
       </c>
       <c r="C111" s="5" t="str">
-        <v>Closing balance - Vaccine 2 (doses)</v>
+        <v>Stock at hand diluent</v>
       </c>
       <c r="D111" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE2_DOSES</v>
+        <v>CVX_STOCK_AT_HAND_DILUENT</v>
       </c>
       <c r="E111" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F111" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Stock at hand diluent</v>
       </c>
       <c r="G111" s="5" t="str">
         <v>1</v>
@@ -6286,30 +6286,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I111" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J111" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="str">
-        <v>zqTS3RiSL3o</v>
+        <v>XP9ag4eDNlu</v>
       </c>
       <c r="B112" s="4" t="str">
-        <v>COVAX - Doses per vial - Vaccine 1</v>
+        <v>COVAX - Discarded closed vials - Vaccine 3</v>
       </c>
       <c r="C112" s="4" t="str">
-        <v>Doses per vial - Vaccine 1</v>
+        <v>Discarded closed vials - Vaccine 3</v>
       </c>
       <c r="D112" s="4" t="str">
-        <v>CVX_DOSES_IN_A_VIAL_VACCINE1</v>
+        <v>CVX_DISCARDED__OPEN_VIALS_VACCINE3</v>
       </c>
       <c r="E112" s="4" t="str">
-        <v>Number of doses in a vial - Vaccine1</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F112" s="4" t="str">
-        <v>Doses in a vial - Vaccine1</v>
+        <v>Discarded closed vials - Vaccine 3</v>
       </c>
       <c r="G112" s="4" t="str">
         <v>1</v>
@@ -6318,30 +6318,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I112" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J112" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="str">
-        <v>zTMJ8UYjlCU</v>
+        <v>XxmA3VOxZdM</v>
       </c>
       <c r="B113" s="5" t="str">
-        <v>COVAX - Opening balance vials</v>
+        <v>COVAX - Distributed - Vaccine 3 (doses)</v>
       </c>
       <c r="C113" s="5" t="str">
-        <v>Opening balance vials</v>
+        <v>Distributed - Vaccine 3 (doses)</v>
       </c>
       <c r="D113" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_VIALS</v>
+        <v>CVX_DISTRIBUTED_VACCINE3_DOSES</v>
       </c>
       <c r="E113" s="5" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Distributed to people receiving the vaccines</v>
       </c>
       <c r="F113" s="5" t="str">
-        <v>Opening balance vials</v>
+        <v>Distributed - Vaccine3 doses</v>
       </c>
       <c r="G113" s="5" t="str">
         <v>1</v>
@@ -6350,9 +6350,457 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I113" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J113" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="str">
+        <v>y7uIwU6x8VS</v>
+      </c>
+      <c r="B114" s="4" t="str">
+        <v>COVAX - Vaccine 1 uptake (%)</v>
+      </c>
+      <c r="C114" s="4" t="str">
+        <v>Vaccine 1 uptake (%)</v>
+      </c>
+      <c r="D114" s="4" t="str">
+        <v>CVX_VACCINE1_UPTAKE_%</v>
+      </c>
+      <c r="E114" s="4" t="str">
+        <v>Proportion of people given doses of vaccine1</v>
+      </c>
+      <c r="F114" s="4" t="str">
+        <v>Vaccine1 doses given</v>
+      </c>
+      <c r="G114" s="4" t="str">
+        <v>Total doses of all vaccines given</v>
+      </c>
+      <c r="H114" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I114" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J114" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="str">
+        <v>yB3Vf9Quskj</v>
+      </c>
+      <c r="B115" s="5" t="str">
+        <v>COVAX - Discarded vaccination cards</v>
+      </c>
+      <c r="C115" s="5" t="str">
+        <v>Discarded vaccination cards</v>
+      </c>
+      <c r="D115" s="5" t="str">
+        <v>CVX_DISCARDED_CARDS</v>
+      </c>
+      <c r="E115" s="5" t="str">
+        <v>Discarded due to expiry, damage, contamination and etc</v>
+      </c>
+      <c r="F115" s="5" t="str">
+        <v>Discarded vaccination cards</v>
+      </c>
+      <c r="G115" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H115" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I115" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J115" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="str">
+        <v>Yb759ffWrrD</v>
+      </c>
+      <c r="B116" s="4" t="str">
+        <v>COVAX - Vaccine usage rate (%)</v>
+      </c>
+      <c r="C116" s="4" t="str">
+        <v>Vaccine usage rate (%)</v>
+      </c>
+      <c r="D116" s="4" t="str">
+        <v>CVX_ VACCINE_USAGE_RATE_%</v>
+      </c>
+      <c r="E116" s="4" t="str">
+        <v>(Distributed/Used)*100</v>
+      </c>
+      <c r="F116" s="4" t="str">
+        <v>Distributed vials</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <v>Used vials</v>
+      </c>
+      <c r="H116" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I116" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J116" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="str">
+        <v>YBLUIQSCFPJ</v>
+      </c>
+      <c r="B117" s="5" t="str">
+        <v>COVAX - Closing balance - Vaccine 3 (doses)</v>
+      </c>
+      <c r="C117" s="5" t="str">
+        <v>Closing balance - Vaccine 3 (doses)</v>
+      </c>
+      <c r="D117" s="5" t="str">
+        <v>CVX_CLOSING_BALANCE_VACCINE3_DOSES</v>
+      </c>
+      <c r="E117" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F117" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G117" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H117" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I117" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J117" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="str">
+        <v>yJ9izFBk1bB</v>
+      </c>
+      <c r="B118" s="4" t="str">
+        <v>COVAX - Closing balance safety boxes</v>
+      </c>
+      <c r="C118" s="4" t="str">
+        <v>Closing balance safety boxes</v>
+      </c>
+      <c r="D118" s="4" t="str">
+        <v>CVX_CLOSING_BALANCE_SAFETY_BOXES</v>
+      </c>
+      <c r="E118" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F118" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H118" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I118" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J118" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="str">
+        <v>ymno3YCIqbh</v>
+      </c>
+      <c r="B119" s="5" t="str">
+        <v>COVAX - Redistributed vaccination cards</v>
+      </c>
+      <c r="C119" s="5" t="str">
+        <v>Redistributed vaccination cards</v>
+      </c>
+      <c r="D119" s="5" t="str">
+        <v>CVX_REDISTRIBUTED_CARDS</v>
+      </c>
+      <c r="E119" s="5" t="str">
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+      </c>
+      <c r="F119" s="5" t="str">
+        <v>Redistributed vaccination cards</v>
+      </c>
+      <c r="G119" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H119" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I119" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J119" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="str">
+        <v>yuEFomZq3Fh</v>
+      </c>
+      <c r="B120" s="4" t="str">
+        <v>COVAX - Closing balance cold boxes</v>
+      </c>
+      <c r="C120" s="4" t="str">
+        <v>Closing balance cold boxes</v>
+      </c>
+      <c r="D120" s="4" t="str">
+        <v>CVX_CLOSING_BALANCE_COLD_BOXES</v>
+      </c>
+      <c r="E120" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F120" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H120" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I120" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J120" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="str">
+        <v>z0zjaGkserE</v>
+      </c>
+      <c r="B121" s="5" t="str">
+        <v>COVAX - Discarded safety box</v>
+      </c>
+      <c r="C121" s="5" t="str">
+        <v>Discarded safety box</v>
+      </c>
+      <c r="D121" s="5" t="str">
+        <v>CVX_DISCARDED_SAFETY_BOXES</v>
+      </c>
+      <c r="E121" s="5" t="str">
+        <v>Discarded due to expiry, damage, contamination and etc</v>
+      </c>
+      <c r="F121" s="5" t="str">
+        <v>Discarded safety boxes</v>
+      </c>
+      <c r="G121" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H121" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I121" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J121" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="str">
+        <v>z5Dp2kLtxAt</v>
+      </c>
+      <c r="B122" s="4" t="str">
+        <v>COVAX - Distributed dilution syringes</v>
+      </c>
+      <c r="C122" s="4" t="str">
+        <v>Distributed dilution syringes</v>
+      </c>
+      <c r="D122" s="4" t="str">
+        <v>CVX_DISTRIBUTED_DILUTION_SYRINGES</v>
+      </c>
+      <c r="E122" s="4" t="str">
+        <v>Distributed to people receiving the items</v>
+      </c>
+      <c r="F122" s="4" t="str">
+        <v>Distributed dilution syringes</v>
+      </c>
+      <c r="G122" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H122" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I122" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J122" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="str">
+        <v>zcN15JQUWc7</v>
+      </c>
+      <c r="B123" s="5" t="str">
+        <v>COVAX - Stock at hand - Vaccine 2 (doses)</v>
+      </c>
+      <c r="C123" s="5" t="str">
+        <v>Stock at hand - Vaccine 2 (doses)</v>
+      </c>
+      <c r="D123" s="5" t="str">
+        <v>CVX_STOCK_AT_HAND_VACCINE2_DOSES</v>
+      </c>
+      <c r="E123" s="5" t="str">
+        <v>Stock at hand at the center after a physical stock count</v>
+      </c>
+      <c r="F123" s="5" t="str">
+        <v>Stock at hand - Vaccine 2 doses</v>
+      </c>
+      <c r="G123" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H123" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I123" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J123" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="str">
+        <v>zdTKcWr73Sk</v>
+      </c>
+      <c r="B124" s="4" t="str">
+        <v>COVAX - Stock at hand syringes with needle 1ml</v>
+      </c>
+      <c r="C124" s="4" t="str">
+        <v>Stock at hand syringes with needle 1ml</v>
+      </c>
+      <c r="D124" s="4" t="str">
+        <v>CVX_STOCK_AT_HAND_SYRINGES_WITH_ NEEDLE_1ML</v>
+      </c>
+      <c r="E124" s="4" t="str">
+        <v>Stock at hand at the center after a physical stock count</v>
+      </c>
+      <c r="F124" s="4" t="str">
+        <v>Stock at hand syringes with needle 1ml</v>
+      </c>
+      <c r="G124" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H124" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I124" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J124" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="str">
+        <v>ZEXvmTSnv8c</v>
+      </c>
+      <c r="B125" s="5" t="str">
+        <v>COVAX - Closing balance - Vaccine 2 (doses)</v>
+      </c>
+      <c r="C125" s="5" t="str">
+        <v>Closing balance - Vaccine 2 (doses)</v>
+      </c>
+      <c r="D125" s="5" t="str">
+        <v>CVX_CLOSING_BALANCE_VACCINE2_DOSES</v>
+      </c>
+      <c r="E125" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F125" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G125" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H125" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I125" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J125" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="str">
+        <v>zqTS3RiSL3o</v>
+      </c>
+      <c r="B126" s="4" t="str">
+        <v>COVAX - Doses per vial - Vaccine 1</v>
+      </c>
+      <c r="C126" s="4" t="str">
+        <v>Doses per vial - Vaccine 1</v>
+      </c>
+      <c r="D126" s="4" t="str">
+        <v>CVX_DOSES_IN_A_VIAL_VACCINE1</v>
+      </c>
+      <c r="E126" s="4" t="str">
+        <v>Number of doses in a vial - Vaccine1</v>
+      </c>
+      <c r="F126" s="4" t="str">
+        <v>Doses in a vial - Vaccine1</v>
+      </c>
+      <c r="G126" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H126" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I126" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J126" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="str">
+        <v>zTMJ8UYjlCU</v>
+      </c>
+      <c r="B127" s="5" t="str">
+        <v>COVAX - Opening balance vials</v>
+      </c>
+      <c r="C127" s="5" t="str">
+        <v>Opening balance vials</v>
+      </c>
+      <c r="D127" s="5" t="str">
+        <v>CVX_OPENING_BALANCE_VIALS</v>
+      </c>
+      <c r="E127" s="5" t="str">
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+      </c>
+      <c r="F127" s="5" t="str">
+        <v>Opening balance vials</v>
+      </c>
+      <c r="G127" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H127" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I127" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J127" s="5" t="str">
         <v>SKgp2iI0dJp</v>
       </c>
     </row>
@@ -6402,7 +6850,7 @@
         <v>Yes</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-31</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>JYPhXEzBU2r</v>
@@ -6419,7 +6867,7 @@
         <v>Yes</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-02-02</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>Le8SvNemLGm</v>
@@ -6436,7 +6884,7 @@
         <v>Yes</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>QRyardfjc76</v>
@@ -6481,7 +6929,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>hmSnCXmLYwt</v>
@@ -6495,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>kHy61PbChXr</v>
@@ -6533,7 +6981,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -6977,7 +7425,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>CwgW21jWHz1</v>
@@ -6991,7 +7439,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>iBwXpDzZJ4M</v>
@@ -7005,7 +7453,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>IC3e1YTilA3</v>
@@ -7019,7 +7467,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>L2geQCvt3m9</v>
@@ -7033,7 +7481,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>laDW4fMp78v</v>
@@ -7047,7 +7495,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D7" s="5" t="str">
         <v>MeqsIPI7jsf</v>
@@ -7061,7 +7509,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-02-01</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>NBIo8UnkJsU</v>
@@ -7075,7 +7523,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>oP1h3CJEzP2</v>
@@ -7089,7 +7537,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>sGJvgqCpGHn</v>
@@ -7103,7 +7551,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D11" s="5" t="str">
         <v>T60YVx3ISwD</v>
@@ -7117,7 +7565,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D12" s="4" t="str">
         <v>UEnas3PpETN</v>
@@ -7131,7 +7579,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D13" s="5" t="str">
         <v>vKavKhPWSRc</v>
@@ -7176,7 +7624,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-27</v>
+        <v>2021-02-01</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>q24wzRQtygl</v>
@@ -7190,7 +7638,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>UAxSsG1vtda</v>
@@ -7235,7 +7683,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>IAmP71D6zQV</v>
@@ -7249,7 +7697,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>Sg5FrsMduxN</v>
@@ -7578,7 +8026,7 @@
         <v>COVAX admin</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>e2QMDWpq88P</v>
@@ -7589,7 +8037,7 @@
         <v>COVAX capture</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>I9x6Bd4MwXc</v>
@@ -7600,7 +8048,7 @@
         <v>COVAX access</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>OeiDCnG3Pv2</v>
@@ -7683,7 +8131,7 @@
         <v>Doses administered by vaccine, sex and age</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>feQJxQGDpdt</v>
@@ -7697,7 +8145,7 @@
         <v>Doses administered by priority groups</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>TUqe8zCkU6V</v>
@@ -7711,7 +8159,7 @@
         <v>Doses discarded/Wasted by Reasons</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>foPKPuLnZOx</v>
@@ -7725,7 +8173,7 @@
         <v>AEFI by vaccine and severity</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>x2ajojpQQcw</v>
@@ -7739,7 +8187,7 @@
         <v xml:space="preserve">Staff workload </v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>vOnpw5UL45a</v>
@@ -7753,7 +8201,7 @@
         <v>Doses per vaccine vial</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D7" s="5" t="str">
         <v>iCOpPb0vQZV</v>
@@ -7767,7 +8215,7 @@
         <v>Vaccine stock status and usage - vials</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>kIScH2ovI2E</v>
@@ -7781,7 +8229,7 @@
         <v>Vaccine stock status and usage - doses</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>UMczq8tbksI</v>
@@ -7795,7 +8243,7 @@
         <v>Stock list of other items</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-01-27</v>
+        <v>2021-02-02</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>Zutn3uE4YnV</v>
@@ -7809,7 +8257,7 @@
         <v>Total target population</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D11" s="5" t="str">
         <v>G0kKjl2enx4</v>
@@ -7823,7 +8271,7 @@
         <v>Targeted priority groups</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D12" s="4" t="str">
         <v>xHWpKcRkeZU</v>
@@ -7835,7 +8283,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -8232,7 +8680,7 @@
         <v>kIScH2ovI2E</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>COVAX - Stock on hand vials</v>
+        <v>COVAX - Stock at hand vials</v>
       </c>
       <c r="E23" s="5" t="str">
         <v>Nluny8KPumM</v>
@@ -8402,7 +8850,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>COVAX - Stock on hand cold box</v>
+        <v>COVAX - Stock at hand cold box</v>
       </c>
       <c r="E33" s="5" t="str">
         <v>K1ykBWJNf5C</v>
@@ -8521,7 +8969,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>COVAX - Stock on hand vaccination cards</v>
+        <v>COVAX - Stock at hand vaccination cards</v>
       </c>
       <c r="E40" s="4" t="str">
         <v>KWInDqcM0sc</v>
@@ -8640,7 +9088,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>COVAX - Stock on hand syringes with needle 1ml</v>
+        <v>COVAX - Stock at hand syringes with needle 1ml</v>
       </c>
       <c r="E47" s="5" t="str">
         <v>jhutPejtr9l</v>
@@ -8759,7 +9207,7 @@
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>COVAX - Stock on hand safety box</v>
+        <v>COVAX - Stock at hand safety box</v>
       </c>
       <c r="E54" s="4" t="str">
         <v>kJnQ1vmDeDe</v>
@@ -8784,69 +9232,307 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>Targeted priority groups</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>Total target population</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>G0kKjl2enx4</v>
+        <v>Zutn3uE4YnV</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>COVAX - Target population</v>
+        <v>COVAX - Stockout days diluent</v>
       </c>
       <c r="E56" s="4" t="str">
-        <v>BHgqoiEc7mS</v>
+        <v>zJ5mQhI5EFq</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>Targeted priority groups</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>Targeted priority groups</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>xHWpKcRkeZU</v>
+        <v>Zutn3uE4YnV</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v>COVAX - Target frontline healthcare workers</v>
+        <v>COVAX - Stockout days dilution syringes</v>
       </c>
       <c r="E57" s="5" t="str">
-        <v>YC0JuESssig</v>
+        <v>oX9rIsHPZzg</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>Targeted priority groups</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>Targeted priority groups</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>xHWpKcRkeZU</v>
+        <v>Zutn3uE4YnV</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>COVAX - Target essential workers</v>
+        <v>COVAX - Discarded diluent</v>
       </c>
       <c r="E58" s="4" t="str">
-        <v>vkXAQQDE48p</v>
+        <v>r2f8mAQGNs6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D59" s="5" t="str">
+        <v>COVAX - Discarded dilution syringes</v>
+      </c>
+      <c r="E59" s="5" t="str">
+        <v>v62AZPz5mRY</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <v>COVAX - Distributed diluent</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <v>OuzdpuJZr1y</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C61" s="5" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D61" s="5" t="str">
+        <v>COVAX - Distributed dilution syringes</v>
+      </c>
+      <c r="E61" s="5" t="str">
+        <v>jCEnqxbClud</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <v>COVAX - Opening balance diluent</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <v>YC4xkksGZbG</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D63" s="5" t="str">
+        <v>COVAX - Opening balance dilution syringes</v>
+      </c>
+      <c r="E63" s="5" t="str">
+        <v>pnZzzVEwo3v</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <v>COVAX - Received diluent</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <v>IqKFWe7X45Z</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C65" s="5" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D65" s="5" t="str">
+        <v>COVAX - Received dilution syringes</v>
+      </c>
+      <c r="E65" s="5" t="str">
+        <v>z9jyGHT6pmR</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <v>COVAX - Redistributed diluent</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <v>SD2IQjkn7SG</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D67" s="5" t="str">
+        <v>COVAX - Redistributed dilution syringes</v>
+      </c>
+      <c r="E67" s="5" t="str">
+        <v>qX0ySuNM0QR</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <v>COVAX - Stock at hand diluent</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <v>vK53cFjDnqY</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D69" s="5" t="str">
+        <v>COVAX - Stock at hand dilution syringes</v>
+      </c>
+      <c r="E69" s="5" t="str">
+        <v>GhZBoy3prck</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="str">
         <v>Targeted priority groups</v>
       </c>
-      <c r="B59" s="5" t="str">
+      <c r="B70" s="4" t="str">
+        <v>Total target population</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <v>G0kKjl2enx4</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <v>COVAX - Target population</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <v>BHgqoiEc7mS</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="str">
         <v>Targeted priority groups</v>
       </c>
-      <c r="C59" s="5" t="str">
+      <c r="B71" s="5" t="str">
+        <v>Targeted priority groups</v>
+      </c>
+      <c r="C71" s="5" t="str">
         <v>xHWpKcRkeZU</v>
       </c>
-      <c r="D59" s="5" t="str">
+      <c r="D71" s="5" t="str">
+        <v>COVAX - Target frontline healthcare workers</v>
+      </c>
+      <c r="E71" s="5" t="str">
+        <v>YC0JuESssig</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="str">
+        <v>Targeted priority groups</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>Targeted priority groups</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <v>xHWpKcRkeZU</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <v>COVAX - Target essential workers</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <v>vkXAQQDE48p</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="str">
+        <v>Targeted priority groups</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <v>Targeted priority groups</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <v>xHWpKcRkeZU</v>
+      </c>
+      <c r="D73" s="5" t="str">
         <v>COVAX - Target people with at least one underlying medical condition</v>
       </c>
-      <c r="E59" s="5" t="str">
+      <c r="E73" s="5" t="str">
         <v>v2qvl9d2eqz</v>
       </c>
     </row>
@@ -8889,7 +9575,7 @@
         <v>Doses in a vial - Vaccine1</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>fyC1NhjpBH5</v>
@@ -8903,7 +9589,7 @@
         <v>Doses in a vial - Vaccine2</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>GhXdnHkmph9</v>
@@ -8917,7 +9603,7 @@
         <v>Doses in a vial - Vaccine3</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>zp3l4iQWPLh</v>
@@ -8929,7 +9615,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -8983,7 +9669,7 @@
         <v>Vial condition/Wastage reasons</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>aGlvT5OwKRZ</v>
@@ -9006,7 +9692,7 @@
         <v>default</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>AxmVroGCQZO</v>
@@ -9029,7 +9715,7 @@
         <v>default</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>BaqWaD6pnbY</v>
@@ -9052,7 +9738,7 @@
         <v>default</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G5" s="5" t="str">
         <v>BeHrxrKVlAB</v>
@@ -9075,7 +9761,7 @@
         <v>Age(&lt;60-60+years)/Sex</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G6" s="4" t="str">
         <v>BHgqoiEc7mS</v>
@@ -9098,7 +9784,7 @@
         <v>default</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G7" s="5" t="str">
         <v>c1NTgV45W8M</v>
@@ -9121,7 +9807,7 @@
         <v>COVID19 Vaccine</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>CoCPy5cKxx8</v>
@@ -9144,7 +9830,7 @@
         <v>COVID19 Vaccine</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G9" s="5" t="str">
         <v>DcW8k9WFCoN</v>
@@ -9167,7 +9853,7 @@
         <v>default</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G10" s="4" t="str">
         <v>e1YlvfQPdTe</v>
@@ -9190,7 +9876,7 @@
         <v>COVID19 Vaccine</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G11" s="5" t="str">
         <v>ep7EfKNsX3s</v>
@@ -9213,7 +9899,7 @@
         <v>default</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G12" s="4" t="str">
         <v>eTsKBlD7fsX</v>
@@ -9236,7 +9922,7 @@
         <v>default</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G13" s="5" t="str">
         <v>FCtGm0HJryo</v>
@@ -9259,7 +9945,7 @@
         <v>default</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G14" s="4" t="str">
         <v>FHvsTsdaer9</v>
@@ -9282,7 +9968,7 @@
         <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G15" s="5" t="str">
         <v>fJzBX7mW5A9</v>
@@ -9305,7 +9991,7 @@
         <v>default</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G16" s="4" t="str">
         <v>fkvWMbUYYvR</v>
@@ -9328,7 +10014,7 @@
         <v>default</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G17" s="5" t="str">
         <v>gHjdt8paeZt</v>
@@ -9336,82 +10022,82 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>COVAX - 2nd dose given</v>
+        <v>COVAX - Stock at hand dilution syringes</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>2nd dose</v>
+        <v>Stock at hand dilution syringes</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>CVX_PEOPLE_2ND_DOSE</v>
+        <v>CVX_STOCK_AT_HAND_DILUTION_SYRINGES</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>People receiving the second dose of COVID-19 vaccine</v>
+        <v/>
       </c>
       <c r="E18" s="4" t="str">
-        <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
+        <v>default</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>gOf1dLB3r8G</v>
+        <v>GhZBoy3prck</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>COVAX - AEFIs by vaccine and severity</v>
+        <v>COVAX - 2nd dose given</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>2nd dose</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>CVX_AEFIS_BY_VACCINE_AND_SEVERITY</v>
+        <v>CVX_PEOPLE_2ND_DOSE</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>Serious AEFIs reported</v>
+        <v>People receiving the second dose of COVID-19 vaccine</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>COVID19 Vaccine/AEFI Severity</v>
+        <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G19" s="5" t="str">
-        <v>Gw8sB5U5JG3</v>
+        <v>gOf1dLB3r8G</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>COVAX - Opening balance syringes with needle 1ml</v>
+        <v>COVAX - AEFIs by vaccine and severity</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Opening balance syringes with needle 1ml</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_AEFIS_BY_VACCINE_AND_SEVERITY</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v/>
+        <v>Serious AEFIs reported</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>default</v>
+        <v>COVID19 Vaccine/AEFI Severity</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>heMYpVBrakv</v>
+        <v>Gw8sB5U5JG3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAX - Discarded safety box</v>
+        <v>COVAX - Opening balance syringes with needle 1ml</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Discarded safety box</v>
+        <v>Opening balance syringes with needle 1ml</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>CVX_DISCARDED_SAFETY_BOX</v>
+        <v>CVX_OPENING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="D21" s="5" t="str">
         <v/>
@@ -9420,67 +10106,67 @@
         <v>default</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G21" s="5" t="str">
-        <v>HlicGU8jEZL</v>
+        <v>heMYpVBrakv</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>COVAX - Booster dose given to people with at least one underlying medical conditions</v>
+        <v>COVAX - Discarded safety box</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Booster - People with underlying conditions</v>
+        <v>Discarded safety box</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>CVX_PEOPLE_WITH_UNDERLYING_CONDITIONS_BOOSTER_DOSE</v>
+        <v>CVX_DISCARDED_SAFETY_BOX</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>People with underlying medical conditions vaccinated with the booster dose</v>
+        <v/>
       </c>
       <c r="E22" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>HYYuIK1V5n8</v>
+        <v>HlicGU8jEZL</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>COVAX - Received syringes with needle 1ml</v>
+        <v>COVAX - Booster dose given to people with at least one underlying medical conditions</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Received syringes with needle 1ml</v>
+        <v>Booster - People with underlying conditions</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>CVX_RECEIVED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_PEOPLE_WITH_UNDERLYING_CONDITIONS_BOOSTER_DOSE</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v/>
+        <v>People with underlying medical conditions vaccinated with the booster dose</v>
       </c>
       <c r="E23" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>i5pakKBw4VC</v>
+        <v>HYYuIK1V5n8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>COVAX - Redistributed safety box</v>
+        <v>COVAX - Received syringes with needle 1ml</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Redistributed safety box</v>
+        <v>Received syringes with needle 1ml</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_SAFETY_BOX</v>
+        <v>CVX_RECEIVED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="D24" s="4" t="str">
         <v/>
@@ -9489,21 +10175,21 @@
         <v>default</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>IA1dFNpYlvJ</v>
+        <v>i5pakKBw4VC</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>COVAX - Stock on hand syringes with needle 1ml</v>
+        <v>COVAX - Redistributed safety box</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Stock on hand syringes with needle 1ml</v>
+        <v>Redistributed safety box</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_REDISTRIBUTED_SAFETY_BOX</v>
       </c>
       <c r="D25" s="5" t="str">
         <v/>
@@ -9512,44 +10198,44 @@
         <v>default</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G25" s="5" t="str">
-        <v>jhutPejtr9l</v>
+        <v>IA1dFNpYlvJ</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>COVAX - Discarded (closed vials)</v>
+        <v>COVAX - Received diluent</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Discarded (closed vials)</v>
+        <v>Received diluent</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>CVX_DISCARDED_CLOSED_VIALS</v>
+        <v>CVX_RECEIVED_DILUENT</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>Number of closed vials that have been discarded</v>
+        <v/>
       </c>
       <c r="E26" s="4" t="str">
-        <v>COVID19 Vaccine</v>
+        <v>default</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>jpHKXTmXBog</v>
+        <v>IqKFWe7X45Z</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>COVAX - Stock on hand cold box</v>
+        <v>COVAX - Distributed dilution syringes</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Stock on hand cold box</v>
+        <v>Distributed dilution syringes</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_COLD_BOX</v>
+        <v>CVX_DISTRIBUTED_DILUTION SYRINGES</v>
       </c>
       <c r="D27" s="5" t="str">
         <v/>
@@ -9558,67 +10244,67 @@
         <v>default</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>K1ykBWJNf5C</v>
+        <v>jCEnqxbClud</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>COVAX - Booster dose given to essential workers</v>
+        <v>COVAX - Stock at hand syringes with needle 1ml</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Booster - Essential workers</v>
+        <v>Stock at hand syringes with needle 1ml</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_BOOSTER_DOSE</v>
+        <v>CVX_STOCK_AT_HAND_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>Essential workers who received a booster</v>
+        <v/>
       </c>
       <c r="E28" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>KhFJj4Qz57c</v>
+        <v>jhutPejtr9l</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>COVAX - 1st dose given</v>
+        <v>COVAX - Discarded (closed vials)</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>1st dose</v>
+        <v>Discarded (closed vials)</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>CVX_PEOPLE_1ST_DOSE</v>
+        <v>CVX_DISCARDED_CLOSED_VIALS</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>People receiving the first dose of COVID-19 vaccine</v>
+        <v>Number of closed vials that have been discarded</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
+        <v>COVID19 Vaccine</v>
       </c>
       <c r="F29" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G29" s="5" t="str">
-        <v>kif9K3XRSBh</v>
+        <v>jpHKXTmXBog</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>COVAX - Stock on hand safety box</v>
+        <v>COVAX - Stock at hand cold box</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Stock on hand safety box</v>
+        <v>Stock at hand cold box</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>CVX_STOCK_ON_HAND_SAFETY_BOX</v>
+        <v>CVX_STOCK_AT_HAND_COLD_BOX</v>
       </c>
       <c r="D30" s="4" t="str">
         <v/>
@@ -9627,113 +10313,113 @@
         <v>default</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>kJnQ1vmDeDe</v>
+        <v>K1ykBWJNf5C</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>COVAX - Stock on hand vaccination cards</v>
+        <v>COVAX - Booster dose given to essential workers</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Stock on hand vaccination cards</v>
+        <v>Booster - Essential workers</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_CARDS</v>
+        <v>CVX_ESSENTIAL_WORKERS_BOOSTER_DOSE</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v/>
+        <v>Essential workers who received a booster</v>
       </c>
       <c r="E31" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G31" s="5" t="str">
-        <v>KWInDqcM0sc</v>
+        <v>KhFJj4Qz57c</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>COVAX - Distributed safety box</v>
+        <v>COVAX - 1st dose given</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Distributed safety box</v>
+        <v>1st dose</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>CVX_DISTRIBUTED_SAFETY_BOX</v>
+        <v>CVX_PEOPLE_1ST_DOSE</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v/>
+        <v>People receiving the first dose of COVID-19 vaccine</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>default</v>
+        <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G32" s="4" t="str">
-        <v>l2tQDaRuqEG</v>
+        <v>kif9K3XRSBh</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>COVAX - 2nd dose given to people with at least one underlying medical conditions</v>
+        <v>COVAX - Stock at hand safety box</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>2nd dose - People with underlying conditions</v>
+        <v>Stock at hand safety box</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>CVX_PEOPLE_WITH_UNDERLYING_CONDITIONS_2ND_DOSE</v>
+        <v>CVX_STOCK_AT_HAND_SAFETY_BOX</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>People with underlying medical conditions vaccinated with the second dose</v>
+        <v/>
       </c>
       <c r="E33" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G33" s="5" t="str">
-        <v>leiFl8fMdd3</v>
+        <v>kJnQ1vmDeDe</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>COVAX - 2nd dose given to HCWs</v>
+        <v>COVAX - Stock at hand vaccination cards</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>2nd dose - HCWs</v>
+        <v>Stock at hand vaccination cards</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_2ND_DOSE</v>
+        <v>CVX_STOCK_AT_HAND_CARDS</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>Health Care Workers who received the second dose</v>
+        <v/>
       </c>
       <c r="E34" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F34" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>Ly6PaH1qIV3</v>
+        <v>KWInDqcM0sc</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>COVAX - Opening balance safety box</v>
+        <v>COVAX - Distributed safety box</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>Opening balance safety box</v>
+        <v>Distributed safety box</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_SAFETY_BOX</v>
+        <v>CVX_DISTRIBUTED_SAFETY_BOX</v>
       </c>
       <c r="D35" s="5" t="str">
         <v/>
@@ -9742,67 +10428,67 @@
         <v>default</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G35" s="5" t="str">
-        <v>maGZEvjJYsL</v>
+        <v>l2tQDaRuqEG</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>COVAX - Received cold box</v>
+        <v>COVAX - 2nd dose given to people with at least one underlying medical conditions</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>Received cold box</v>
+        <v>2nd dose - People with underlying conditions</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>CVX_RECEIVED_COLD_BOX</v>
+        <v>CVX_PEOPLE_WITH_UNDERLYING_CONDITIONS_2ND_DOSE</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v/>
+        <v>People with underlying medical conditions vaccinated with the second dose</v>
       </c>
       <c r="E36" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>MhtJeFU1s3g</v>
+        <v>leiFl8fMdd3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>COVAX - Stockout days vaccination cards</v>
+        <v>COVAX - 2nd dose given to HCWs</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>Stockout days vaccination cards</v>
+        <v>2nd dose - HCWs</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_CARDS</v>
+        <v>CVX_FRONTLINE_HCW_2ND_DOSE</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v/>
+        <v>Health Care Workers who received the second dose</v>
       </c>
       <c r="E37" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>mQd64lsZ2Gj</v>
+        <v>Ly6PaH1qIV3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>COVAX - Stockout days syringes with needle 1ml</v>
+        <v>COVAX - Opening balance safety box</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Stockout days syringes with needle 1ml</v>
+        <v>Opening balance safety box</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_OPENING_BALANCE_SAFETY_BOX</v>
       </c>
       <c r="D38" s="4" t="str">
         <v/>
@@ -9811,44 +10497,44 @@
         <v>default</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>MVmWnSreLrA</v>
+        <v>maGZEvjJYsL</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>COVAX - Stock on hand vials</v>
+        <v>COVAX - Received cold box</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Stock on hand vials</v>
+        <v>Received cold box</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_VIALS</v>
+        <v>CVX_RECEIVED_COLD_BOX</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>Total COVID-19 vaccine doses transferred to another facility</v>
+        <v/>
       </c>
       <c r="E39" s="5" t="str">
-        <v>COVID19 Vaccine</v>
+        <v>default</v>
       </c>
       <c r="F39" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>Nluny8KPumM</v>
+        <v>MhtJeFU1s3g</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>COVAX - Stockout days safety box</v>
+        <v>COVAX - Stockout days vaccination cards</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Stockout days safety box</v>
+        <v>Stockout days vaccination cards</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_SAFETY_BOX</v>
+        <v>CVX_STOCKOUT_DAYS_CARDS</v>
       </c>
       <c r="D40" s="4" t="str">
         <v/>
@@ -9857,67 +10543,67 @@
         <v>default</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>NzVsILZ4qeb</v>
+        <v>mQd64lsZ2Gj</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>COVAX - Discarded (open vials)</v>
+        <v>COVAX - Stockout days syringes with needle 1ml</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>Discarded (open vials)</v>
+        <v>Stockout days syringes with needle 1ml</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>CVX_DISCARDED_OPEN_VIALS</v>
+        <v>CVX_STOCKOUT_DAYS_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>Number of open vials that have been discarded</v>
+        <v/>
       </c>
       <c r="E41" s="5" t="str">
-        <v>COVID19 Vaccine</v>
+        <v>default</v>
       </c>
       <c r="F41" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G41" s="5" t="str">
-        <v>oozfHBgiPvP</v>
+        <v>MVmWnSreLrA</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>COVAX - Redistributed vaccination cards</v>
+        <v>COVAX - Stock at hand vials</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Redistributed vaccination cards</v>
+        <v>Stock at hand vials</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_CARDS</v>
+        <v>CVX_STOCK_AT_HAND_VIALS</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v/>
+        <v>Total COVID-19 vaccine doses transferred to another facility</v>
       </c>
       <c r="E42" s="4" t="str">
-        <v>default</v>
+        <v>COVID19 Vaccine</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G42" s="4" t="str">
-        <v>p9sHAm0M0WF</v>
+        <v>Nluny8KPumM</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>COVAX - Distributed syringes with needle 1ml</v>
+        <v>COVAX - Stockout days safety box</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>Distributed syringes with needle 1ml</v>
+        <v>Stockout days safety box</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>CVX_DISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_STOCKOUT_DAYS_SAFETY_BOX</v>
       </c>
       <c r="D43" s="5" t="str">
         <v/>
@@ -9926,44 +10612,44 @@
         <v>default</v>
       </c>
       <c r="F43" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G43" s="5" t="str">
-        <v>QFfvrOOhmqw</v>
+        <v>NzVsILZ4qeb</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>COVAX - Redistributed cold box</v>
+        <v>COVAX - Discarded (open vials)</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Redistributed cold box</v>
+        <v>Discarded (open vials)</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_COLD_BOX</v>
+        <v>CVX_DISCARDED_OPEN_VIALS</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v/>
+        <v>Number of open vials that have been discarded</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v>default</v>
+        <v>COVID19 Vaccine</v>
       </c>
       <c r="F44" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>sM3XJvqqU5k</v>
+        <v>oozfHBgiPvP</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>COVAX - Stockout days vaccine 3</v>
+        <v>COVAX - Distributed diluent</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Stockout days vaccine 3</v>
+        <v>Distributed diluent</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE3</v>
+        <v>CVX_DISTRIBUTED_DILUENT</v>
       </c>
       <c r="D45" s="5" t="str">
         <v/>
@@ -9972,21 +10658,21 @@
         <v>default</v>
       </c>
       <c r="F45" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G45" s="5" t="str">
-        <v>sNAklHVNhYj</v>
+        <v>OuzdpuJZr1y</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>COVAX - Stockout days cold box</v>
+        <v>COVAX - Stockout days dilution syringes</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Stockout days cold box</v>
+        <v>Stockout days dilution syringes</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_COLD_BOX</v>
+        <v>CVX_STOCKOUT_DAYS_DILUTION_SYRINGES</v>
       </c>
       <c r="D46" s="4" t="str">
         <v/>
@@ -9995,21 +10681,21 @@
         <v>default</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>Sq1bNvKm7eE</v>
+        <v>oX9rIsHPZzg</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>COVAX - Stockout days vaccine 2</v>
+        <v>COVAX - Redistributed vaccination cards</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>Stockout days vaccine 2</v>
+        <v>Redistributed vaccination cards</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE2</v>
+        <v>CVX_REDISTRIBUTED_CARDS</v>
       </c>
       <c r="D47" s="5" t="str">
         <v/>
@@ -10018,44 +10704,44 @@
         <v>default</v>
       </c>
       <c r="F47" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G47" s="5" t="str">
-        <v>suWcEhb54Mz</v>
+        <v>p9sHAm0M0WF</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>COVAX - Booster dose given to HCWs</v>
+        <v>COVAX - Opening balance dilution syringes</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Booster - HCWs</v>
+        <v>Opening balance dilution syringes</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_BOOSTER_DOSE</v>
+        <v>CVX_OPENING_BALANCE_DILUTION SYRINGES</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>Health Care Workers who received a booster</v>
+        <v/>
       </c>
       <c r="E48" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>u70rr83wIzM</v>
+        <v>pnZzzVEwo3v</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>COVAX - Opening balance vaccination cards</v>
+        <v>COVAX - Distributed syringes with needle 1ml</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>Opening balance vaccination cards</v>
+        <v>Distributed syringes with needle 1ml</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_CARDS</v>
+        <v>CVX_DISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="D49" s="5" t="str">
         <v/>
@@ -10064,44 +10750,44 @@
         <v>default</v>
       </c>
       <c r="F49" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G49" s="5" t="str">
-        <v>UE9gtRQP6RN</v>
+        <v>QFfvrOOhmqw</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>COVAX - Target people with at least one underlying medical condition</v>
+        <v>COVAX - Redistributed dilution syringes</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Target people with underlying medical conditions</v>
+        <v>Redistributed dilution syringes</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>CVX_TARGET_PEOPLE_WITH_EXISTING_MEDICAL_CONDITIONS</v>
+        <v>CVX_REDISTRIBUTED_DILUTION_SYRINGES</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>Estimated people with at least one underlying medical condition within the target area</v>
+        <v/>
       </c>
       <c r="E50" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G50" s="4" t="str">
-        <v>v2qvl9d2eqz</v>
+        <v>qX0ySuNM0QR</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>COVAX - Stockout days vaccine 1</v>
+        <v>COVAX - Discarded diluent</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Stockout days vaccine 1</v>
+        <v>Discarded diluent</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE1</v>
+        <v>CVX_DISCARDED_DILUENT</v>
       </c>
       <c r="D51" s="5" t="str">
         <v/>
@@ -10110,44 +10796,44 @@
         <v>default</v>
       </c>
       <c r="F51" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G51" s="5" t="str">
-        <v>VISxgxU3QF1</v>
+        <v>r2f8mAQGNs6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>COVAX - Target essential workers</v>
+        <v>COVAX - Redistributed diluent</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Target essential workers</v>
+        <v>Redistributed diluent</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
+        <v>CVX_REDISTRIBUTED_DILUENT</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>Estimated essential workers within the target area</v>
+        <v/>
       </c>
       <c r="E52" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F52" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G52" s="4" t="str">
-        <v>vkXAQQDE48p</v>
+        <v>SD2IQjkn7SG</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>COVAX - Distributed vaccination cards</v>
+        <v>COVAX - Redistributed cold box</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>Distributed vaccination cards</v>
+        <v>Redistributed cold box</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>CVX_DISTRIBUTED_CARDS</v>
+        <v>CVX_REDISTRIBUTED_COLD_BOX</v>
       </c>
       <c r="D53" s="5" t="str">
         <v/>
@@ -10156,67 +10842,67 @@
         <v>default</v>
       </c>
       <c r="F53" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G53" s="5" t="str">
-        <v>vThouKg9t52</v>
+        <v>sM3XJvqqU5k</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>COVAX - Redistributed vials</v>
+        <v>COVAX - Stockout days vaccine 3</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>Redistributed vials</v>
+        <v>Stockout days vaccine 3</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_VIALS</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE3</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>Total COVID-19 vaccine doses received</v>
+        <v/>
       </c>
       <c r="E54" s="4" t="str">
-        <v>COVID19 Vaccine</v>
+        <v>default</v>
       </c>
       <c r="F54" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G54" s="4" t="str">
-        <v>XgTKGD53X7l</v>
+        <v>sNAklHVNhYj</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>COVAX - 1st dose given to essential workers</v>
+        <v>COVAX - Stockout days cold box</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>1st dose - Essential workers</v>
+        <v>Stockout days cold box</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
+        <v>CVX_STOCKOUT_DAYS_COLD_BOX</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v>Essential workers vaccinated with the first dose</v>
+        <v/>
       </c>
       <c r="E55" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F55" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G55" s="5" t="str">
-        <v>xtorWGRMKCn</v>
+        <v>Sq1bNvKm7eE</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>COVAX - Distributed cold box</v>
+        <v>COVAX - Stockout days vaccine 2</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>Distributed cold box</v>
+        <v>Stockout days vaccine 2</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>CVX_DISTRIBUTED_COLD_BOX</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE2</v>
       </c>
       <c r="D56" s="4" t="str">
         <v/>
@@ -10225,79 +10911,401 @@
         <v>default</v>
       </c>
       <c r="F56" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G56" s="4" t="str">
-        <v>y1TIZ7EacZy</v>
+        <v>suWcEhb54Mz</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>COVAX - Target frontline healthcare workers</v>
+        <v>COVAX - Booster dose given to HCWs</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Booster - HCWs</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>CVX_TARGET_FRONTLINE_HEALTHCARE_WORKERS</v>
+        <v>CVX_FRONTLINE_HCW_BOOSTER_DOSE</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v>Estimated health care workers within the target area</v>
+        <v>Health Care Workers who received a booster</v>
       </c>
       <c r="E57" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F57" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G57" s="5" t="str">
-        <v>YC0JuESssig</v>
+        <v>u70rr83wIzM</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>COVAX - 2nd dose given to essential workers</v>
+        <v>COVAX - Opening balance vaccination cards</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>2nd dose - Essential woekers</v>
+        <v>Opening balance vaccination cards</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_2ND_DOSE</v>
+        <v>CVX_OPENING_BALANCE_CARDS</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>Essential workers who received the second dose</v>
+        <v/>
       </c>
       <c r="E58" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F58" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G58" s="4" t="str">
-        <v>Z8SPWzgXYG5</v>
+        <v>UE9gtRQP6RN</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>COVAX - Received safety box</v>
+        <v>COVAX - Target people with at least one underlying medical condition</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>Received safety box</v>
+        <v>Target people with underlying medical conditions</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>CVX_RECEIVED_SAFETY_BOX</v>
+        <v>CVX_TARGET_PEOPLE_WITH_EXISTING_MEDICAL_CONDITIONS</v>
       </c>
       <c r="D59" s="5" t="str">
-        <v/>
+        <v>Estimated people with at least one underlying medical condition within the target area</v>
       </c>
       <c r="E59" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F59" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G59" s="5" t="str">
+        <v>v2qvl9d2eqz</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="str">
+        <v>COVAX - Discarded dilution syringes</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <v>Discarded dilution syringes</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <v>CVX_DISCARDED_DILUTION_SYRINGES</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E60" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F60" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <v>v62AZPz5mRY</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="str">
+        <v>COVAX - Stockout days vaccine 1</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <v>Stockout days vaccine 1</v>
+      </c>
+      <c r="C61" s="5" t="str">
+        <v>CVX_STOCKOUT_DAYS_VACCINE1</v>
+      </c>
+      <c r="D61" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E61" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F61" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G61" s="5" t="str">
+        <v>VISxgxU3QF1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="str">
+        <v>COVAX - Stock at hand diluent</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <v>Stock at hand diluent</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <v>CVX_STOCK_AT_HAND_DILUENT</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E62" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F62" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <v>vK53cFjDnqY</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="str">
+        <v>COVAX - Target essential workers</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <v>Target essential workers</v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
+      </c>
+      <c r="D63" s="5" t="str">
+        <v>Estimated essential workers within the target area</v>
+      </c>
+      <c r="E63" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F63" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G63" s="5" t="str">
+        <v>vkXAQQDE48p</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="str">
+        <v>COVAX - Distributed vaccination cards</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <v>Distributed vaccination cards</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <v>CVX_DISTRIBUTED_CARDS</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E64" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F64" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <v>vThouKg9t52</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="str">
+        <v>COVAX - Redistributed vials</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <v>Redistributed vials</v>
+      </c>
+      <c r="C65" s="5" t="str">
+        <v>CVX_REDISTRIBUTED_VIALS</v>
+      </c>
+      <c r="D65" s="5" t="str">
+        <v>Total COVID-19 vaccine doses received</v>
+      </c>
+      <c r="E65" s="5" t="str">
+        <v>COVID19 Vaccine</v>
+      </c>
+      <c r="F65" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G65" s="5" t="str">
+        <v>XgTKGD53X7l</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="str">
+        <v>COVAX - 1st dose given to essential workers</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <v>1st dose - Essential workers</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <v>Essential workers vaccinated with the first dose</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <v>xtorWGRMKCn</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="str">
+        <v>COVAX - Distributed cold box</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <v>Distributed cold box</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <v>CVX_DISTRIBUTED_COLD_BOX</v>
+      </c>
+      <c r="D67" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E67" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F67" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G67" s="5" t="str">
+        <v>y1TIZ7EacZy</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="str">
+        <v>COVAX - Target frontline healthcare workers</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <v>Target frontline healthcare workers</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <v>CVX_TARGET_FRONTLINE_HEALTHCARE_WORKERS</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <v>Estimated health care workers within the target area</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F68" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <v>YC0JuESssig</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="str">
+        <v>COVAX - Opening balance diluent</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <v>Opening balance diluent</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <v>CVX_OPENING_BALANCE_DILUENT</v>
+      </c>
+      <c r="D69" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E69" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F69" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G69" s="5" t="str">
+        <v>YC4xkksGZbG</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="str">
+        <v>COVAX - 2nd dose given to essential workers</v>
+      </c>
+      <c r="B70" s="4" t="str">
+        <v>2nd dose - Essential woekers</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <v>CVX_ESSENTIAL_WORKERS_2ND_DOSE</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <v>Essential workers who received the second dose</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <v>Z8SPWzgXYG5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="str">
+        <v>COVAX - Received dilution syringes</v>
+      </c>
+      <c r="B71" s="5" t="str">
+        <v>Received dilution syringes</v>
+      </c>
+      <c r="C71" s="5" t="str">
+        <v>CVX_RECEIVED_DILUTION_SYRINGES</v>
+      </c>
+      <c r="D71" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E71" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F71" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G71" s="5" t="str">
+        <v>z9jyGHT6pmR</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="str">
+        <v>COVAX - Received safety box</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>Received safety box</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <v>CVX_RECEIVED_SAFETY_BOX</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E72" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G72" s="4" t="str">
         <v>ZdJXThga9s1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="str">
+        <v>COVAX - Stockout days diluent</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <v>Stockout days diluent</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <v>CVX_STOCKOUT_DAYS_DILUENT</v>
+      </c>
+      <c r="D73" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E73" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F73" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G73" s="5" t="str">
+        <v>zJ5mQhI5EFq</v>
       </c>
     </row>
   </sheetData>
@@ -10512,7 +11520,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>COVAX - Stock on hand syringes with needle 1ml</v>
+        <v>COVAX - Stock at hand syringes with needle 1ml</v>
       </c>
     </row>
     <row r="26">
@@ -10528,7 +11536,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>COVAX - Stock on hand cold box</v>
+        <v>COVAX - Stock at hand cold box</v>
       </c>
     </row>
     <row r="28">
@@ -10552,7 +11560,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>COVAX - Stock on hand safety box</v>
+        <v>COVAX - Stock at hand safety box</v>
       </c>
     </row>
     <row r="31">
@@ -10560,7 +11568,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>COVAX - Stock on hand vaccination cards</v>
+        <v>COVAX - Stock at hand vaccination cards</v>
       </c>
     </row>
     <row r="32">
@@ -10624,7 +11632,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>COVAX - Stock on hand vials</v>
+        <v>COVAX - Stock at hand vials</v>
       </c>
     </row>
     <row r="40">
@@ -10815,7 +11823,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>bjDvmb4bfuf</v>
@@ -10829,7 +11837,7 @@
         <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>dn78y6mGmML</v>
@@ -10843,7 +11851,7 @@
         <v>COVID19 Vaccine/AEFI Severity</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>EIc4YmuCrB0</v>
@@ -10857,7 +11865,7 @@
         <v>Age(&lt;60-60+years)/Sex</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>ejUQIUINJ58</v>
@@ -10871,7 +11879,7 @@
         <v>Vial condition/Wastage reasons</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>P9CXpIYGFBR</v>
@@ -10885,7 +11893,7 @@
         <v>COVID19 Vaccine</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>VnRusgdMitL</v>
@@ -10930,7 +11938,7 @@
         <v>Discard reasons</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>boNz0GvOobN</v>
@@ -10944,7 +11952,7 @@
         <v>Vial condition</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>EXJpgAuqHsK</v>
@@ -10958,7 +11966,7 @@
         <v>Sex</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>FRwO58KwwJt</v>
@@ -10972,7 +11980,7 @@
         <v>default</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>GLevLNI9wkl</v>
@@ -10986,7 +11994,7 @@
         <v>AEFI Severity</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>HaN8FUppNcv</v>
@@ -11000,7 +12008,7 @@
         <v>COVID19 Vaccines</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>sU4c2u8FXMj</v>
@@ -11014,7 +12022,7 @@
         <v>Age(&lt;60-60+years)</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C8" s="4" t="str">
         <v>zOt7MceLobG</v>
